--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="313">
   <si>
     <r>
       <rPr>
@@ -2142,7 +2142,7 @@
     <t>编程语言</t>
   </si>
   <si>
-    <t>devops_pipeline_template_language</t>
+    <t>devops_ci_template_language</t>
   </si>
   <si>
     <t>#built_in</t>
@@ -2151,19 +2151,19 @@
     <t>#language</t>
   </si>
   <si>
-    <t>devops_pipeline_template_language-1</t>
+    <t>devops_ci_template_language-1</t>
   </si>
   <si>
     <t>java</t>
   </si>
   <si>
-    <t>devops_pipeline_template_language-2</t>
+    <t>devops_ci_template_language-2</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>devops_pipeline_template_language-3</t>
+    <t>devops_ci_template_language-3</t>
   </si>
   <si>
     <t>node.js</t>
@@ -2199,43 +2199,43 @@
     <t>site</t>
   </si>
   <si>
-    <t>Java(Maven构建)+构建镜像+容器部署</t>
+    <t>Java(Maven构建)+构建镜像</t>
   </si>
   <si>
     <t>devops_pipeline_template-2</t>
   </si>
   <si>
-    <t>Java(Maven构建)+构建+主机部署</t>
+    <t>Java(Maven构建)+构建</t>
   </si>
   <si>
     <t>devops_pipeline_template-3</t>
   </si>
   <si>
-    <t>Node.js(Npm构建)+构建镜像+容器部署</t>
+    <t>Go构建镜像+发布Chart</t>
   </si>
   <si>
     <t>devops_pipeline_template-4</t>
   </si>
   <si>
-    <t>Node.js(Npm构建)：构建+主机部署</t>
+    <t>Go构建</t>
   </si>
   <si>
     <t>devops_pipeline_template-5</t>
   </si>
   <si>
-    <t>Go构建镜像+发布Chart+容器部署</t>
+    <t>Node.js(Npm构建)+构建镜像</t>
   </si>
   <si>
     <t>devops_pipeline_template-6</t>
   </si>
   <si>
-    <t>Go构建+主机部署</t>
+    <t>Node.js(Npm构建)+构建</t>
   </si>
   <si>
     <t>流水线ci变量</t>
   </si>
   <si>
-    <t>devops_pipeline_template_ci_variable</t>
+    <t>devops_ci_template_variable</t>
   </si>
   <si>
     <t>#pipeline_template_id</t>
@@ -2250,25 +2250,58 @@
     <t>流水线阶段模板</t>
   </si>
   <si>
-    <t>devops_pipeline_template_stage</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_stage-1</t>
+    <t>devops_ci_template_stage</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-1</t>
   </si>
   <si>
     <t>代码扫描</t>
   </si>
   <si>
-    <t>devops_pipeline_template_stage-2</t>
+    <t>devops_ci_template_stage-2</t>
+  </si>
+  <si>
+    <t>构建镜像</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-3</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-4</t>
   </si>
   <si>
     <t>构建</t>
   </si>
   <si>
+    <t>devops_ci_template_stage-5</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-6</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-7</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-8</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-9</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-10</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-11</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-12</t>
+  </si>
+  <si>
     <t>流水线模板任务分组</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_group</t>
+    <t>devops_ci_template_job_group</t>
   </si>
   <si>
     <t>name</t>
@@ -2283,13 +2316,13 @@
     <t>type</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_group-1</t>
+    <t>devops_ci_template_job_group-1</t>
   </si>
   <si>
     <t>build</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_group-2</t>
+    <t>devops_ci_template_job_group-2</t>
   </si>
   <si>
     <t>镜像构建</t>
@@ -2298,13 +2331,13 @@
     <t>docker-build</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_group-3</t>
+    <t>devops_ci_template_job_group-3</t>
   </si>
   <si>
     <t>code-scann</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_group-4</t>
+    <t>devops_ci_template_job_group-4</t>
   </si>
   <si>
     <t>单元测试</t>
@@ -2313,7 +2346,7 @@
     <t>unit-test</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_group-5</t>
+    <t>devops_ci_template_job_group-5</t>
   </si>
   <si>
     <t>测试构建</t>
@@ -2325,7 +2358,7 @@
     <t>流水线任务模板</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job</t>
+    <t>devops_ci_template_job</t>
   </si>
   <si>
     <t>#group_id</t>
@@ -2340,58 +2373,130 @@
     <t>is_to_download</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job-1</t>
+    <t>devops_ci_template_job-1</t>
   </si>
   <si>
     <t>代码检查</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job-2</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_job-3</t>
+    <t>devops_ci_template_job-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-3</t>
   </si>
   <si>
     <t>Java镜像构建</t>
   </si>
   <si>
+    <t>devops_ci_template_job-6</t>
+  </si>
+  <si>
+    <t>Maven构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-9</t>
+  </si>
+  <si>
+    <t>Go镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-12</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-15</t>
+  </si>
+  <si>
+    <t>Node.js镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-16</t>
+  </si>
+  <si>
+    <t>Npm构建</t>
+  </si>
+  <si>
     <t>阶段任务关系表</t>
   </si>
   <si>
-    <t>devops_pipeline_template_stage_job_rel</t>
-  </si>
-  <si>
-    <t>pipeline_template_stage_id</t>
-  </si>
-  <si>
-    <t>pipeline_template_job_id</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_stage_job_rel-1</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_stage_job_rel-2</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_stage_job_rel-3</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step_category</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step_category-1</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step_category-2</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step_category-3</t>
+    <t>devops_ci_template_stage_job_rel</t>
+  </si>
+  <si>
+    <t>ci_template_stage_id</t>
+  </si>
+  <si>
+    <t>ci_template_job_id</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-1</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-3</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-4</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-5</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-6</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-7</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-8</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-9</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-10</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-11</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-12</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-13</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-14</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-15</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-16</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-17</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-18</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category-1</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category-3</t>
   </si>
   <si>
     <t>code-check</t>
   </si>
   <si>
-    <t>devops_pipeline_template_step_category-4</t>
+    <t>devops_ci_template_step_category-4</t>
   </si>
   <si>
     <t>上传</t>
@@ -2400,7 +2505,7 @@
     <t>uplod</t>
   </si>
   <si>
-    <t>devops_pipeline_template_step</t>
+    <t>devops_ci_template_step</t>
   </si>
   <si>
     <t>category_id</t>
@@ -2415,7 +2520,7 @@
     <t>step_config_id</t>
   </si>
   <si>
-    <t>devops_pipeline_template_step-1</t>
+    <t>devops_ci_template_step-1</t>
   </si>
   <si>
     <t>SonarQube代码检查</t>
@@ -2424,7 +2529,7 @@
     <t>sonar</t>
   </si>
   <si>
-    <t>devops_pipeline_template_step-2</t>
+    <t>devops_ci_template_step-2</t>
   </si>
   <si>
     <t>Maven单元测试</t>
@@ -2433,118 +2538,169 @@
     <t>maven_unit_test</t>
   </si>
   <si>
-    <t>Maven构建</t>
+    <t>devops_ci_template_step-3</t>
   </si>
   <si>
     <t>maven_build</t>
   </si>
   <si>
-    <t>Npm构建</t>
+    <t>devops_ci_template_step-4</t>
+  </si>
+  <si>
+    <t>Docker构建</t>
+  </si>
+  <si>
+    <t>docker_build</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-5</t>
+  </si>
+  <si>
+    <t>上传Chart至猪齿鱼</t>
+  </si>
+  <si>
+    <t>upload_chart</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-6</t>
+  </si>
+  <si>
+    <t>上传Jar包至制品库</t>
+  </si>
+  <si>
+    <t>upload_jar</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-7</t>
+  </si>
+  <si>
+    <t>Go单元测试</t>
+  </si>
+  <si>
+    <t>go_unit_test</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-8</t>
+  </si>
+  <si>
+    <t>go_build</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-9</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-10</t>
+  </si>
+  <si>
+    <t>Node.js单元测试</t>
+  </si>
+  <si>
+    <t>npm_unit_test</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-11</t>
+  </si>
+  <si>
+    <t>Node.js构建</t>
+  </si>
+  <si>
+    <t>npm_js_build</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-12</t>
   </si>
   <si>
     <t>npm_build</t>
   </si>
   <si>
-    <t>devops_pipeline_template_step-3</t>
-  </si>
-  <si>
-    <t>Go构建</t>
-  </si>
-  <si>
-    <t>go_build</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-4</t>
-  </si>
-  <si>
-    <t>Docker构建</t>
-  </si>
-  <si>
-    <t>docker_build</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-5</t>
-  </si>
-  <si>
-    <t>Maven发布</t>
-  </si>
-  <si>
-    <t>maven_publish</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-6</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-7</t>
-  </si>
-  <si>
-    <t>Go单元测试</t>
-  </si>
-  <si>
-    <t>go_unit_test</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-8</t>
-  </si>
-  <si>
-    <t>Node.js单元测试</t>
-  </si>
-  <si>
-    <t>npm_unit_test</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-10</t>
-  </si>
-  <si>
-    <t>上传Chart至猪齿鱼</t>
-  </si>
-  <si>
-    <t>upload_chart</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-11</t>
-  </si>
-  <si>
-    <t>上传Jar包至制品库</t>
-  </si>
-  <si>
-    <t>upload_jar</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_step-12</t>
-  </si>
-  <si>
-    <t>上传Npm包至制品库</t>
-  </si>
-  <si>
-    <t>upload_npm</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_job_step_rel</t>
-  </si>
-  <si>
-    <t>pipeline_template_step_id</t>
+    <t>devops_ci_template_job_step_rel</t>
+  </si>
+  <si>
+    <t>ci_template_step_id</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>devops_pipeline_template_job_step_rel-1</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_job_step_rel-2</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_job_step_rel-3</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template_job_step_rel-4</t>
+    <t>devops_ci_template_job_step_rel-1</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-3</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-4</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-5</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-6</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-7</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-8</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-9</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-10</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-11</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-12</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-13</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-14</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-15</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-16</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-17</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-18</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-19</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-20</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-21</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-22</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-23</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-24</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-25</t>
   </si>
   <si>
     <t>步骤执行参数</t>
   </si>
   <si>
-    <t>devops_pipeline_template_sonar_config</t>
+    <t>devops_ci_template_sonar</t>
   </si>
   <si>
     <t>scanner_type</t>
@@ -2571,10 +2727,61 @@
     <t>token</t>
   </si>
   <si>
-    <t>devops_pipeline_template_sonar_config-1</t>
+    <t>devops_ci_template_sonar-1</t>
   </si>
   <si>
     <t>sonarmaven</t>
+  </si>
+  <si>
+    <t>devops_ci_template_sonar-2</t>
+  </si>
+  <si>
+    <t>SonarScanner</t>
+  </si>
+  <si>
+    <t>devops_ci_template_docker</t>
+  </si>
+  <si>
+    <t>docker_file_path</t>
+  </si>
+  <si>
+    <t>docker_context_dir</t>
+  </si>
+  <si>
+    <t>skip_docker_tls_verify</t>
+  </si>
+  <si>
+    <t>image_scan</t>
+  </si>
+  <si>
+    <t>security_control</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>devops_ci_template_docker-1</t>
+  </si>
+  <si>
+    <t>docker/Dockerfile</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>devops_ci_template_docker-2</t>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2582,12 +2789,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2616,12 +2823,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2683,13 +2884,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2697,67 +2891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2787,6 +2921,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2801,28 +3018,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2846,13 +3041,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2865,12 +3053,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2914,145 +3096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3070,7 +3114,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3082,19 +3192,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3201,17 +3383,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3227,44 +3403,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3284,6 +3427,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3298,165 +3450,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3464,44 +3645,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3514,7 +3695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3917,10 +4098,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -3934,79 +4115,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4014,56 +4195,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4073,64 +4254,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4153,10 +4334,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4169,7 +4350,7 @@
     <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="28.25" customWidth="1"/>
     <col min="10" max="10" width="39.75" customWidth="1"/>
     <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
     <col min="13" max="13" width="42.0833333333333" customWidth="1"/>
@@ -4212,37 +4393,37 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:13">
@@ -4251,10 +4432,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4267,14 +4448,14 @@
       </c>
       <c r="J8" t="str">
         <f>流水线步骤分类!E10</f>
-        <v>devops_pipeline_template_step_category-3</v>
+        <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="M8" t="str">
         <f>代码检查步骤参数配置!E8</f>
-        <v>devops_pipeline_template_sonar_config-1</v>
+        <v>devops_ci_template_sonar-1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:11">
@@ -4283,10 +4464,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4299,20 +4480,20 @@
       </c>
       <c r="J9" t="str">
         <f>流水线步骤分类!E9</f>
-        <v>devops_pipeline_template_step_category-2</v>
+        <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="K9" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:11">
-      <c r="E10" s="7" t="s">
-        <v>190</v>
+      <c r="E10" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7">
+        <v>182</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -4323,20 +4504,20 @@
       </c>
       <c r="J10" t="str">
         <f>流水线步骤分类!E8</f>
-        <v>devops_pipeline_template_step_category-1</v>
+        <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="K10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:11">
-      <c r="E11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:13">
+      <c r="E11" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -4347,20 +4528,24 @@
       </c>
       <c r="J11" t="str">
         <f>流水线步骤分类!E8</f>
-        <v>devops_pipeline_template_step_category-1</v>
+        <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="K11" t="s">
-        <v>199</v>
+        <v>235</v>
+      </c>
+      <c r="M11" t="str">
+        <f>代码检查步骤参数配置!E14</f>
+        <v>devops_ci_template_docker-1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:11">
-      <c r="E12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -4370,21 +4555,21 @@
         <v>1</v>
       </c>
       <c r="J12" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_pipeline_template_step_category-1</v>
+        <f>流水线步骤分类!E11</f>
+        <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:11">
-      <c r="E13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="E13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -4394,21 +4579,21 @@
         <v>1</v>
       </c>
       <c r="J13" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_pipeline_template_step_category-1</v>
+        <f>流水线步骤分类!E11</f>
+        <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="K13" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:11">
-      <c r="E14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="E14" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" t="s">
@@ -4418,21 +4603,21 @@
         <v>1</v>
       </c>
       <c r="J14" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_pipeline_template_step_category-1</v>
+        <f>流水线步骤分类!E9</f>
+        <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="K14" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:11">
-      <c r="E15" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="E15" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -4442,21 +4627,21 @@
         <v>1</v>
       </c>
       <c r="J15" t="str">
-        <f>流水线步骤分类!E9</f>
-        <v>devops_pipeline_template_step_category-2</v>
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="K15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="5:11">
-      <c r="E16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:13">
+      <c r="E16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -4466,21 +4651,25 @@
         <v>1</v>
       </c>
       <c r="J16" t="str">
-        <f>流水线步骤分类!E9</f>
-        <v>devops_pipeline_template_step_category-2</v>
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="K16" t="s">
-        <v>212</v>
+        <v>235</v>
+      </c>
+      <c r="M16" t="str">
+        <f>代码检查步骤参数配置!E15</f>
+        <v>devops_ci_template_docker-2</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:11">
-      <c r="E17" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" t="s">
@@ -4491,20 +4680,20 @@
       </c>
       <c r="J17" t="str">
         <f>流水线步骤分类!E9</f>
-        <v>devops_pipeline_template_step_category-2</v>
+        <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="K17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" t="s">
-        <v>216</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="5:11">
+      <c r="E18" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18">
+        <v>252</v>
+      </c>
+      <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -4514,21 +4703,21 @@
         <v>1</v>
       </c>
       <c r="J18" t="str">
-        <f>流水线步骤分类!E11</f>
-        <v>devops_pipeline_template_step_category-4</v>
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="K18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11">
-      <c r="E19" t="s">
-        <v>219</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="5:11">
+      <c r="E19" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19">
+        <v>189</v>
+      </c>
+      <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" t="s">
@@ -4538,116 +4727,547 @@
         <v>1</v>
       </c>
       <c r="J19" t="str">
-        <f>流水线步骤分类!E11</f>
-        <v>devops_pipeline_template_step_category-4</v>
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="K19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="E20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="5:7">
+      <c r="E20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:7">
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" customFormat="1" spans="5:7">
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" customFormat="1" spans="5:7">
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="29" spans="4:9">
+      <c r="D29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G30" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="J20" t="str">
-        <f>流水线步骤分类!E11</f>
-        <v>devops_pipeline_template_step_category-4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8">
-      <c r="D26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8">
-      <c r="E27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="I30" t="str">
+        <f>流水线阶段模板!E8</f>
+        <v>devops_ci_template_stage-1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G31" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_step-2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="str">
+        <f>流水线阶段模板!E8</f>
+        <v>devops_ci_template_stage-1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" t="str">
+        <f>流水线任务模板!E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+      <c r="G32" t="str">
+        <f>E10</f>
+        <v>devops_ci_template_step-3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="str">
+        <f>流水线阶段模板!E9</f>
+        <v>devops_ci_template_stage-2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" t="str">
+        <f>流水线任务模板!E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+      <c r="G33" t="str">
+        <f>E11</f>
+        <v>devops_ci_template_step-4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="str">
+        <f>流水线阶段模板!E9</f>
+        <v>devops_ci_template_stage-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" t="str">
+        <f>流水线任务模板!E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+      <c r="G34" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" t="str">
+        <f>流水线阶段模板!E9</f>
+        <v>devops_ci_template_stage-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
-        <v>devops_pipeline_template_job-1</v>
-      </c>
-      <c r="G27" t="str">
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G35" t="str">
         <f>E8</f>
-        <v>devops_pipeline_template_step-1</v>
-      </c>
-      <c r="H27">
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="5:8">
-      <c r="E28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="I35" t="str">
+        <f>流水线阶段模板!E10</f>
+        <v>devops_ci_template_stage-3</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
-        <v>devops_pipeline_template_job-2</v>
-      </c>
-      <c r="G28" t="str">
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G36" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_step-2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="str">
+        <f>流水线阶段模板!E10</f>
+        <v>devops_ci_template_stage-3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" t="str">
+        <f>流水线任务模板!E11</f>
+        <v>devops_ci_template_job-6</v>
+      </c>
+      <c r="G37" t="str">
+        <f>E10</f>
+        <v>devops_ci_template_step-3</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="str">
+        <f>流水线阶段模板!E11</f>
+        <v>devops_ci_template_stage-4</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" t="str">
+        <f>流水线任务模板!E11</f>
+        <v>devops_ci_template_job-6</v>
+      </c>
+      <c r="G38" t="str">
+        <f>E13</f>
+        <v>devops_ci_template_step-6</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="str">
+        <f>流水线阶段模板!E11</f>
+        <v>devops_ci_template_stage-4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G39" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <f>流水线阶段模板!E12</f>
+        <v>devops_ci_template_stage-5</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_step-7</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="str">
+        <f>流水线阶段模板!E12</f>
+        <v>devops_ci_template_stage-5</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G41" t="str">
         <f>E15</f>
-        <v>devops_pipeline_template_step-6</v>
-      </c>
-      <c r="H28">
+        <v>devops_ci_template_step-8</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" t="str">
+        <f>流水线阶段模板!E13</f>
+        <v>devops_ci_template_stage-6</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G42" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_step-9</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="str">
+        <f>流水线阶段模板!E13</f>
+        <v>devops_ci_template_stage-6</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G43" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" t="str">
+        <f>流水线阶段模板!E13</f>
+        <v>devops_ci_template_stage-6</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G44" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="str">
+        <f>流水线阶段模板!E14</f>
+        <v>devops_ci_template_stage-7</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G45" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_step-7</v>
+      </c>
+      <c r="H45">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="E29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" t="str">
-        <f>流水线任务模板!E10</f>
-        <v>devops_pipeline_template_job-3</v>
-      </c>
-      <c r="G29" t="str">
-        <f>E10</f>
-        <v>devops_pipeline_template_step-1</v>
-      </c>
-      <c r="H29">
+      <c r="I45" t="str">
+        <f>流水线阶段模板!E14</f>
+        <v>devops_ci_template_stage-7</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" t="str">
+        <f>流水线任务模板!E13</f>
+        <v>devops_ci_template_job-12</v>
+      </c>
+      <c r="G46" t="str">
+        <f>E15</f>
+        <v>devops_ci_template_step-8</v>
+      </c>
+      <c r="H46">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" t="str">
-        <f>流水线任务模板!E10</f>
-        <v>devops_pipeline_template_job-3</v>
-      </c>
-      <c r="G30" t="str">
-        <f>E13</f>
-        <v>devops_pipeline_template_step-4</v>
-      </c>
-      <c r="H30">
+      <c r="I46" t="str">
+        <f>流水线阶段模板!E15</f>
+        <v>devops_ci_template_stage-8</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G47" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="str">
+        <f>流水线阶段模板!E16</f>
+        <v>devops_ci_template_stage-9</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G48" t="str">
+        <f>E17</f>
+        <v>devops_ci_template_step-10</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="str">
+        <f>流水线阶段模板!E16</f>
+        <v>devops_ci_template_stage-9</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G49" t="str">
+        <f>E18</f>
+        <v>devops_ci_template_step-11</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="str">
+        <f>流水线阶段模板!E17</f>
+        <v>devops_ci_template_stage-10</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G50" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_step-9</v>
+      </c>
+      <c r="H50">
         <v>4</v>
+      </c>
+      <c r="I50" t="str">
+        <f>流水线阶段模板!E17</f>
+        <v>devops_ci_template_stage-10</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G51" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51" t="str">
+        <f>流水线阶段模板!E17</f>
+        <v>devops_ci_template_stage-10</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9">
+      <c r="E52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G52" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="str">
+        <f>流水线阶段模板!E18</f>
+        <v>devops_ci_template_stage-11</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G53" t="str">
+        <f>E17</f>
+        <v>devops_ci_template_step-10</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="str">
+        <f>流水线阶段模板!E18</f>
+        <v>devops_ci_template_stage-11</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" t="str">
+        <f>流水线任务模板!E15</f>
+        <v>devops_ci_template_job-16</v>
+      </c>
+      <c r="G54" t="str">
+        <f>E19</f>
+        <v>devops_ci_template_step-12</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" t="str">
+        <f>流水线阶段模板!E19</f>
+        <v>devops_ci_template_stage-12</v>
       </c>
     </row>
   </sheetData>
@@ -4659,10 +5279,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4670,12 +5290,13 @@
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
     <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="13.8333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4715,65 +5336,143 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="I7" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="K7" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="L7" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
-      <c r="E8" s="7" t="s">
-        <v>242</v>
+      <c r="E8" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="7">
+        <v>295</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="6:6">
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="6:6">
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K13" t="s">
+        <v>304</v>
+      </c>
+      <c r="L13" t="s">
+        <v>305</v>
+      </c>
+      <c r="M13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5103,57 +5802,57 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="5:7">
-      <c r="E19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="5:7">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7">
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="7"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="7"/>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5167,8 +5866,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5296,67 +5995,65 @@
     <row r="11" customFormat="1"/>
     <row r="12" customFormat="1"/>
     <row r="13" customFormat="1" spans="2:8">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="7"/>
-      <c r="F14"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="5:8">
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="5:8">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="5:8">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="5:8">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="5:8">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="5:8">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="6:6">
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="6:6">
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5369,8 +6066,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5478,7 +6175,7 @@
       </c>
       <c r="J8" t="str">
         <f>编程语言!E8</f>
-        <v>devops_pipeline_template_language-1</v>
+        <v>devops_ci_template_language-1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5502,7 +6199,7 @@
       </c>
       <c r="J9" t="str">
         <f>编程语言!E8</f>
-        <v>devops_pipeline_template_language-1</v>
+        <v>devops_ci_template_language-1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5525,8 +6222,8 @@
         <v>122</v>
       </c>
       <c r="J10" t="str">
-        <f>编程语言!E10</f>
-        <v>devops_pipeline_template_language-3</v>
+        <f>编程语言!E9</f>
+        <v>devops_ci_template_language-2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5549,8 +6246,8 @@
         <v>124</v>
       </c>
       <c r="J11" t="str">
-        <f>编程语言!E10</f>
-        <v>devops_pipeline_template_language-3</v>
+        <f>编程语言!E9</f>
+        <v>devops_ci_template_language-2</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5573,16 +6270,16 @@
         <v>126</v>
       </c>
       <c r="J12" t="str">
-        <f>编程语言!E9</f>
-        <v>devops_pipeline_template_language-2</v>
+        <f>编程语言!E10</f>
+        <v>devops_ci_template_language-3</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:11">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
         <v>127</v>
@@ -5600,65 +6297,65 @@
         <v>128</v>
       </c>
       <c r="J13" t="str">
-        <f>编程语言!E9</f>
-        <v>devops_pipeline_template_language-2</v>
+        <f>编程语言!E10</f>
+        <v>devops_ci_template_language-3</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="5:8">
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="5:8">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="5:8">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="5:8">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="5:8">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="5:8">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="6:6">
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="6:6">
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5671,8 +6368,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -5743,57 +6440,57 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="5:8">
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" customFormat="1" spans="5:8">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="6:6">
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5804,7 +6501,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -5874,54 +6571,148 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
         <v>devops_pipeline_template-1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
         <v>devops_pipeline_template-1</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>流水线模板!E9</f>
+        <v>devops_pipeline_template-2</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>流水线模板!E9</f>
+        <v>devops_pipeline_template-2</v>
+      </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>流水线模板!E10</f>
+        <v>devops_pipeline_template-3</v>
+      </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" customFormat="1" spans="6:6">
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="E13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>流水线模板!E10</f>
+        <v>devops_pipeline_template-3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="5:7">
+      <c r="E14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="str">
+        <f>流水线模板!E11</f>
+        <v>devops_pipeline_template-4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:7">
+      <c r="E15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="str">
+        <f>流水线模板!E11</f>
+        <v>devops_pipeline_template-4</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="str">
+        <f>流水线模板!E12</f>
+        <v>devops_pipeline_template-5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="str">
+        <f>流水线模板!E12</f>
+        <v>devops_pipeline_template-5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="str">
+        <f>流水线模板!E13</f>
+        <v>devops_pipeline_template-6</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" t="str">
+        <f>流水线模板!E13</f>
+        <v>devops_pipeline_template-6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5935,7 +6726,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5988,127 +6779,127 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:9">
+      <c r="E8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:9">
-      <c r="E8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:9">
-      <c r="E9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="E9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:9">
-      <c r="E10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:9">
-      <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="E11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:9">
-      <c r="E12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="1" spans="5:7">
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6119,10 +6910,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6178,10 +6969,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6190,25 +6981,25 @@
         <v>112</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
         <v>115</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:13">
@@ -6217,14 +7008,14 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板任务分组!E10</f>
-        <v>devops_pipeline_template_job_group-3</v>
+        <v>devops_ci_template_job_group-3</v>
       </c>
       <c r="I8" t="s">
         <v>117</v>
@@ -6243,15 +7034,15 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:13">
-      <c r="E9" s="7" t="s">
-        <v>167</v>
+      <c r="E9" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="7" t="str">
+        <v>165</v>
+      </c>
+      <c r="G9" s="6" t="str">
         <f>流水线模板任务分组!E11</f>
-        <v>devops_pipeline_template_job_group-4</v>
+        <v>devops_ci_template_job_group-4</v>
       </c>
       <c r="I9" t="s">
         <v>117</v>
@@ -6270,15 +7061,15 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:13">
-      <c r="E10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="7" t="str">
+      <c r="E10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
-        <v>devops_pipeline_template_job_group-2</v>
+        <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I10" t="s">
         <v>117</v>
@@ -6296,86 +7087,390 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="5:7">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" customFormat="1" spans="5:7">
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="7"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" t="s">
-        <v>171</v>
-      </c>
+    <row r="11" customFormat="1" spans="5:13">
+      <c r="E11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>流水线模板任务分组!E8</f>
+        <v>devops_ci_template_job_group-1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:13">
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" t="str">
+        <f>流水线模板任务分组!E9</f>
+        <v>devops_ci_template_job_group-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="str">
+        <f>流水线模板任务分组!E8</f>
+        <v>devops_ci_template_job_group-1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
+      <c r="E14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" t="str">
+        <f>流水线模板任务分组!E8</f>
+        <v>devops_ci_template_job_group-1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13">
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" t="str">
+        <f>流水线模板任务分组!E8</f>
+        <v>devops_ci_template_job_group-1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" t="str">
+        <f>流水线阶段模板!E8</f>
+        <v>devops_ci_template_stage-1</v>
+      </c>
+      <c r="G19" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" t="str">
+        <f>流水线阶段模板!E8</f>
+        <v>devops_ci_template_stage-1</v>
+      </c>
+      <c r="G20" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" t="str">
+        <f>流水线阶段模板!E9</f>
+        <v>devops_ci_template_stage-2</v>
+      </c>
+      <c r="G21" t="str">
+        <f>E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="str">
+        <f>流水线阶段模板!E10</f>
+        <v>devops_ci_template_stage-3</v>
+      </c>
+      <c r="G22" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" t="str">
+        <f>流水线阶段模板!E10</f>
+        <v>devops_ci_template_stage-3</v>
+      </c>
+      <c r="G23" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" t="s">
-        <v>173</v>
+        <v>199</v>
+      </c>
+      <c r="F24" t="str">
+        <f>流水线阶段模板!E11</f>
+        <v>devops_ci_template_stage-4</v>
+      </c>
+      <c r="G24" t="str">
+        <f>E11</f>
+        <v>devops_ci_template_job-6</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="F25" t="str">
-        <f>流水线阶段模板!E8</f>
-        <v>devops_pipeline_template_stage-1</v>
+        <f>流水线阶段模板!E12</f>
+        <v>devops_ci_template_stage-5</v>
       </c>
       <c r="G25" t="str">
         <f>E8</f>
-        <v>devops_pipeline_template_job-1</v>
+        <v>devops_ci_template_job-1</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="F26" t="str">
-        <f>流水线阶段模板!E8</f>
-        <v>devops_pipeline_template_stage-1</v>
+        <f>流水线阶段模板!E12</f>
+        <v>devops_ci_template_stage-5</v>
       </c>
       <c r="G26" t="str">
         <f>E9</f>
-        <v>devops_pipeline_template_job-2</v>
+        <v>devops_ci_template_job-2</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F27" t="str">
-        <f>流水线阶段模板!E9</f>
-        <v>devops_pipeline_template_stage-2</v>
+        <f>流水线阶段模板!E13</f>
+        <v>devops_ci_template_stage-6</v>
       </c>
       <c r="G27" t="str">
-        <f>E10</f>
-        <v>devops_pipeline_template_job-3</v>
+        <f>E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" t="str">
+        <f>流水线阶段模板!E14</f>
+        <v>devops_ci_template_stage-7</v>
+      </c>
+      <c r="G28" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" t="str">
+        <f>流水线阶段模板!E14</f>
+        <v>devops_ci_template_stage-7</v>
+      </c>
+      <c r="G29" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" t="str">
+        <f>流水线阶段模板!E15</f>
+        <v>devops_ci_template_stage-8</v>
+      </c>
+      <c r="G30" t="str">
+        <f>E13</f>
+        <v>devops_ci_template_job-12</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" t="str">
+        <f>流水线阶段模板!E16</f>
+        <v>devops_ci_template_stage-9</v>
+      </c>
+      <c r="G31" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="str">
+        <f>流水线阶段模板!E16</f>
+        <v>devops_ci_template_stage-9</v>
+      </c>
+      <c r="G32" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" t="str">
+        <f>流水线阶段模板!E17</f>
+        <v>devops_ci_template_stage-10</v>
+      </c>
+      <c r="G33" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" t="str">
+        <f>流水线阶段模板!E18</f>
+        <v>devops_ci_template_stage-11</v>
+      </c>
+      <c r="G34" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" t="str">
+        <f>流水线阶段模板!E18</f>
+        <v>devops_ci_template_stage-11</v>
+      </c>
+      <c r="G35" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" t="str">
+        <f>流水线阶段模板!E19</f>
+        <v>devops_ci_template_stage-12</v>
+      </c>
+      <c r="G36" t="str">
+        <f>E15</f>
+        <v>devops_ci_template_job-16</v>
       </c>
     </row>
   </sheetData>
@@ -6390,7 +7485,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6443,110 +7538,110 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:9">
+      <c r="E8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:9">
-      <c r="E8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:9">
-      <c r="E9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="E9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:9">
-      <c r="E10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:9">
-      <c r="E11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="E11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="1" spans="6:6">
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="306">
   <si>
     <r>
       <rPr>
@@ -2181,16 +2181,19 @@
     <t>#source_type</t>
   </si>
   <si>
+    <t>built_in</t>
+  </si>
+  <si>
     <t>#name</t>
   </si>
   <si>
-    <t>#template_language_id</t>
+    <t>#ci_template_language_id</t>
   </si>
   <si>
     <t>version_name</t>
   </si>
   <si>
-    <t>runner_images</t>
+    <t>image</t>
   </si>
   <si>
     <t>devops_pipeline_template-1</t>
@@ -2244,7 +2247,7 @@
     <t>#variable_key</t>
   </si>
   <si>
-    <t>#variable_value</t>
+    <t>variable_value</t>
   </si>
   <si>
     <t>流水线阶段模板</t>
@@ -2304,9 +2307,6 @@
     <t>devops_ci_template_job_group</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>source_id</t>
   </si>
   <si>
@@ -2361,10 +2361,7 @@
     <t>devops_ci_template_job</t>
   </si>
   <si>
-    <t>#group_id</t>
-  </si>
-  <si>
-    <t>built_in</t>
+    <t>group_id</t>
   </si>
   <si>
     <t>is_to_upload</t>
@@ -2421,10 +2418,10 @@
     <t>devops_ci_template_stage_job_rel</t>
   </si>
   <si>
-    <t>ci_template_stage_id</t>
-  </si>
-  <si>
-    <t>ci_template_job_id</t>
+    <t>#ci_template_stage_id</t>
+  </si>
+  <si>
+    <t>#ci_template_job_id</t>
   </si>
   <si>
     <t>devops_ci_template_stage_job_rel-1</t>
@@ -2493,33 +2490,21 @@
     <t>devops_ci_template_step_category-3</t>
   </si>
   <si>
-    <t>code-check</t>
-  </si>
-  <si>
     <t>devops_ci_template_step_category-4</t>
   </si>
   <si>
     <t>上传</t>
   </si>
   <si>
-    <t>uplod</t>
-  </si>
-  <si>
     <t>devops_ci_template_step</t>
   </si>
   <si>
     <t>category_id</t>
   </si>
   <si>
-    <t>step_type</t>
-  </si>
-  <si>
     <t>script</t>
   </si>
   <si>
-    <t>step_config_id</t>
-  </si>
-  <si>
     <t>devops_ci_template_step-1</t>
   </si>
   <si>
@@ -2616,7 +2601,7 @@
     <t>devops_ci_template_job_step_rel</t>
   </si>
   <si>
-    <t>ci_template_step_id</t>
+    <t>#ci_template_step_id</t>
   </si>
   <si>
     <t>sequence</t>
@@ -2731,12 +2716,6 @@
   </si>
   <si>
     <t>sonarmaven</t>
-  </si>
-  <si>
-    <t>devops_ci_template_sonar-2</t>
-  </si>
-  <si>
-    <t>SonarScanner</t>
   </si>
   <si>
     <t>devops_ci_template_docker</t>
@@ -2789,8 +2768,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2870,14 +2849,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2891,7 +2877,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2913,46 +2937,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2966,8 +2953,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2983,38 +2979,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3096,7 +3075,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,13 +3195,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3126,19 +3225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3150,49 +3237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3204,79 +3249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,20 +3362,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3408,6 +3399,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3430,201 +3454,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4092,25 +4071,25 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4125,7 +4104,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4139,7 +4118,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
@@ -4180,7 +4159,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
@@ -4194,7 +4173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
@@ -4237,7 +4216,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
@@ -4260,7 +4239,7 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
@@ -4268,7 +4247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
@@ -4276,7 +4255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
@@ -4284,7 +4263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
@@ -4310,7 +4289,7 @@
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
@@ -4334,26 +4313,24 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
-    <col min="10" max="10" width="39.75" customWidth="1"/>
-    <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="42.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4385,7 +4362,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -4393,345 +4370,291 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="str">
+        <v>118</v>
+      </c>
+      <c r="I8" t="str">
         <f>流水线步骤分类!E10</f>
         <v>devops_ci_template_step_category-3</v>
       </c>
-      <c r="K8" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" t="str">
-        <f>代码检查步骤参数配置!E8</f>
-        <v>devops_ci_template_sonar-1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:11">
+      <c r="J8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="str">
+        <v>118</v>
+      </c>
+      <c r="I9" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
-      <c r="K9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:11">
+      <c r="J9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:10">
       <c r="E10" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="str">
+        <v>118</v>
+      </c>
+      <c r="I10" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="K10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:13">
+      <c r="J10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:10">
       <c r="E11" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="str">
+        <v>118</v>
+      </c>
+      <c r="I11" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="K11" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" t="str">
-        <f>代码检查步骤参数配置!E14</f>
-        <v>devops_ci_template_docker-1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:11">
+      <c r="J11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:10">
       <c r="E12" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="str">
+        <v>118</v>
+      </c>
+      <c r="I12" t="str">
         <f>流水线步骤分类!E11</f>
         <v>devops_ci_template_step_category-4</v>
       </c>
-      <c r="K12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="5:11">
+      <c r="J12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:10">
       <c r="E13" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="str">
+        <v>118</v>
+      </c>
+      <c r="I13" t="str">
         <f>流水线步骤分类!E11</f>
         <v>devops_ci_template_step_category-4</v>
       </c>
-      <c r="K13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="5:11">
+      <c r="J13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="5:10">
       <c r="E14" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="str">
+        <v>118</v>
+      </c>
+      <c r="I14" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
-      <c r="K14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="5:11">
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:10">
       <c r="E15" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="str">
+        <v>118</v>
+      </c>
+      <c r="I15" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="K15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="5:13">
+      <c r="J15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:10">
       <c r="E16" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="str">
+        <v>118</v>
+      </c>
+      <c r="I16" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-      <c r="M16" t="str">
-        <f>代码检查步骤参数配置!E15</f>
-        <v>devops_ci_template_docker-2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="5:11">
+      <c r="J16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="5:10">
       <c r="E17" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="str">
+        <v>118</v>
+      </c>
+      <c r="I17" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
-      <c r="K17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="5:11">
+      <c r="J17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="5:10">
       <c r="E18" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="str">
+        <v>118</v>
+      </c>
+      <c r="I18" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="K18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="5:11">
+      <c r="J18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="5:10">
       <c r="E19" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="str">
+        <v>118</v>
+      </c>
+      <c r="I19" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="K19" t="s">
-        <v>255</v>
+      <c r="J19" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:7">
@@ -4750,29 +4673,26 @@
       <c r="E23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="29" spans="4:9">
+    <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -4785,14 +4705,10 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" t="str">
-        <f>流水线阶段模板!E8</f>
-        <v>devops_ci_template_stage-1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
+    </row>
+    <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -4805,14 +4721,10 @@
       <c r="H31">
         <v>2</v>
       </c>
-      <c r="I31" t="str">
-        <f>流水线阶段模板!E8</f>
-        <v>devops_ci_template_stage-1</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+    </row>
+    <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -4825,14 +4737,10 @@
       <c r="H32">
         <v>3</v>
       </c>
-      <c r="I32" t="str">
-        <f>流水线阶段模板!E9</f>
-        <v>devops_ci_template_stage-2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
+    </row>
+    <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -4845,14 +4753,10 @@
       <c r="H33">
         <v>4</v>
       </c>
-      <c r="I33" t="str">
-        <f>流水线阶段模板!E9</f>
-        <v>devops_ci_template_stage-2</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
+    </row>
+    <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -4865,14 +4769,10 @@
       <c r="H34">
         <v>5</v>
       </c>
-      <c r="I34" t="str">
-        <f>流水线阶段模板!E9</f>
-        <v>devops_ci_template_stage-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
+    </row>
+    <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
@@ -4885,14 +4785,10 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" t="str">
-        <f>流水线阶段模板!E10</f>
-        <v>devops_ci_template_stage-3</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
+    </row>
+    <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
@@ -4905,14 +4801,10 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" t="str">
-        <f>流水线阶段模板!E10</f>
-        <v>devops_ci_template_stage-3</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
+    </row>
+    <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E11</f>
@@ -4925,14 +4817,10 @@
       <c r="H37">
         <v>3</v>
       </c>
-      <c r="I37" t="str">
-        <f>流水线阶段模板!E11</f>
-        <v>devops_ci_template_stage-4</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
+    </row>
+    <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E11</f>
@@ -4945,14 +4833,10 @@
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" t="str">
-        <f>流水线阶段模板!E11</f>
-        <v>devops_ci_template_stage-4</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
+    </row>
+    <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E8</f>
@@ -4965,14 +4849,10 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" t="str">
-        <f>流水线阶段模板!E12</f>
-        <v>devops_ci_template_stage-5</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
+    </row>
+    <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E9</f>
@@ -4985,14 +4865,10 @@
       <c r="H40">
         <v>2</v>
       </c>
-      <c r="I40" t="str">
-        <f>流水线阶段模板!E12</f>
-        <v>devops_ci_template_stage-5</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
+    </row>
+    <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E12</f>
@@ -5005,14 +4881,10 @@
       <c r="H41">
         <v>3</v>
       </c>
-      <c r="I41" t="str">
-        <f>流水线阶段模板!E13</f>
-        <v>devops_ci_template_stage-6</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
+    </row>
+    <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E12</f>
@@ -5025,14 +4897,10 @@
       <c r="H42">
         <v>4</v>
       </c>
-      <c r="I42" t="str">
-        <f>流水线阶段模板!E13</f>
-        <v>devops_ci_template_stage-6</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
+    </row>
+    <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E12</f>
@@ -5045,14 +4913,10 @@
       <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43" t="str">
-        <f>流水线阶段模板!E13</f>
-        <v>devops_ci_template_stage-6</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
+    </row>
+    <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E8</f>
@@ -5065,14 +4929,10 @@
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44" t="str">
-        <f>流水线阶段模板!E14</f>
-        <v>devops_ci_template_stage-7</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
+    </row>
+    <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E9</f>
@@ -5085,14 +4945,10 @@
       <c r="H45">
         <v>2</v>
       </c>
-      <c r="I45" t="str">
-        <f>流水线阶段模板!E14</f>
-        <v>devops_ci_template_stage-7</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
+    </row>
+    <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E13</f>
@@ -5105,14 +4961,10 @@
       <c r="H46">
         <v>3</v>
       </c>
-      <c r="I46" t="str">
-        <f>流水线阶段模板!E15</f>
-        <v>devops_ci_template_stage-8</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
+    </row>
+    <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E8</f>
@@ -5125,14 +4977,10 @@
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47" t="str">
-        <f>流水线阶段模板!E16</f>
-        <v>devops_ci_template_stage-9</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
+    </row>
+    <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E9</f>
@@ -5145,14 +4993,10 @@
       <c r="H48">
         <v>2</v>
       </c>
-      <c r="I48" t="str">
-        <f>流水线阶段模板!E16</f>
-        <v>devops_ci_template_stage-9</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
+    </row>
+    <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F49" t="str">
         <f>流水线任务模板!E14</f>
@@ -5165,14 +5009,10 @@
       <c r="H49">
         <v>3</v>
       </c>
-      <c r="I49" t="str">
-        <f>流水线阶段模板!E17</f>
-        <v>devops_ci_template_stage-10</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
+    </row>
+    <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F50" t="str">
         <f>流水线任务模板!E14</f>
@@ -5185,14 +5025,10 @@
       <c r="H50">
         <v>4</v>
       </c>
-      <c r="I50" t="str">
-        <f>流水线阶段模板!E17</f>
-        <v>devops_ci_template_stage-10</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
+    </row>
+    <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F51" t="str">
         <f>流水线任务模板!E14</f>
@@ -5205,14 +5041,10 @@
       <c r="H51">
         <v>5</v>
       </c>
-      <c r="I51" t="str">
-        <f>流水线阶段模板!E17</f>
-        <v>devops_ci_template_stage-10</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
+    </row>
+    <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F52" t="str">
         <f>流水线任务模板!E8</f>
@@ -5225,14 +5057,10 @@
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" t="str">
-        <f>流水线阶段模板!E18</f>
-        <v>devops_ci_template_stage-11</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
+    </row>
+    <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F53" t="str">
         <f>流水线任务模板!E9</f>
@@ -5245,14 +5073,10 @@
       <c r="H53">
         <v>2</v>
       </c>
-      <c r="I53" t="str">
-        <f>流水线阶段模板!E18</f>
-        <v>devops_ci_template_stage-11</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
+    </row>
+    <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F54" t="str">
         <f>流水线任务模板!E15</f>
@@ -5264,10 +5088,6 @@
       </c>
       <c r="H54">
         <v>3</v>
-      </c>
-      <c r="I54" t="str">
-        <f>流水线阶段模板!E19</f>
-        <v>devops_ci_template_stage-12</v>
       </c>
     </row>
   </sheetData>
@@ -5279,24 +5099,24 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="13.8333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.0833333333333" customWidth="1"/>
+    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="22.0814814814815" customWidth="1"/>
+    <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5315,20 +5135,21 @@
     </row>
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1" spans="5:7">
+    <row r="4" customFormat="1" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -5336,116 +5157,141 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="M7" t="s">
         <v>287</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>288</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" customFormat="1" spans="5:8">
+      <c r="E8" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F8" s="6" t="str">
+        <f>流水线步骤模板!E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="G8" t="s">
         <v>290</v>
       </c>
-      <c r="K7" t="s">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" customFormat="1" spans="7:7">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" spans="7:7">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="4:14">
+      <c r="D12" t="s">
         <v>291</v>
       </c>
-      <c r="L7" t="s">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" t="s">
         <v>292</v>
       </c>
-      <c r="M7" t="s">
+      <c r="H12" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:7">
-      <c r="E8" s="6" t="s">
+      <c r="I12" t="s">
         <v>294</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J12" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="6" t="s">
+      <c r="K12" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="L12" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:7">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" customFormat="1" spans="6:6">
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" customFormat="1" spans="6:6">
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="4:13">
-      <c r="D13" t="s">
+      <c r="M12" t="s">
         <v>298</v>
       </c>
+      <c r="N12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="F13" t="str">
+        <f>流水线步骤模板!E11</f>
+        <v>devops_ci_template_step-4</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
-      </c>
-      <c r="I13" t="s">
         <v>302</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="E14" t="s">
         <v>303</v>
       </c>
-      <c r="K13" t="s">
+      <c r="F14" t="str">
+        <f>流水线步骤模板!E16</f>
+        <v>devops_ci_template_step-9</v>
+      </c>
+      <c r="G14" t="s">
         <v>304</v>
       </c>
-      <c r="L13" t="s">
+      <c r="H14" t="s">
         <v>305</v>
-      </c>
-      <c r="M13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10">
-      <c r="E14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5453,24 +5299,7 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="5:10">
-      <c r="E15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G15" t="s">
-        <v>312</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -5489,17 +5318,17 @@
       <selection activeCell="A9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.16666666666667" customWidth="1"/>
-    <col min="7" max="7" width="4.16666666666667" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="18.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="20.9185185185185" customWidth="1"/>
+    <col min="6" max="6" width="9.17037037037037" customWidth="1"/>
+    <col min="7" max="7" width="4.16296296296296" customWidth="1"/>
+    <col min="8" max="8" width="22.7481481481481" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.83333333333333" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="8.82962962962963" customWidth="1"/>
+    <col min="12" max="12" width="9.25185185185185" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5870,16 +5699,16 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1666666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="22.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6066,24 +5895,24 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1666666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="34.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
+    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6139,39 +5968,39 @@
         <v>111</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="5:11">
       <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8" t="str">
         <f>编程语言!E8</f>
@@ -6183,7 +6012,7 @@
     </row>
     <row r="9" spans="5:11">
       <c r="E9" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6195,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J9" t="str">
         <f>编程语言!E8</f>
@@ -6207,19 +6036,19 @@
     </row>
     <row r="10" spans="5:11">
       <c r="E10" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J10" t="str">
         <f>编程语言!E9</f>
@@ -6231,19 +6060,19 @@
     </row>
     <row r="11" customFormat="1" spans="5:11">
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J11" t="str">
         <f>编程语言!E9</f>
@@ -6255,19 +6084,19 @@
     </row>
     <row r="12" customFormat="1" spans="5:11">
       <c r="E12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J12" t="str">
         <f>编程语言!E10</f>
@@ -6282,19 +6111,19 @@
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J13" t="str">
         <f>编程语言!E10</f>
@@ -6369,18 +6198,18 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6421,22 +6250,22 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
@@ -6507,15 +6336,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6555,27 +6384,27 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
       <c r="E8" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
@@ -6584,10 +6413,10 @@
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
@@ -6596,10 +6425,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:7">
       <c r="E10" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
@@ -6608,10 +6437,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:7">
       <c r="E11" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
@@ -6620,10 +6449,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:7">
       <c r="E12" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
@@ -6632,10 +6461,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:7">
       <c r="E13" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
@@ -6644,10 +6473,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:7">
       <c r="E14" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
@@ -6656,10 +6485,10 @@
     </row>
     <row r="15" customFormat="1" spans="5:7">
       <c r="E15" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
@@ -6668,10 +6497,10 @@
     </row>
     <row r="16" spans="5:7">
       <c r="E16" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
@@ -6680,10 +6509,10 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
@@ -6692,10 +6521,10 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
@@ -6704,10 +6533,10 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
@@ -6723,23 +6552,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="9" max="9" width="21.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6771,7 +6600,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -6779,16 +6608,16 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>154</v>
@@ -6799,25 +6628,31 @@
       <c r="I7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:9">
+      <c r="J7" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:10">
       <c r="E8" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:9">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
         <v>159</v>
       </c>
@@ -6828,30 +6663,36 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:10">
       <c r="E10" s="6" t="s">
         <v>162</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:9">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:10">
       <c r="E11" s="6" t="s">
         <v>164</v>
       </c>
@@ -6862,13 +6703,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:9">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:10">
       <c r="E12" s="6" t="s">
         <v>167</v>
       </c>
@@ -6879,10 +6723,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
         <v>169</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
@@ -6912,24 +6759,24 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.8333333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
+    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6978,28 +6825,28 @@
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s">
         <v>173</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>174</v>
-      </c>
-      <c r="M7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:13">
@@ -7008,17 +6855,17 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板任务分组!E10</f>
         <v>devops_ci_template_job_group-3</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -7035,7 +6882,7 @@
     </row>
     <row r="9" customFormat="1" spans="5:13">
       <c r="E9" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
         <v>165</v>
@@ -7045,7 +6892,7 @@
         <v>devops_ci_template_job_group-4</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -7062,17 +6909,17 @@
     </row>
     <row r="10" customFormat="1" spans="5:13">
       <c r="E10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -7089,17 +6936,17 @@
     </row>
     <row r="11" customFormat="1" spans="5:13">
       <c r="E11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7116,17 +6963,17 @@
     </row>
     <row r="12" customFormat="1" spans="5:13">
       <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -7143,17 +6990,17 @@
     </row>
     <row r="13" spans="5:13">
       <c r="E13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -7170,17 +7017,17 @@
     </row>
     <row r="14" spans="5:13">
       <c r="E14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -7197,17 +7044,17 @@
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
         <v>188</v>
-      </c>
-      <c r="F15" t="s">
-        <v>189</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -7224,24 +7071,24 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" t="s">
-        <v>191</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
         <v>192</v>
-      </c>
-      <c r="G18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7254,7 +7101,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7267,7 +7114,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -7280,7 +7127,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7293,7 +7140,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7306,7 +7153,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -7319,7 +7166,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7332,7 +7179,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7345,7 +7192,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -7358,7 +7205,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7371,7 +7218,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7384,7 +7231,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -7397,7 +7244,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7410,7 +7257,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7423,7 +7270,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -7436,7 +7283,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7449,7 +7296,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7462,7 +7309,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -7485,20 +7332,19 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -7538,16 +7384,16 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>154</v>
@@ -7555,30 +7401,30 @@
       <c r="H7" t="s">
         <v>155</v>
       </c>
-      <c r="I7" t="s">
-        <v>156</v>
+      <c r="I7" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
-        <v>158</v>
+        <v>118</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:9">
       <c r="E9" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>165</v>
@@ -7587,44 +7433,44 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" t="s">
-        <v>166</v>
+        <v>118</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:9">
       <c r="E10" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" t="s">
-        <v>216</v>
+        <v>118</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:9">
       <c r="E11" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" t="s">
-        <v>219</v>
+        <v>118</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2364,10 +2364,10 @@
     <t>group_id</t>
   </si>
   <si>
-    <t>is_to_upload</t>
-  </si>
-  <si>
-    <t>is_to_download</t>
+    <t>to_upload</t>
+  </si>
+  <si>
+    <t>to_download</t>
   </si>
   <si>
     <t>devops_ci_template_job-1</t>
@@ -2768,10 +2768,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2849,7 +2849,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2870,36 +2892,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2915,17 +2915,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2963,6 +2962,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2987,13 +2994,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3075,7 +3075,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3093,7 +3123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3105,25 +3141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3135,13 +3153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3153,73 +3171,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,7 +3201,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3249,13 +3225,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3394,17 +3394,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -3417,6 +3406,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3462,52 +3462,52 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3516,94 +3516,94 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5895,7 +5895,7 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -6759,8 +6759,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
   <si>
     <r>
       <rPr>
@@ -2374,6 +2374,9 @@
   </si>
   <si>
     <t>代码检查</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>devops_ci_template_job-2</t>
@@ -2769,9 +2772,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2862,10 +2865,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2878,28 +2918,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2921,13 +2940,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2945,26 +2957,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2978,7 +2974,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2986,7 +2982,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2994,6 +2990,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3081,7 +3084,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3093,31 +3210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3129,91 +3234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3231,31 +3258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3362,6 +3365,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3396,27 +3408,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3453,6 +3445,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3462,145 +3465,145 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4373,7 +4376,7 @@
         <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -4388,13 +4391,13 @@
         <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J7" t="s">
         <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:10">
@@ -4403,10 +4406,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4419,7 +4422,7 @@
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:10">
@@ -4428,10 +4431,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4444,15 +4447,15 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:10">
       <c r="E10" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -4465,15 +4468,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:10">
       <c r="E11" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -4486,15 +4489,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:10">
       <c r="E12" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -4507,15 +4510,15 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:10">
       <c r="E13" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4528,15 +4531,15 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:10">
       <c r="E14" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -4549,12 +4552,12 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:10">
       <c r="E15" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
         <v>125</v>
@@ -4570,15 +4573,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:10">
       <c r="E16" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -4591,15 +4594,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:10">
       <c r="E17" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -4612,15 +4615,15 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:10">
       <c r="E18" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -4633,15 +4636,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="5:10">
       <c r="E19" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -4654,7 +4657,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:7">
@@ -4675,24 +4678,24 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -4708,7 +4711,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -4724,7 +4727,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -4740,7 +4743,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -4756,7 +4759,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -4772,7 +4775,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E11</f>
@@ -4820,7 +4823,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E11</f>
@@ -4836,7 +4839,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E8</f>
@@ -4852,7 +4855,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E9</f>
@@ -4868,7 +4871,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E12</f>
@@ -4884,7 +4887,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E12</f>
@@ -4900,7 +4903,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E12</f>
@@ -4916,7 +4919,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E8</f>
@@ -4932,7 +4935,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E9</f>
@@ -4948,7 +4951,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E13</f>
@@ -4964,7 +4967,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E8</f>
@@ -4980,7 +4983,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E9</f>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F49" t="str">
         <f>流水线任务模板!E14</f>
@@ -5012,7 +5015,7 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F50" t="str">
         <f>流水线任务模板!E14</f>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F51" t="str">
         <f>流水线任务模板!E14</f>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F52" t="str">
         <f>流水线任务模板!E8</f>
@@ -5060,7 +5063,7 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F53" t="str">
         <f>流水线任务模板!E9</f>
@@ -5076,7 +5079,7 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F54" t="str">
         <f>流水线任务模板!E15</f>
@@ -5157,52 +5160,52 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -5222,52 +5225,52 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F13" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5281,17 +5284,17 @@
     </row>
     <row r="14" spans="5:11">
       <c r="E14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F14" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -6757,10 +6760,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -6848,8 +6851,11 @@
       <c r="M7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:13">
+      <c r="N7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:14">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6879,10 +6885,13 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:13">
+      <c r="N8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:14">
       <c r="E9" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
         <v>165</v>
@@ -6906,13 +6915,16 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:13">
+      <c r="N9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:14">
       <c r="E10" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
@@ -6933,13 +6945,16 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:13">
+      <c r="N10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:14">
       <c r="E11" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -6960,13 +6975,16 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:13">
+      <c r="N11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:14">
       <c r="E12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
@@ -6987,10 +7005,13 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="5:13">
+      <c r="N12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
         <v>125</v>
@@ -7014,13 +7035,16 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="5:13">
+      <c r="N13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -7041,13 +7065,16 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="5:13">
+      <c r="N14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -7068,27 +7095,30 @@
       <c r="M15">
         <v>0</v>
       </c>
+      <c r="N15" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7101,7 +7131,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7114,7 +7144,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -7127,7 +7157,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7140,7 +7170,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7153,7 +7183,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -7166,7 +7196,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7179,7 +7209,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7192,7 +7222,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -7205,7 +7235,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7218,7 +7248,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7231,7 +7261,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -7244,7 +7274,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7257,7 +7287,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7270,7 +7300,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -7283,7 +7313,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7296,7 +7326,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7309,7 +7339,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -7387,7 +7417,7 @@
         <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7407,7 +7437,7 @@
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
         <v>143</v>
@@ -7424,7 +7454,7 @@
     </row>
     <row r="9" customFormat="1" spans="5:9">
       <c r="E9" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>165</v>
@@ -7441,7 +7471,7 @@
     </row>
     <row r="10" customFormat="1" spans="5:9">
       <c r="E10" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>176</v>
@@ -7458,10 +7488,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:9">
       <c r="E11" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
   <si>
     <r>
       <rPr>
@@ -2771,10 +2771,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2852,6 +2852,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2865,45 +2872,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2918,7 +2888,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2940,6 +2910,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2953,6 +2930,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2974,7 +2959,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2982,7 +2967,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2996,7 +2996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3078,13 +3078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3102,19 +3102,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3126,7 +3132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3138,31 +3144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,25 +3180,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3210,7 +3210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3222,13 +3234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,19 +3252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3365,15 +3365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3408,6 +3399,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -3424,6 +3424,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3445,17 +3456,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3465,148 +3465,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4316,10 +4316,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -4399,8 +4399,11 @@
       <c r="K7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
+      <c r="L7" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:12">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4424,8 +4427,11 @@
       <c r="J8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:12">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4449,8 +4455,11 @@
       <c r="J9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:10">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:12">
       <c r="E10" s="6" t="s">
         <v>227</v>
       </c>
@@ -4470,8 +4479,11 @@
       <c r="J10" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:10">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
         <v>229</v>
       </c>
@@ -4491,8 +4503,11 @@
       <c r="J11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:10">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
         <v>232</v>
       </c>
@@ -4512,8 +4527,11 @@
       <c r="J12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="5:10">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:12">
       <c r="E13" s="6" t="s">
         <v>235</v>
       </c>
@@ -4533,8 +4551,11 @@
       <c r="J13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="5:10">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
         <v>238</v>
       </c>
@@ -4554,8 +4575,11 @@
       <c r="J14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="5:10">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
         <v>241</v>
       </c>
@@ -4575,8 +4599,11 @@
       <c r="J15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="5:10">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
         <v>243</v>
       </c>
@@ -4596,8 +4623,11 @@
       <c r="J16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="5:10">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
         <v>244</v>
       </c>
@@ -4617,8 +4647,11 @@
       <c r="J17" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="5:10">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
         <v>247</v>
       </c>
@@ -4638,8 +4671,11 @@
       <c r="J18" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="5:10">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="5:12">
       <c r="E19" s="6" t="s">
         <v>250</v>
       </c>
@@ -4658,6 +4694,9 @@
       </c>
       <c r="J19" t="s">
         <v>251</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:7">
@@ -6762,7 +6801,7 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -7362,7 +7401,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="307">
   <si>
     <r>
       <rPr>
@@ -2256,6 +2256,9 @@
     <t>devops_ci_template_stage</t>
   </si>
   <si>
+    <t>sequence</t>
+  </si>
+  <si>
     <t>devops_ci_template_stage-1</t>
   </si>
   <si>
@@ -2605,9 +2608,6 @@
   </si>
   <si>
     <t>#ci_template_step_id</t>
-  </si>
-  <si>
-    <t>sequence</t>
   </si>
   <si>
     <t>devops_ci_template_job_step_rel-1</t>
@@ -2772,11 +2772,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2811,6 +2811,12 @@
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2851,17 +2857,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2873,22 +2880,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2897,61 +2889,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2973,10 +2910,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2989,7 +2927,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2997,6 +2988,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3078,7 +3084,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3090,157 +3180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,6 +3193,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3366,21 +3372,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3397,9 +3388,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3408,7 +3416,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3430,26 +3453,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3465,153 +3471,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3620,6 +3626,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3627,44 +3634,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3677,7 +3684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3822,7 +3829,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4080,8 +4087,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -4097,79 +4104,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4177,56 +4184,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4236,30 +4243,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4267,7 +4274,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4275,25 +4282,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4318,7 +4325,7 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4373,10 +4380,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -4391,13 +4398,13 @@
         <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>112</v>
@@ -4409,10 +4416,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4425,7 +4432,7 @@
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4437,10 +4444,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4453,7 +4460,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -4461,10 +4468,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:12">
       <c r="E10" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -4477,7 +4484,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4485,10 +4492,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -4501,7 +4508,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4509,10 +4516,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -4525,7 +4532,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4533,10 +4540,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:12">
       <c r="E13" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4549,7 +4556,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4557,10 +4564,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -4573,7 +4580,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4581,7 +4588,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
         <v>125</v>
@@ -4597,7 +4604,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -4605,10 +4612,10 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -4621,7 +4628,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -4629,10 +4636,10 @@
     </row>
     <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -4645,7 +4652,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -4653,10 +4660,10 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -4669,7 +4676,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -4677,10 +4684,10 @@
     </row>
     <row r="19" customFormat="1" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -4693,7 +4700,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4717,19 +4724,19 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="5:8">
@@ -5208,7 +5215,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>282</v>
@@ -5270,7 +5277,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G12" t="s">
         <v>293</v>
@@ -6372,13 +6379,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
     <col min="2" max="2" width="24.162962962963" customWidth="1"/>
@@ -6418,7 +6425,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -6440,149 +6447,188 @@
       <c r="G7" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:7">
+      <c r="H7" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
         <v>devops_pipeline_template-1</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:8">
       <c r="E9" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
         <v>devops_pipeline_template-1</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:7">
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:8">
       <c r="E10" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
         <v>devops_pipeline_template-2</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:8">
       <c r="E11" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
         <v>devops_pipeline_template-2</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:7">
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:8">
       <c r="E12" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
         <v>devops_pipeline_template-3</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="5:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:8">
       <c r="E13" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
         <v>devops_pipeline_template-3</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="5:7">
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="5:8">
       <c r="E14" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
         <v>devops_pipeline_template-4</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="5:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:8">
       <c r="E15" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
         <v>devops_pipeline_template-4</v>
       </c>
-    </row>
-    <row r="16" spans="5:7">
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
       <c r="E16" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
         <v>devops_pipeline_template-5</v>
       </c>
-    </row>
-    <row r="17" spans="5:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
       <c r="E17" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
         <v>devops_pipeline_template-5</v>
       </c>
-    </row>
-    <row r="18" spans="5:7">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
       <c r="E18" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
         <v>devops_pipeline_template-6</v>
       </c>
-    </row>
-    <row r="19" spans="5:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
       <c r="E19" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
         <v>devops_pipeline_template-6</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6650,10 +6696,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6662,13 +6708,13 @@
         <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>112</v>
@@ -6676,10 +6722,10 @@
     </row>
     <row r="8" customFormat="1" spans="5:10">
       <c r="E8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -6688,7 +6734,7 @@
         <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -6696,10 +6742,10 @@
     </row>
     <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -6708,7 +6754,7 @@
         <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -6716,10 +6762,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:10">
       <c r="E10" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -6728,7 +6774,7 @@
         <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -6736,10 +6782,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:10">
       <c r="E11" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -6748,7 +6794,7 @@
         <v>118</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -6756,10 +6802,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:10">
       <c r="E12" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -6768,7 +6814,7 @@
         <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -6858,10 +6904,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6870,7 +6916,7 @@
         <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
         <v>116</v>
@@ -6885,13 +6931,13 @@
         <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:14">
@@ -6900,10 +6946,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板任务分组!E10</f>
@@ -6925,15 +6971,15 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:14">
       <c r="E9" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板任务分组!E11</f>
@@ -6955,15 +7001,15 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:14">
       <c r="E10" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
@@ -6985,15 +7031,15 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:14">
       <c r="E11" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -7015,15 +7061,15 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:14">
       <c r="E12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
@@ -7045,12 +7091,12 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
         <v>125</v>
@@ -7075,15 +7121,15 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -7105,15 +7151,15 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -7135,29 +7181,29 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7170,7 +7216,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7183,7 +7229,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -7196,7 +7242,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7209,7 +7255,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7222,7 +7268,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -7235,7 +7281,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7248,7 +7294,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7261,7 +7307,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -7274,7 +7320,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7287,7 +7333,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7300,7 +7346,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -7313,7 +7359,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7326,7 +7372,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7339,7 +7385,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -7352,7 +7398,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7365,7 +7411,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7378,7 +7424,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -7453,10 +7499,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7465,10 +7511,10 @@
         <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>112</v>
@@ -7476,10 +7522,10 @@
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -7493,10 +7539,10 @@
     </row>
     <row r="9" customFormat="1" spans="5:9">
       <c r="E9" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -7510,10 +7556,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:9">
       <c r="E10" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -7527,10 +7573,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:9">
       <c r="E11" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="307">
   <si>
     <r>
       <rPr>
@@ -2771,10 +2771,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2858,10 +2858,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2873,6 +2896,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2880,7 +2964,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2895,112 +3001,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3084,7 +3084,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3096,67 +3222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3168,91 +3252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,7 +3264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,56 +3371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3455,7 +3405,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3468,151 +3433,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3829,7 +3829,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4085,21 +4085,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4114,7 +4114,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4128,7 +4128,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
@@ -4325,22 +4325,22 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
-    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5148,24 +5148,25 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
+    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
+    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5198,7 +5199,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -5241,8 +5242,11 @@
       <c r="N7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:8">
+      <c r="O7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:15">
       <c r="E8" s="6" t="s">
         <v>290</v>
       </c>
@@ -5255,6 +5259,10 @@
       </c>
       <c r="H8" s="6">
         <v>1</v>
+      </c>
+      <c r="O8" t="str">
+        <f>流水线步骤模板!E8</f>
+        <v>devops_ci_template_step-1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:8">
@@ -5269,7 +5277,7 @@
     <row r="11" customFormat="1" spans="7:7">
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:15">
       <c r="D12" t="s">
         <v>292</v>
       </c>
@@ -5303,8 +5311,11 @@
       <c r="N12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="5:11">
+      <c r="O12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
         <v>301</v>
       </c>
@@ -5327,8 +5338,12 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="5:11">
+      <c r="O13" t="str">
+        <f>流水线步骤模板!E11</f>
+        <v>devops_ci_template_step-4</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
         <v>304</v>
       </c>
@@ -5350,6 +5365,10 @@
       </c>
       <c r="K14">
         <v>0</v>
+      </c>
+      <c r="O14" t="str">
+        <f>流水线步骤模板!E16</f>
+        <v>devops_ci_template_step-9</v>
       </c>
     </row>
   </sheetData>
@@ -5367,17 +5386,17 @@
       <selection activeCell="A9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="18.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="20.9185185185185" customWidth="1"/>
-    <col min="6" max="6" width="9.17037037037037" customWidth="1"/>
-    <col min="7" max="7" width="4.16296296296296" customWidth="1"/>
-    <col min="8" max="8" width="22.7481481481481" customWidth="1"/>
+    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.17361111111111" customWidth="1"/>
+    <col min="7" max="7" width="4.15972222222222" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.82962962962963" customWidth="1"/>
-    <col min="12" max="12" width="9.25185185185185" customWidth="1"/>
+    <col min="10" max="10" width="8.82638888888889" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5748,16 +5767,16 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="22.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5948,20 +5967,20 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
-    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
+    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
+    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6250,15 +6269,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6381,19 +6400,19 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6646,17 +6665,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
-    <col min="9" max="9" width="21.2518518518519" customWidth="1"/>
+    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6851,20 +6870,20 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
-    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
+    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -7450,16 +7469,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="307">
   <si>
     <r>
       <rPr>
@@ -2771,9 +2771,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2857,6 +2857,87 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2870,72 +2951,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2963,46 +2978,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3084,6 +3084,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3096,55 +3222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3156,115 +3264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,6 +3371,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3405,39 +3453,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -3453,166 +3468,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5148,10 +5148,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O1" sqref="O$1:O$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5166,7 +5166,6 @@
     <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
     <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
     <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5199,7 +5198,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -5242,11 +5241,8 @@
       <c r="N7" t="s">
         <v>289</v>
       </c>
-      <c r="O7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:15">
+    </row>
+    <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
         <v>290</v>
       </c>
@@ -5259,10 +5255,6 @@
       </c>
       <c r="H8" s="6">
         <v>1</v>
-      </c>
-      <c r="O8" t="str">
-        <f>流水线步骤模板!E8</f>
-        <v>devops_ci_template_step-1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:8">
@@ -5277,7 +5269,7 @@
     <row r="11" customFormat="1" spans="7:7">
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:14">
       <c r="D12" t="s">
         <v>292</v>
       </c>
@@ -5311,11 +5303,8 @@
       <c r="N12" t="s">
         <v>300</v>
       </c>
-      <c r="O12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
+    </row>
+    <row r="13" spans="5:11">
       <c r="E13" t="s">
         <v>301</v>
       </c>
@@ -5338,12 +5327,8 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="O13" t="str">
-        <f>流水线步骤模板!E11</f>
-        <v>devops_ci_template_step-4</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
+    </row>
+    <row r="14" spans="5:11">
       <c r="E14" t="s">
         <v>304</v>
       </c>
@@ -5365,10 +5350,6 @@
       </c>
       <c r="K14">
         <v>0</v>
-      </c>
-      <c r="O14" t="str">
-        <f>流水线步骤模板!E16</f>
-        <v>devops_ci_template_step-9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -2739,13 +2739,13 @@
     <t>security_control</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>condition</t>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>security_control_conditions</t>
+  </si>
+  <si>
+    <t>vulnerability_count</t>
   </si>
   <si>
     <t>devops_ci_template_docker-1</t>
@@ -2771,10 +2771,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2858,12 +2858,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2871,10 +2872,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2882,6 +2884,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2896,14 +2905,6 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2923,9 +2924,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2933,14 +2948,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2962,9 +2969,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2972,15 +2979,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2993,16 +3000,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3084,61 +3084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3156,7 +3102,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3168,7 +3150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,7 +3162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,7 +3186,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3204,67 +3246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3373,9 +3373,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3404,6 +3406,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3415,21 +3426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3458,13 +3454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3474,10 +3474,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3486,133 +3486,133 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5151,7 +5151,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O$1:O$1048576"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5166,6 +5166,8 @@
     <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
     <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
     <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
+    <col min="13" max="13" width="35" customWidth="1"/>
+    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="应用模板" sheetId="2" r:id="rId2"/>
-    <sheet name="编程语言" sheetId="3" r:id="rId3"/>
+    <sheet name="流水线模板分类" sheetId="3" r:id="rId3"/>
     <sheet name="流水线模板" sheetId="4" r:id="rId4"/>
     <sheet name="流水线ci变量" sheetId="5" r:id="rId5"/>
     <sheet name="流水线阶段模板" sheetId="6" r:id="rId6"/>
@@ -2142,7 +2142,7 @@
     <t>编程语言</t>
   </si>
   <si>
-    <t>devops_ci_template_language</t>
+    <t>devops_ci_template_category</t>
   </si>
   <si>
     <t>#built_in</t>
@@ -2151,19 +2151,19 @@
     <t>#language</t>
   </si>
   <si>
-    <t>devops_ci_template_language-1</t>
+    <t>devops_ci_template_category-1</t>
   </si>
   <si>
     <t>java</t>
   </si>
   <si>
-    <t>devops_ci_template_language-2</t>
+    <t>devops_ci_template_category-2</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>devops_ci_template_language-3</t>
+    <t>devops_ci_template_category-3</t>
   </si>
   <si>
     <t>node.js</t>
@@ -2187,7 +2187,7 @@
     <t>#name</t>
   </si>
   <si>
-    <t>#ci_template_language_id</t>
+    <t>#ci_template_category_id</t>
   </si>
   <si>
     <t>version_name</t>
@@ -2772,8 +2772,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2858,7 +2858,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2866,7 +2894,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2880,50 +2939,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2947,7 +2963,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2961,25 +2977,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2987,7 +2987,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3000,9 +3000,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3084,7 +3084,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3102,73 +3156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,61 +3174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,7 +3192,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,7 +3264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,13 +3371,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3406,30 +3443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3447,172 +3460,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4325,7 +4325,7 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D22" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -5150,7 +5150,7 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -5747,7 +5747,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5947,7 +5947,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6054,8 +6054,8 @@
         <v>119</v>
       </c>
       <c r="J8" t="str">
-        <f>编程语言!E8</f>
-        <v>devops_ci_template_language-1</v>
+        <f>流水线模板分类!E8</f>
+        <v>devops_ci_template_category-1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6078,8 +6078,8 @@
         <v>121</v>
       </c>
       <c r="J9" t="str">
-        <f>编程语言!E8</f>
-        <v>devops_ci_template_language-1</v>
+        <f>流水线模板分类!E8</f>
+        <v>devops_ci_template_category-1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6102,8 +6102,8 @@
         <v>123</v>
       </c>
       <c r="J10" t="str">
-        <f>编程语言!E9</f>
-        <v>devops_ci_template_language-2</v>
+        <f>流水线模板分类!E9</f>
+        <v>devops_ci_template_category-2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6126,8 +6126,8 @@
         <v>125</v>
       </c>
       <c r="J11" t="str">
-        <f>编程语言!E9</f>
-        <v>devops_ci_template_language-2</v>
+        <f>流水线模板分类!E9</f>
+        <v>devops_ci_template_category-2</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -6150,8 +6150,8 @@
         <v>127</v>
       </c>
       <c r="J12" t="str">
-        <f>编程语言!E10</f>
-        <v>devops_ci_template_language-3</v>
+        <f>流水线模板分类!E10</f>
+        <v>devops_ci_template_category-3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6177,8 +6177,8 @@
         <v>129</v>
       </c>
       <c r="J13" t="str">
-        <f>编程语言!E10</f>
-        <v>devops_ci_template_language-3</v>
+        <f>流水线模板分类!E10</f>
+        <v>devops_ci_template_category-3</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6849,7 +6849,7 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D16" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="应用模板" sheetId="2" r:id="rId2"/>
-    <sheet name="流水线模板分类" sheetId="3" r:id="rId3"/>
-    <sheet name="流水线模板" sheetId="4" r:id="rId4"/>
-    <sheet name="流水线ci变量" sheetId="5" r:id="rId5"/>
-    <sheet name="流水线阶段模板" sheetId="6" r:id="rId6"/>
-    <sheet name="流水线模板任务分组" sheetId="8" r:id="rId7"/>
-    <sheet name="流水线任务模板" sheetId="7" r:id="rId8"/>
-    <sheet name="流水线步骤分类" sheetId="9" r:id="rId9"/>
-    <sheet name="流水线步骤模板" sheetId="10" r:id="rId10"/>
-    <sheet name="代码检查步骤参数配置" sheetId="11" r:id="rId11"/>
+    <sheet name="流水线模板分类" sheetId="3" r:id="rId2"/>
+    <sheet name="流水线模板" sheetId="4" r:id="rId3"/>
+    <sheet name="流水线ci变量" sheetId="5" r:id="rId4"/>
+    <sheet name="流水线阶段模板" sheetId="6" r:id="rId5"/>
+    <sheet name="流水线模板任务分组" sheetId="8" r:id="rId6"/>
+    <sheet name="流水线任务模板" sheetId="7" r:id="rId7"/>
+    <sheet name="流水线步骤分类" sheetId="9" r:id="rId8"/>
+    <sheet name="流水线步骤模板" sheetId="10" r:id="rId9"/>
+    <sheet name="代码检查步骤参数配置" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="261">
   <si>
     <r>
       <rPr>
@@ -1893,107 +1892,84 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
     <t>choerodon</t>
   </si>
   <si>
-    <t>应用模板</t>
-  </si>
-  <si>
-    <t>devops_app_template</t>
+    <t>编程语言</t>
+  </si>
+  <si>
+    <t>devops_ci_template_category</t>
   </si>
   <si>
     <t>*id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>source_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>source_type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name</t>
-    </r>
-  </si>
-  <si>
-    <t>#code</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ype</t>
-    </r>
+    <t>#built_in</t>
+  </si>
+  <si>
+    <t>#language</t>
+  </si>
+  <si>
+    <t>devops_ci_template_category-1</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>devops_ci_template_category-2</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>devops_ci_template_category-3</t>
+  </si>
+  <si>
+    <t>node.js</t>
+  </si>
+  <si>
+    <t>流水线模板</t>
+  </si>
+  <si>
+    <t>devops_pipeline_template</t>
+  </si>
+  <si>
+    <t>#source_id</t>
+  </si>
+  <si>
+    <t>#source_type</t>
+  </si>
+  <si>
+    <t>built_in</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#ci_template_category_id</t>
   </si>
   <si>
     <t>enable</t>
   </si>
   <si>
+    <t>version_name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>devops_pipeline_template-1</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Java(Maven构建)+构建镜像</t>
+  </si>
+  <si>
+    <t>devops_pipeline_template-2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2010,204 +1986,10 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>tatus</t>
-    </r>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>devops_app_template-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>ite</t>
     </r>
   </si>
   <si>
-    <t>MicroServiceFront</t>
-  </si>
-  <si>
-    <t>microservicefront</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>前端模板（一般用于创建普通类型应用服务）</t>
-  </si>
-  <si>
-    <t>devops_app_template-2</t>
-  </si>
-  <si>
-    <t>MicroService</t>
-  </si>
-  <si>
-    <t>microservice</t>
-  </si>
-  <si>
-    <t>基于ChoerodonFramework和SpringCloud的微服务结构的后端模板（一般用于创建普通类型应用服务） </t>
-  </si>
-  <si>
-    <t>devops_app_template-3</t>
-  </si>
-  <si>
-    <t>SpringBoot</t>
-  </si>
-  <si>
-    <t>springboot</t>
-  </si>
-  <si>
-    <t>基于SpringBoot的服务模板（一般用于创建普通类型应用服务）</t>
-  </si>
-  <si>
-    <t>devops_app_template-4</t>
-  </si>
-  <si>
-    <t>JavaLib</t>
-  </si>
-  <si>
-    <t>javalib</t>
-  </si>
-  <si>
-    <t>Java Library开发的模板（一般用于创建普通类型应用服务）  </t>
-  </si>
-  <si>
-    <t>devops_app_template-5</t>
-  </si>
-  <si>
-    <t>GoTemplate</t>
-  </si>
-  <si>
-    <t>gotemplate</t>
-  </si>
-  <si>
-    <t>Golang开发模板（一般用于创建普通类型应用服务）</t>
-  </si>
-  <si>
-    <t>devops_app_template-6</t>
-  </si>
-  <si>
-    <t>choerodonMochaTemplate</t>
-  </si>
-  <si>
-    <t>mochatemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于Mocha的前端测试框架（一般用于创建测试类型服务）     </t>
-  </si>
-  <si>
-    <t>devops_app_template-7</t>
-  </si>
-  <si>
-    <t>choerodonTestngSeleniumTemplate</t>
-  </si>
-  <si>
-    <t>testngseleniumtemplate</t>
-  </si>
-  <si>
-    <t>基于TestNG和Selenium的测试服务模板，可以用于测试前端页面（一般用于创建测试类型服务） </t>
-  </si>
-  <si>
-    <t>devops_app_template-8</t>
-  </si>
-  <si>
-    <t>choerodonTestngTemplate</t>
-  </si>
-  <si>
-    <t>testngtemplate</t>
-  </si>
-  <si>
-    <t>基于TestNG的测试服务模板，用于 API 测试（一般用于创建测试类型服务） </t>
-  </si>
-  <si>
-    <t>编程语言</t>
-  </si>
-  <si>
-    <t>devops_ci_template_category</t>
-  </si>
-  <si>
-    <t>#built_in</t>
-  </si>
-  <si>
-    <t>#language</t>
-  </si>
-  <si>
-    <t>devops_ci_template_category-1</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>devops_ci_template_category-2</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>devops_ci_template_category-3</t>
-  </si>
-  <si>
-    <t>node.js</t>
-  </si>
-  <si>
-    <t>流水线模板</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template</t>
-  </si>
-  <si>
-    <t>#source_id</t>
-  </si>
-  <si>
-    <t>#source_type</t>
-  </si>
-  <si>
-    <t>built_in</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>#ci_template_category_id</t>
-  </si>
-  <si>
-    <t>version_name</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template-1</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>Java(Maven构建)+构建镜像</t>
-  </si>
-  <si>
-    <t>devops_pipeline_template-2</t>
-  </si>
-  <si>
     <t>Java(Maven构建)+构建</t>
   </si>
   <si>
@@ -2308,12 +2090,6 @@
   </si>
   <si>
     <t>devops_ci_template_job_group</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>source_type</t>
   </si>
   <si>
     <t>type</t>
@@ -2858,14 +2634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2879,38 +2655,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2925,21 +2670,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2962,6 +2729,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2970,31 +2753,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3002,9 +2770,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3084,7 +2860,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3096,19 +2896,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3120,61 +2944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,19 +2968,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3216,37 +3016,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,13 +3040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3372,6 +3148,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3399,7 +3190,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3423,7 +3225,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3442,42 +3244,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3486,133 +3262,133 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4323,834 +4099,9 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L54"/>
-  <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
-    <col min="9" max="9" width="39.75" customWidth="1"/>
-    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5">
-        <v>44530</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="str">
-        <f>流水线步骤分类!E10</f>
-        <v>devops_ci_template_step_category-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="str">
-        <f>流水线步骤分类!E9</f>
-        <v>devops_ci_template_step_category-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>227</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:12">
-      <c r="E10" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_ci_template_step_category-1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:12">
-      <c r="E11" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_ci_template_step_category-1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:12">
-      <c r="E12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" t="str">
-        <f>流水线步骤分类!E11</f>
-        <v>devops_ci_template_step_category-4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="5:12">
-      <c r="E13" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" t="str">
-        <f>流水线步骤分类!E11</f>
-        <v>devops_ci_template_step_category-4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="5:12">
-      <c r="E14" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" t="str">
-        <f>流水线步骤分类!E9</f>
-        <v>devops_ci_template_step_category-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="5:12">
-      <c r="E15" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_ci_template_step_category-1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>243</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="5:12">
-      <c r="E16" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_ci_template_step_category-1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="5:12">
-      <c r="E17" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" t="str">
-        <f>流水线步骤分类!E9</f>
-        <v>devops_ci_template_step_category-2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="5:12">
-      <c r="E18" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" t="s">
-        <v>249</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_ci_template_step_category-1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="5:12">
-      <c r="E19" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" t="str">
-        <f>流水线步骤分类!E8</f>
-        <v>devops_ci_template_step_category-1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>252</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="5:7">
-      <c r="E20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:7">
-      <c r="E21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" customFormat="1" spans="5:7">
-      <c r="E22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" customFormat="1" spans="5:7">
-      <c r="E23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="D29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" t="s">
-        <v>254</v>
-      </c>
-      <c r="H29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G30" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="E31" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G31" t="str">
-        <f>E9</f>
-        <v>devops_ci_template_step-2</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8">
-      <c r="E32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" t="str">
-        <f>流水线任务模板!E10</f>
-        <v>devops_ci_template_job-3</v>
-      </c>
-      <c r="G32" t="str">
-        <f>E10</f>
-        <v>devops_ci_template_step-3</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" t="str">
-        <f>流水线任务模板!E10</f>
-        <v>devops_ci_template_job-3</v>
-      </c>
-      <c r="G33" t="str">
-        <f>E11</f>
-        <v>devops_ci_template_step-4</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8">
-      <c r="E34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" t="str">
-        <f>流水线任务模板!E10</f>
-        <v>devops_ci_template_job-3</v>
-      </c>
-      <c r="G34" t="str">
-        <f>E12</f>
-        <v>devops_ci_template_step-5</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
-      <c r="E35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G35" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8">
-      <c r="E36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G36" t="str">
-        <f>E9</f>
-        <v>devops_ci_template_step-2</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
-      <c r="E37" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" t="str">
-        <f>流水线任务模板!E11</f>
-        <v>devops_ci_template_job-6</v>
-      </c>
-      <c r="G37" t="str">
-        <f>E10</f>
-        <v>devops_ci_template_step-3</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
-      <c r="E38" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" t="str">
-        <f>流水线任务模板!E11</f>
-        <v>devops_ci_template_job-6</v>
-      </c>
-      <c r="G38" t="str">
-        <f>E13</f>
-        <v>devops_ci_template_step-6</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
-      <c r="E39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G39" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
-      <c r="E40" t="s">
-        <v>265</v>
-      </c>
-      <c r="F40" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G40" t="str">
-        <f>E14</f>
-        <v>devops_ci_template_step-7</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8">
-      <c r="E41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" t="str">
-        <f>流水线任务模板!E12</f>
-        <v>devops_ci_template_job-9</v>
-      </c>
-      <c r="G41" t="str">
-        <f>E15</f>
-        <v>devops_ci_template_step-8</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8">
-      <c r="E42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" t="str">
-        <f>流水线任务模板!E12</f>
-        <v>devops_ci_template_job-9</v>
-      </c>
-      <c r="G42" t="str">
-        <f>E16</f>
-        <v>devops_ci_template_step-9</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8">
-      <c r="E43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" t="str">
-        <f>流水线任务模板!E12</f>
-        <v>devops_ci_template_job-9</v>
-      </c>
-      <c r="G43" t="str">
-        <f>E12</f>
-        <v>devops_ci_template_step-5</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8">
-      <c r="E44" t="s">
-        <v>269</v>
-      </c>
-      <c r="F44" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G44" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8">
-      <c r="E45" t="s">
-        <v>270</v>
-      </c>
-      <c r="F45" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G45" t="str">
-        <f>E14</f>
-        <v>devops_ci_template_step-7</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8">
-      <c r="E46" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" t="str">
-        <f>流水线任务模板!E13</f>
-        <v>devops_ci_template_job-12</v>
-      </c>
-      <c r="G46" t="str">
-        <f>E15</f>
-        <v>devops_ci_template_step-8</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="5:8">
-      <c r="E47" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G47" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="5:8">
-      <c r="E48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F48" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G48" t="str">
-        <f>E17</f>
-        <v>devops_ci_template_step-10</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
-        <v>274</v>
-      </c>
-      <c r="F49" t="str">
-        <f>流水线任务模板!E14</f>
-        <v>devops_ci_template_job-15</v>
-      </c>
-      <c r="G49" t="str">
-        <f>E18</f>
-        <v>devops_ci_template_step-11</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F50" t="str">
-        <f>流水线任务模板!E14</f>
-        <v>devops_ci_template_job-15</v>
-      </c>
-      <c r="G50" t="str">
-        <f>E16</f>
-        <v>devops_ci_template_step-9</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8">
-      <c r="E51" t="s">
-        <v>276</v>
-      </c>
-      <c r="F51" t="str">
-        <f>流水线任务模板!E14</f>
-        <v>devops_ci_template_job-15</v>
-      </c>
-      <c r="G51" t="str">
-        <f>E12</f>
-        <v>devops_ci_template_step-5</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8">
-      <c r="E52" t="s">
-        <v>277</v>
-      </c>
-      <c r="F52" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G52" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8">
-      <c r="E53" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G53" t="str">
-        <f>E17</f>
-        <v>devops_ci_template_step-10</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8">
-      <c r="E54" t="s">
-        <v>279</v>
-      </c>
-      <c r="F54" t="str">
-        <f>流水线任务模板!E15</f>
-        <v>devops_ci_template_job-16</v>
-      </c>
-      <c r="G54" t="str">
-        <f>E19</f>
-        <v>devops_ci_template_step-12</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView topLeftCell="D13" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -5205,55 +4156,55 @@
         <v>44530</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="J7" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="K7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="L7" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -5273,52 +4224,52 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" t="s">
+        <v>252</v>
+      </c>
+      <c r="M12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" t="s">
         <v>254</v>
-      </c>
-      <c r="G12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J12" t="s">
-        <v>296</v>
-      </c>
-      <c r="K12" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" t="s">
-        <v>298</v>
-      </c>
-      <c r="M12" t="s">
-        <v>299</v>
-      </c>
-      <c r="N12" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="F13" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5332,17 +4283,17 @@
     </row>
     <row r="14" spans="5:11">
       <c r="E14" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="F14" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="H14" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5363,27 +4314,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.17361111111111" customWidth="1"/>
-    <col min="7" max="7" width="4.15972222222222" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.82638888888889" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5397,7 +4345,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5408,335 +4358,107 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>44530</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="6" t="s">
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="6" t="s">
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="6" t="s">
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13">
-      <c r="E8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="E9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="E10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="E11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="E12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13">
-      <c r="E13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13">
-      <c r="E14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13">
-      <c r="E15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="5:7">
+    </row>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1" spans="2:6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="1" spans="5:6">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="5:6">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" spans="5:6">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="1" spans="5:6">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customFormat="1" spans="5:6">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customFormat="1" spans="5:6">
       <c r="E19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="5:7">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="1" spans="5:6">
       <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="5:7">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" spans="5:6">
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5744,210 +4466,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <v>44530</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9">
-      <c r="E8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9">
-      <c r="E9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9">
-      <c r="E10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1" spans="2:8">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" spans="5:8">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" spans="5:8">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" customFormat="1" spans="5:8">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" customFormat="1" spans="5:8">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" customFormat="1" spans="5:8">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" customFormat="1" spans="5:8">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" customFormat="1" spans="6:6">
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" customFormat="1" spans="6:6">
-      <c r="F23" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6001,57 +4523,57 @@
         <v>44530</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="5:11">
       <c r="E8" s="6" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="J8" t="str">
         <f>流水线模板分类!E8</f>
@@ -6063,19 +4585,19 @@
     </row>
     <row r="9" spans="5:11">
       <c r="E9" s="6" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J9" t="str">
         <f>流水线模板分类!E8</f>
@@ -6087,19 +4609,19 @@
     </row>
     <row r="10" spans="5:11">
       <c r="E10" s="6" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="J10" t="str">
         <f>流水线模板分类!E9</f>
@@ -6111,19 +4633,19 @@
     </row>
     <row r="11" customFormat="1" spans="5:11">
       <c r="E11" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="J11" t="str">
         <f>流水线模板分类!E9</f>
@@ -6135,19 +4657,19 @@
     </row>
     <row r="12" customFormat="1" spans="5:11">
       <c r="E12" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="J12" t="str">
         <f>流水线模板分类!E10</f>
@@ -6162,19 +4684,19 @@
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="J13" t="str">
         <f>流水线模板分类!E10</f>
@@ -6243,7 +4765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H17"/>
@@ -6298,25 +4820,25 @@
         <v>44530</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
@@ -6378,7 +4900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H19"/>
@@ -6432,33 +4954,33 @@
         <v>44530</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
@@ -6470,10 +4992,10 @@
     </row>
     <row r="9" customFormat="1" spans="5:8">
       <c r="E9" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
@@ -6485,10 +5007,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:8">
       <c r="E10" s="6" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
@@ -6500,10 +5022,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:8">
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
@@ -6515,10 +5037,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:8">
       <c r="E12" s="6" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
@@ -6530,10 +5052,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:8">
       <c r="E13" s="6" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
@@ -6545,10 +5067,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:8">
       <c r="E14" s="6" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
@@ -6560,10 +5082,10 @@
     </row>
     <row r="15" customFormat="1" spans="5:8">
       <c r="E15" s="6" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
@@ -6575,10 +5097,10 @@
     </row>
     <row r="16" spans="5:8">
       <c r="E16" s="6" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
@@ -6590,10 +5112,10 @@
     </row>
     <row r="17" spans="5:8">
       <c r="E17" s="6" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
@@ -6605,10 +5127,10 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="6" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
@@ -6620,10 +5142,10 @@
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="6" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
@@ -6632,6 +5154,171 @@
       <c r="H19">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1" spans="5:7">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>44530</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:8">
+      <c r="E8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:8">
+      <c r="E9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:8">
+      <c r="E10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:8">
+      <c r="E11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:8">
+      <c r="E12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" spans="5:6">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="6:6">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" spans="6:6">
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6640,211 +5327,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
-        <v>44530</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:10">
-      <c r="E8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:10">
-      <c r="E9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:10">
-      <c r="E10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="5:10">
-      <c r="E11" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="5:10">
-      <c r="E12" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" customFormat="1" spans="5:7">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
@@ -6903,43 +5385,43 @@
         <v>44530</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" t="s">
         <v>111</v>
-      </c>
-      <c r="J7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:14">
@@ -6948,17 +5430,17 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板任务分组!E10</f>
         <v>devops_ci_template_job_group-3</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6973,22 +5455,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:14">
       <c r="E9" s="6" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板任务分组!E11</f>
         <v>devops_ci_template_job_group-4</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -7003,22 +5485,22 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:14">
       <c r="E10" s="6" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -7033,22 +5515,22 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:14">
       <c r="E11" s="6" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7063,22 +5545,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:14">
       <c r="E12" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -7093,22 +5575,22 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G13" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -7123,22 +5605,22 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -7153,22 +5635,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -7183,29 +5665,29 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7218,7 +5700,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -7231,7 +5713,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -7244,7 +5726,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7257,7 +5739,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -7270,7 +5752,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -7283,7 +5765,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7296,7 +5778,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -7309,7 +5791,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -7322,7 +5804,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7335,7 +5817,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -7348,7 +5830,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -7361,7 +5843,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7374,7 +5856,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -7387,7 +5869,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -7400,7 +5882,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7413,7 +5895,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -7426,7 +5908,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -7436,6 +5918,138 @@
         <f>E15</f>
         <v>devops_ci_template_job-16</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1" spans="5:6">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>44530</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:7">
+      <c r="E8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:7">
+      <c r="E9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:7">
+      <c r="E10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:7">
+      <c r="E11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:6">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="5:6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" spans="6:6">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="6:6">
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7446,10 +6060,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7457,11 +6071,13 @@
     <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
     <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
     <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -7493,118 +6109,772 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:9">
-      <c r="E8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" t="s">
-        <v>144</v>
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:12">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8">
+        <v>73</v>
+      </c>
+      <c r="I8" t="str">
+        <f>流水线步骤分类!E10</f>
+        <v>devops_ci_template_step_category-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="5:9">
-      <c r="E9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>166</v>
+    <row r="9" customFormat="1" spans="1:12">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9">
+        <v>73</v>
+      </c>
+      <c r="I9" t="str">
+        <f>流水线步骤分类!E9</f>
+        <v>devops_ci_template_step_category-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="5:9">
+    <row r="10" customFormat="1" spans="5:12">
       <c r="E10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10">
+        <v>73</v>
+      </c>
+      <c r="I10" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="5:9">
+    <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>218</v>
+        <v>184</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11">
+        <v>73</v>
+      </c>
+      <c r="I11" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" customFormat="1" spans="6:6">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="6"/>
+    <row r="12" customFormat="1" spans="5:12">
+      <c r="E12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="str">
+        <f>流水线步骤分类!E11</f>
+        <v>devops_ci_template_step_category-4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:12">
+      <c r="E13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="str">
+        <f>流水线步骤分类!E11</f>
+        <v>devops_ci_template_step_category-4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="5:12">
+      <c r="E14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="str">
+        <f>流水线步骤分类!E9</f>
+        <v>devops_ci_template_step_category-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:12">
+      <c r="E15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:12">
+      <c r="E16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="5:12">
+      <c r="E17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="str">
+        <f>流水线步骤分类!E9</f>
+        <v>devops_ci_template_step_category-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="5:12">
+      <c r="E18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="5:12">
+      <c r="E19" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="5:7">
+      <c r="E20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:7">
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" customFormat="1" spans="5:7">
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" customFormat="1" spans="5:7">
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="29" spans="4:8">
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G30" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G31" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_step-2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" t="str">
+        <f>流水线任务模板!E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+      <c r="G32" t="str">
+        <f>E10</f>
+        <v>devops_ci_template_step-3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" t="str">
+        <f>流水线任务模板!E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+      <c r="G33" t="str">
+        <f>E11</f>
+        <v>devops_ci_template_step-4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="str">
+        <f>流水线任务模板!E10</f>
+        <v>devops_ci_template_job-3</v>
+      </c>
+      <c r="G34" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G35" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G36" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_step-2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" t="str">
+        <f>流水线任务模板!E11</f>
+        <v>devops_ci_template_job-6</v>
+      </c>
+      <c r="G37" t="str">
+        <f>E10</f>
+        <v>devops_ci_template_step-3</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="str">
+        <f>流水线任务模板!E11</f>
+        <v>devops_ci_template_job-6</v>
+      </c>
+      <c r="G38" t="str">
+        <f>E13</f>
+        <v>devops_ci_template_step-6</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G39" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_step-7</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G41" t="str">
+        <f>E15</f>
+        <v>devops_ci_template_step-8</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G42" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_step-9</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G43" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G44" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G45" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_step-7</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" t="str">
+        <f>流水线任务模板!E13</f>
+        <v>devops_ci_template_job-12</v>
+      </c>
+      <c r="G46" t="str">
+        <f>E15</f>
+        <v>devops_ci_template_step-8</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G47" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G48" t="str">
+        <f>E17</f>
+        <v>devops_ci_template_step-10</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
+      <c r="E49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G49" t="str">
+        <f>E18</f>
+        <v>devops_ci_template_step-11</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G50" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_step-9</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G51" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
+      <c r="E52" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" t="str">
+        <f>流水线任务模板!E8</f>
+        <v>devops_ci_template_job-1</v>
+      </c>
+      <c r="G52" t="str">
+        <f>E8</f>
+        <v>devops_ci_template_step-1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
+      <c r="E53" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G53" t="str">
+        <f>E17</f>
+        <v>devops_ci_template_step-10</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8">
+      <c r="E54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" t="str">
+        <f>流水线任务模板!E15</f>
+        <v>devops_ci_template_job-16</v>
+      </c>
+      <c r="G54" t="str">
+        <f>E19</f>
+        <v>devops_ci_template_step-12</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1907,7 +1907,7 @@
     <t>#built_in</t>
   </si>
   <si>
-    <t>#language</t>
+    <t>#category</t>
   </si>
   <si>
     <t>devops_ci_template_category-1</t>
@@ -2548,8 +2548,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2641,7 +2641,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2656,6 +2663,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2686,27 +2716,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2715,7 +2731,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2731,24 +2747,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2768,19 +2777,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2866,19 +2866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,13 +2896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,13 +2938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2938,13 +2962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,13 +2974,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,7 +3004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,55 +3016,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3147,17 +3147,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3177,20 +3180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3201,6 +3201,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3217,15 +3226,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3247,148 +3247,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4316,8 +4316,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -5930,7 +5930,7 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2362,7 +2362,7 @@
     <t>Node.js单元测试</t>
   </si>
   <si>
-    <t>npm_unit_test</t>
+    <t>node_js_unit_test</t>
   </si>
   <si>
     <t>devops_ci_template_step-11</t>
@@ -2371,7 +2371,7 @@
     <t>Node.js构建</t>
   </si>
   <si>
-    <t>npm_js_build</t>
+    <t>node_js_build</t>
   </si>
   <si>
     <t>devops_ci_template_step-12</t>
@@ -2547,10 +2547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2634,21 +2634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2662,17 +2655,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2684,54 +2684,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2746,10 +2700,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2761,17 +2731,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2779,6 +2756,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2860,42 +2860,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2908,7 +2872,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,127 +3040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3147,24 +3147,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3176,6 +3158,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3195,26 +3210,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3230,165 +3225,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3605,7 +3605,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3861,21 +3861,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3890,7 +3890,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3904,7 +3904,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
@@ -4101,22 +4101,22 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="22.0814814814815" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
-    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
-    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4316,19 +4316,19 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4472,20 +4472,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
-    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
-    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
-    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
+    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4774,15 +4774,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4909,15 +4909,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5170,15 +5170,15 @@
       <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5335,20 +5335,20 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
-    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
+    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5934,14 +5934,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6062,22 +6062,22 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
-    <col min="9" max="9" width="39.75" customWidth="1"/>
-    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="264">
   <si>
     <r>
       <rPr>
@@ -2378,6 +2378,15 @@
   </si>
   <si>
     <t>npm_build</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-13</t>
+  </si>
+  <si>
+    <t>Maven发布</t>
+  </si>
+  <si>
+    <t>maven_publish</t>
   </si>
   <si>
     <t>devops_ci_template_job_step_rel</t>
@@ -2547,10 +2556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2584,15 +2593,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2633,10 +2642,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2654,6 +2664,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2668,6 +2686,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2676,9 +2709,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2686,9 +2725,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2731,44 +2770,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2779,6 +2781,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2860,13 +2869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,7 +2893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,13 +2911,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2914,54 +2965,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2974,7 +2977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,25 +3001,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3016,31 +3031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3147,17 +3156,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3177,20 +3180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3206,6 +3206,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3228,8 +3237,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3250,10 +3259,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3262,138 +3271,138 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3401,8 +3410,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3863,8 +3876,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -3880,79 +3893,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3960,56 +3973,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4019,30 +4032,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4050,7 +4063,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4058,25 +4071,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4101,7 +4114,7 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -4159,52 +4172,52 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -4224,52 +4237,52 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L12" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F13" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4283,17 +4296,17 @@
     </row>
     <row r="14" spans="5:11">
       <c r="E14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F14" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4971,7 +4984,7 @@
       <c r="G7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4994,7 +5007,7 @@
       <c r="E9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5254,7 +5267,7 @@
       <c r="E9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G9" t="s">
@@ -5492,7 +5505,7 @@
       <c r="E10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6008,7 +6021,7 @@
       <c r="E9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>120</v>
       </c>
       <c r="G9">
@@ -6063,7 +6076,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6443,9 +6456,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="5:7">
-      <c r="E20" s="6"/>
-      <c r="G20" s="6"/>
+    <row r="20" customFormat="1" spans="5:12">
+      <c r="E20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="str">
+        <f>流水线步骤分类!E8</f>
+        <v>devops_ci_template_step_category-1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:7">
       <c r="E21" s="6"/>
@@ -6461,7 +6494,7 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -6470,7 +6503,7 @@
         <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -6478,7 +6511,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6494,7 +6527,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6510,7 +6543,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6526,7 +6559,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6542,7 +6575,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6558,7 +6591,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
@@ -6574,7 +6607,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
@@ -6590,7 +6623,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E11</f>
@@ -6606,7 +6639,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E11</f>
@@ -6622,7 +6655,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E8</f>
@@ -6638,7 +6671,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E9</f>
@@ -6654,7 +6687,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E12</f>
@@ -6670,7 +6703,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E12</f>
@@ -6686,7 +6719,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E12</f>
@@ -6702,7 +6735,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E8</f>
@@ -6718,7 +6751,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E9</f>
@@ -6734,7 +6767,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E13</f>
@@ -6750,7 +6783,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E8</f>
@@ -6766,7 +6799,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E9</f>
@@ -6782,7 +6815,7 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F49" t="str">
         <f>流水线任务模板!E14</f>
@@ -6798,7 +6831,7 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F50" t="str">
         <f>流水线任务模板!E14</f>
@@ -6814,7 +6847,7 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F51" t="str">
         <f>流水线任务模板!E14</f>
@@ -6830,7 +6863,7 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F52" t="str">
         <f>流水线任务模板!E8</f>
@@ -6846,7 +6879,7 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F53" t="str">
         <f>流水线任务模板!E9</f>
@@ -6862,7 +6895,7 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F54" t="str">
         <f>流水线任务模板!E15</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="8"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1931,7 +1931,7 @@
     <t>流水线模板</t>
   </si>
   <si>
-    <t>devops_pipeline_template</t>
+    <t>devops_ci_pipeline_template</t>
   </si>
   <si>
     <t>#source_id</t>
@@ -1958,7 +1958,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>devops_pipeline_template-1</t>
+    <t>devops_ci_pipeline_template-1</t>
   </si>
   <si>
     <t>site</t>
@@ -1967,7 +1967,7 @@
     <t>Java(Maven构建)+构建镜像</t>
   </si>
   <si>
-    <t>devops_pipeline_template-2</t>
+    <t>devops_ci_pipeline_template-2</t>
   </si>
   <si>
     <r>
@@ -1993,25 +1993,25 @@
     <t>Java(Maven构建)+构建</t>
   </si>
   <si>
-    <t>devops_pipeline_template-3</t>
+    <t>devops_ci_pipeline_template-3</t>
   </si>
   <si>
     <t>Go构建镜像+发布Chart</t>
   </si>
   <si>
-    <t>devops_pipeline_template-4</t>
+    <t>devops_ci_pipeline_template-4</t>
   </si>
   <si>
     <t>Go构建</t>
   </si>
   <si>
-    <t>devops_pipeline_template-5</t>
+    <t>devops_ci_pipeline_template-5</t>
   </si>
   <si>
     <t>Node.js(Npm构建)+构建镜像</t>
   </si>
   <si>
-    <t>devops_pipeline_template-6</t>
+    <t>devops_ci_pipeline_template-6</t>
   </si>
   <si>
     <t>Node.js(Npm构建)+构建</t>
@@ -2556,9 +2556,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2642,9 +2642,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2657,47 +2686,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2716,8 +2717,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2731,34 +2777,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2767,29 +2790,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2869,7 +2869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2881,7 +2881,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,19 +2917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,7 +2935,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2929,25 +2995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2959,13 +3013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2977,31 +3025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3013,43 +3043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,9 +3158,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3195,17 +3206,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3213,8 +3218,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3234,175 +3239,170 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3415,7 +3415,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3618,7 +3617,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3874,155 +3873,155 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="32" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="26" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4032,38 +4031,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="38" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="38" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="38" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4071,25 +4070,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4118,18 +4117,18 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
+    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
+    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4333,15 +4332,15 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4481,24 +4480,24 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
-    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
+    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
+    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4787,15 +4786,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4919,18 +4918,18 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4984,7 +4983,7 @@
       <c r="G7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4997,7 +4996,7 @@
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
-        <v>devops_pipeline_template-1</v>
+        <v>devops_ci_pipeline_template-1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5012,7 +5011,7 @@
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
-        <v>devops_pipeline_template-1</v>
+        <v>devops_ci_pipeline_template-1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -5027,7 +5026,7 @@
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
-        <v>devops_pipeline_template-2</v>
+        <v>devops_ci_pipeline_template-2</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5042,7 +5041,7 @@
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
-        <v>devops_pipeline_template-2</v>
+        <v>devops_ci_pipeline_template-2</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5057,7 +5056,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
-        <v>devops_pipeline_template-3</v>
+        <v>devops_ci_pipeline_template-3</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -5072,7 +5071,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
-        <v>devops_pipeline_template-3</v>
+        <v>devops_ci_pipeline_template-3</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -5087,7 +5086,7 @@
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
-        <v>devops_pipeline_template-4</v>
+        <v>devops_ci_pipeline_template-4</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -5102,7 +5101,7 @@
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
-        <v>devops_pipeline_template-4</v>
+        <v>devops_ci_pipeline_template-4</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5117,7 +5116,7 @@
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
-        <v>devops_pipeline_template-5</v>
+        <v>devops_ci_pipeline_template-5</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -5132,7 +5131,7 @@
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
-        <v>devops_pipeline_template-5</v>
+        <v>devops_ci_pipeline_template-5</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -5147,7 +5146,7 @@
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
-        <v>devops_pipeline_template-6</v>
+        <v>devops_ci_pipeline_template-6</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5162,7 +5161,7 @@
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
-        <v>devops_pipeline_template-6</v>
+        <v>devops_ci_pipeline_template-6</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -5183,15 +5182,15 @@
       <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5348,20 +5347,20 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
-    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
+    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5947,14 +5946,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6075,22 +6074,22 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
-    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -1931,7 +1931,7 @@
     <t>流水线模板</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template</t>
+    <t>devops_ci_template_pipeline</t>
   </si>
   <si>
     <t>#source_id</t>
@@ -1958,7 +1958,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template-1</t>
+    <t>devops_ci_template_pipeline-1</t>
   </si>
   <si>
     <t>site</t>
@@ -1967,7 +1967,7 @@
     <t>Java(Maven构建)+构建镜像</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template-2</t>
+    <t>devops_ci_template_pipeline-2</t>
   </si>
   <si>
     <r>
@@ -1993,25 +1993,25 @@
     <t>Java(Maven构建)+构建</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template-3</t>
+    <t>devops_ci_template_pipeline-3</t>
   </si>
   <si>
     <t>Go构建镜像+发布Chart</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template-4</t>
+    <t>devops_ci_template_pipeline-4</t>
   </si>
   <si>
     <t>Go构建</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template-5</t>
+    <t>devops_ci_template_pipeline-5</t>
   </si>
   <si>
     <t>Node.js(Npm构建)+构建镜像</t>
   </si>
   <si>
-    <t>devops_ci_pipeline_template-6</t>
+    <t>devops_ci_template_pipeline-6</t>
   </si>
   <si>
     <t>Node.js(Npm构建)+构建</t>
@@ -2650,6 +2650,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2658,7 +2679,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2673,97 +2763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2779,17 +2779,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2869,7 +2869,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2881,25 +2977,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,139 +3043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,20 +3158,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3191,17 +3180,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3219,7 +3204,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3256,148 +3256,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4481,7 +4481,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
-        <v>devops_ci_pipeline_template-1</v>
+        <v>devops_ci_template_pipeline-1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
-        <v>devops_ci_pipeline_template-1</v>
+        <v>devops_ci_template_pipeline-1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
-        <v>devops_ci_pipeline_template-2</v>
+        <v>devops_ci_template_pipeline-2</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
-        <v>devops_ci_pipeline_template-2</v>
+        <v>devops_ci_template_pipeline-2</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
-        <v>devops_ci_pipeline_template-3</v>
+        <v>devops_ci_template_pipeline-3</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
-        <v>devops_ci_pipeline_template-3</v>
+        <v>devops_ci_template_pipeline-3</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
-        <v>devops_ci_pipeline_template-4</v>
+        <v>devops_ci_template_pipeline-4</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
-        <v>devops_ci_pipeline_template-4</v>
+        <v>devops_ci_template_pipeline-4</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
-        <v>devops_ci_pipeline_template-5</v>
+        <v>devops_ci_template_pipeline-5</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
-        <v>devops_ci_pipeline_template-5</v>
+        <v>devops_ci_template_pipeline-5</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
-        <v>devops_ci_pipeline_template-6</v>
+        <v>devops_ci_template_pipeline-6</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
-        <v>devops_ci_pipeline_template-6</v>
+        <v>devops_ci_template_pipeline-6</v>
       </c>
       <c r="H19">
         <v>2</v>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="267">
   <si>
     <r>
       <rPr>
@@ -1910,24 +1910,36 @@
     <t>#category</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
     <t>devops_ci_template_category-1</t>
   </si>
   <si>
     <t>java</t>
   </si>
   <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAACN0lEQVRIS82Xz0sbQRTHP/sju9HEtIaYoK2FSgkVC0IELwUP9VQo/hsFz+JZ8OpZ6KFHD4KnHnoSb95CQXvpD+jBtJW21hpjks1ms1teYoQU84M1WTuXXXbezPcz772ZeasULec5nvsKmCTYlkNRXyrFsn10C+LNpeYEwAt24a1qLQAnf4qUbaduYYQ0nJqL63qEDR3LdtA1td4n3/22IUMnMRq5Gt4CkPuRv+p4dD/O2YVFxXaYGIvx5dspqXi03v/157lf/fq4ydSd7gCD8kBHgOFw6EYr63Vwyape7wHfAAcHMDvbqz79B9jchOXlWwLY2oKREVhaChjA82B9HeJxmJmBaBQyGdC0riD9CcHaGiSTUCrB/DwsLHQVbhr0B2BxEXZ3YXoaDg/BMAIG2N5uZP7GBqTTsLoaMIDIZbOQSMDODqysBANwfCZ3AUyMQv1qyOchFgNFoVSB90eQeQghvT2P7xyoOPD2HchRrqogG0EgDB3GYnAvDvsfYfwuTKUGANCc8k0WHiTADIFdhV8FmJuCqgOfj+Hp487R8O2B5rS/C3BeBvGIXB+y+ogJ1RqEuh8D/o9iuUMkzicF2P8Al6VDPSQv5kDXwPVAVQbggdMLeL0Hz55AMgZDZkNIapOyDUWrkXgSFgGSvGjX2oYgbOqoSmd8cf2n75AvN+Iv5pEwRM3G+7AJ6fH24q7nYUnsLltLRSTihqF1heh5w/9jKOK2XUOe1wL4nfgm4/6DsvyWf0z+AppQNcya6RCLAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
     <t>devops_ci_template_category-2</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAAC90lEQVRIS+1XS08TURT+5tUOU6C0ASqlQMPDncQQ0UAiSmJCJAbCxiUmLjSamOjKH2DiwrhwZ1y5wagLAwkmYiIKvoBodGMCKgK2tPRlwZaZTqfTGTNTWykQrVAeJp7NTe65957v+845c+8QvCgfh6rcAlCF7TU3CPIswcck1w4ET1N1awDU7SWeHS0LQGiRR0yS9RUGhoKcVKAoKlgDDVGSQVOk7tPmN2oFBhqlFlNmexYAt/97xlHvsGJpWURckmEvK8aMJwybtVD3zwciG42v76uymf8MYKsU+C0AjmU2xSzXzYKYWF+B/wD+GQUmwjH0uSL4wkuoLGBwrrYETSWsntekquKRj8dIUMBiIol9Zhana8woZlItrNmmauDyhwCufQxn1ZuBJNDfUolmC4uu1x6Mh2NZ/hqOwUhbNZymVJHnBGBBlDG4sIz0Z9JRQMMlyDj/3geKAC41WNFoNuLmzBLcQgKnnGa8CMbwPCSgimNwsd4CmiBwdSoEfzyJbnsRBloqcwNwbz6KaEIBQaSIaEPnHhOahufgE2VcbyzHhToL7s9HICvQAU3zCVyZDIElCUx11EJjrdmAN4qeMQ+KaBKR7r25AUjrNyck8NjP6yocK+fQMDSjuz511Oo5PvPOt6b120o5jB6pzsyPhWNoffZ1YwBWnh6Iy7A9nNan+g7asd9shAbwxudFPAnwMNEkeFlBmZHSAZZod4mq4uSEF/2eKE5UFGKw1fF3Cqymd3jUhZchAUaSQI+9CEFJxnBAAEMSuNNsR+9bL8SkCifHoL2cw/i3GCajEjiKwFi7U6+ZnItwjbYAZvkEOl+5MRWVMm6rgcLtAxXoqijEA08UvW+8EJK/bvg6E4O7h1Idkpc2jCsqhnw8ZnkJDo5Bh82k5zdtflHG06AAryjraTpaxoFKV/PPRTm14XoK5Gtu9wJgjTTIVXLli3X6HEVVIcZTry79G7PyTagFNxioLQOhBZekJLRxXQD5ZpvLebvgWb7DPyY/AEYXo8zn1qrmAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
     <t>devops_ci_template_category-3</t>
   </si>
   <si>
     <t>node.js</t>
   </si>
   <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAADg0lEQVRIS9WXXUxbZRjHf/2kY9R+rHDYsYtlmNnhEkeYM5oZEwwYwQsgi4EbY7hQo0XrzdiNJoYbSMArEjAYcImQeAWBzvCVmBBQop2BZYkLOBNphyldHWUrnHbl1JyzQIYZO5U5ps/NSd6P5/k9z/95z3mPLiGlXycjfwEcYX8thE7/ri6xkVp6DMG3Ug0pAJn9TXxntB0AN24m2Eil1RVmk4H0powsZ7CYjUipNEaDXp1TxvdqB8xGXI6D29t3AIQi8e2Jp91OVm9LJFNpxPwn+O36nwjOPHU+vLK21/jqviOCTRvgUVXggQC5FtNDZZbt5nXpzv0r8L8HCAaDCIKA2+1Gp9PtWpBHVoHe3l4GBgYYHBzEarXuP0BfXx+dnZ1MTEzgdDr3DiDLMsvLy8zMzFBZWYndbldLupnZ5PfYr6xLG3gPn8BoMKpBJElienqa2dlZNXsFwOFwEI1G1fHy8nJsNtu2LJoS9PT00N/fz9raGqIo4vf7eeHMaYYWv+RK6DK3YzLPFJyg4cW3WQlFaW9vZ35+Hr1erwYZGxtjcnISxU8sFlN7orGxkZqaGhVYE6C0tJTi4mJ1U1tbG16vlw8//YDPf2rmkCmf9VUdq/FbvPXyOwRHfmZoaAifz8fU1BRzc3OMj49TX1/PgdxcXnnjDCNfX8RT5EGRKCuAsrIyqqqqaGlpoa6ujsLCQnyfvEfzoJ9jbpHULQPhG1Hef/VjgiNBAoEAXV1davmHh4dVCRoaGigQ8nnTdxaBJzl58jnMZnN2AIpmTU1N1NbWquUNh8Oc/+wczd+cR2dKYM3JIynp8L92jsXgIh0dHSSTSZTeKSkpobu7m9bWVkZHR3G58vH7P6KiomK7KTUliEQi6nneMqWZXC4X0h2J0cvfYjTKlD31EkuxJey5DkySiQtfXUCRrrq6Ws00k8lwKXiJwMWAKoci45ZpAmi9Uq9e/4X4RhyveJyVeITwzTCnjj6P1bL72b/X50MD/Lj4A+IhN98vTJNnyUO0idgPOvEUFGmxZ9cDWl4UAMFxmCuheUx6M2ZjDh6hCI9rnwAW/rjKtcg1StzPkkgmWFmNcKr4tFqNbGxXCSw5RvQP+Ijc61zp+KmF7xCshRwTj2PQ3b0taZmcySAl7966FNtxI1KCm82GrCG0gv19XgmeSm2iPO8L8E8d/hvr/wPX8sf8Y/IXbgDVzErLKXgAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
     <t>流水线模板</t>
   </si>
   <si>
@@ -1953,9 +1965,6 @@
   </si>
   <si>
     <t>version_name</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>devops_ci_template_pipeline-1</t>
@@ -2556,9 +2565,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2643,59 +2652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2709,15 +2666,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2732,6 +2681,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2739,16 +2740,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2762,16 +2778,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2780,14 +2797,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2869,13 +2878,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2887,7 +2926,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2905,7 +2986,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2923,133 +3058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,52 +3167,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3240,6 +3207,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3253,151 +3253,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3617,7 +3626,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3873,21 +3882,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3902,7 +3911,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3916,7 +3925,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3937,7 +3946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
@@ -3957,7 +3966,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -4014,7 +4023,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
@@ -4037,7 +4046,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
@@ -4045,7 +4054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
@@ -4053,7 +4062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
@@ -4087,7 +4096,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
@@ -4117,18 +4126,18 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="22.0814814814815" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
-    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
-    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4171,52 +4180,52 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -4236,52 +4245,52 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I12" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F13" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4295,17 +4304,17 @@
     </row>
     <row r="14" spans="5:11">
       <c r="E14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F14" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4326,21 +4335,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4372,7 +4381,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -4394,38 +4403,50 @@
       <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="5:7">
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
       <c r="E9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="1"/>
@@ -4480,24 +4501,24 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
-    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
-    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
-    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
+    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4538,54 +4559,54 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="5:11">
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" t="str">
         <f>流水线模板分类!E8</f>
@@ -4597,19 +4618,19 @@
     </row>
     <row r="9" spans="5:11">
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J9" t="str">
         <f>流水线模板分类!E8</f>
@@ -4621,19 +4642,19 @@
     </row>
     <row r="10" spans="5:11">
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J10" t="str">
         <f>流水线模板分类!E9</f>
@@ -4645,19 +4666,19 @@
     </row>
     <row r="11" customFormat="1" spans="5:11">
       <c r="E11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J11" t="str">
         <f>流水线模板分类!E9</f>
@@ -4669,19 +4690,19 @@
     </row>
     <row r="12" customFormat="1" spans="5:11">
       <c r="E12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J12" t="str">
         <f>流水线模板分类!E10</f>
@@ -4696,19 +4717,19 @@
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" t="str">
         <f>流水线模板分类!E10</f>
@@ -4786,15 +4807,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4835,22 +4856,22 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
@@ -4921,15 +4942,15 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4969,30 +4990,30 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
@@ -5004,10 +5025,10 @@
     </row>
     <row r="9" customFormat="1" spans="5:8">
       <c r="E9" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
@@ -5019,10 +5040,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:8">
       <c r="E10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
@@ -5034,10 +5055,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:8">
       <c r="E11" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
@@ -5049,10 +5070,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:8">
       <c r="E12" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
@@ -5064,10 +5085,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:8">
       <c r="E13" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
@@ -5079,10 +5100,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:8">
       <c r="E14" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
@@ -5094,10 +5115,10 @@
     </row>
     <row r="15" customFormat="1" spans="5:8">
       <c r="E15" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
@@ -5109,10 +5130,10 @@
     </row>
     <row r="16" spans="5:8">
       <c r="E16" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
@@ -5124,10 +5145,10 @@
     </row>
     <row r="17" spans="5:8">
       <c r="E17" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
@@ -5139,10 +5160,10 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
@@ -5154,10 +5175,10 @@
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
@@ -5182,15 +5203,15 @@
       <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5230,33 +5251,33 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5264,13 +5285,13 @@
     </row>
     <row r="9" customFormat="1" spans="5:8">
       <c r="E9" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -5278,13 +5299,13 @@
     </row>
     <row r="10" customFormat="1" spans="5:8">
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5292,13 +5313,13 @@
     </row>
     <row r="11" customFormat="1" spans="5:8">
       <c r="E11" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -5306,13 +5327,13 @@
     </row>
     <row r="12" customFormat="1" spans="5:8">
       <c r="E12" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -5347,20 +5368,20 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
-    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
+    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5400,40 +5421,40 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:14">
@@ -5442,17 +5463,17 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板任务分组!E10</f>
         <v>devops_ci_template_job_group-3</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5467,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:14">
       <c r="E9" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>流水线模板任务分组!E11</f>
         <v>devops_ci_template_job_group-4</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5497,22 +5518,22 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:14">
       <c r="E10" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5527,22 +5548,22 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:14">
       <c r="E11" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5557,22 +5578,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:14">
       <c r="E12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5587,22 +5608,22 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G13" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -5617,22 +5638,22 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5647,22 +5668,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5677,29 +5698,29 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -5712,7 +5733,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -5725,7 +5746,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -5738,7 +5759,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -5751,7 +5772,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -5764,7 +5785,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -5777,7 +5798,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
@@ -5790,7 +5811,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -5803,7 +5824,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -5816,7 +5837,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
@@ -5829,7 +5850,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -5842,7 +5863,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -5855,7 +5876,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
@@ -5868,7 +5889,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -5881,7 +5902,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -5894,7 +5915,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
@@ -5907,7 +5928,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -5920,7 +5941,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -5946,14 +5967,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5990,27 +6011,27 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
       <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -6018,10 +6039,10 @@
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -6029,10 +6050,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:7">
       <c r="E10" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6040,10 +6061,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:7">
       <c r="E11" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6078,18 +6099,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
-    <col min="9" max="9" width="39.75" customWidth="1"/>
-    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6129,34 +6150,34 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:12">
@@ -6165,23 +6186,23 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" t="str">
         <f>流水线步骤分类!E10</f>
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -6193,23 +6214,23 @@
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6217,23 +6238,23 @@
     </row>
     <row r="10" customFormat="1" spans="5:12">
       <c r="E10" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6241,23 +6262,23 @@
     </row>
     <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -6265,23 +6286,23 @@
     </row>
     <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" t="str">
         <f>流水线步骤分类!E11</f>
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -6289,23 +6310,23 @@
     </row>
     <row r="13" customFormat="1" spans="5:12">
       <c r="E13" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" t="str">
         <f>流水线步骤分类!E11</f>
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -6313,23 +6334,23 @@
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6337,23 +6358,23 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I15" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -6361,23 +6382,23 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I16" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -6385,23 +6406,23 @@
     </row>
     <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6409,23 +6430,23 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I18" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6433,23 +6454,23 @@
     </row>
     <row r="19" customFormat="1" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6457,23 +6478,23 @@
     </row>
     <row r="20" customFormat="1" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6493,24 +6514,24 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6526,7 +6547,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6542,7 +6563,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6558,7 +6579,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6574,7 +6595,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6590,7 +6611,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
@@ -6606,7 +6627,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
@@ -6622,7 +6643,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E11</f>
@@ -6638,7 +6659,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E11</f>
@@ -6654,7 +6675,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E8</f>
@@ -6670,7 +6691,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E9</f>
@@ -6686,7 +6707,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E12</f>
@@ -6702,7 +6723,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E12</f>
@@ -6718,7 +6739,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E12</f>
@@ -6734,7 +6755,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E8</f>
@@ -6750,7 +6771,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E9</f>
@@ -6766,7 +6787,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E13</f>
@@ -6782,7 +6803,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E8</f>
@@ -6798,7 +6819,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E9</f>
@@ -6814,7 +6835,7 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F49" t="str">
         <f>流水线任务模板!E14</f>
@@ -6830,7 +6851,7 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F50" t="str">
         <f>流水线任务模板!E14</f>
@@ -6846,7 +6867,7 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F51" t="str">
         <f>流水线任务模板!E14</f>
@@ -6862,7 +6883,7 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F52" t="str">
         <f>流水线任务模板!E8</f>
@@ -6878,7 +6899,7 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F53" t="str">
         <f>流水线任务模板!E9</f>
@@ -6894,7 +6915,7 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F54" t="str">
         <f>流水线任务模板!E15</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -2491,6 +2491,9 @@
     <t>skipTests</t>
   </si>
   <si>
+    <t>config_type</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -2513,6 +2516,9 @@
   </si>
   <si>
     <t>sonarmaven</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si>
     <t>devops_ci_template_docker</t>
@@ -2565,9 +2571,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2651,37 +2657,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2702,7 +2687,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2710,7 +2702,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2727,13 +2742,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2762,6 +2770,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2771,30 +2786,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2878,7 +2884,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,7 +2950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,73 +2980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2980,37 +2998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3028,7 +3022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3040,25 +3052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,10 +3173,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3187,21 +3191,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3223,17 +3212,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3262,49 +3244,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3316,102 +3322,102 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3419,6 +3425,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3626,7 +3633,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3884,8 +3891,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -3901,79 +3908,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3981,56 +3988,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4040,30 +4047,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4071,7 +4078,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4079,25 +4086,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4120,10 +4127,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4172,7 +4179,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>44530</v>
       </c>
@@ -4197,7 +4204,7 @@
       <c r="H7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>244</v>
       </c>
       <c r="J7" t="s">
@@ -4215,20 +4222,26 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:8">
+      <c r="O7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:8">
@@ -4245,7 +4258,7 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -4254,43 +4267,43 @@
         <v>214</v>
       </c>
       <c r="G12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F13" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4304,17 +4317,17 @@
     </row>
     <row r="14" spans="5:11">
       <c r="E14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F14" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4337,7 +4350,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -5004,7 +5017,7 @@
       <c r="G7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5027,7 +5040,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5287,7 +5300,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5525,7 +5538,7 @@
       <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6041,7 +6054,7 @@
       <c r="E9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6480,7 +6493,7 @@
       <c r="E20" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>211</v>
       </c>
       <c r="G20" s="6">
@@ -6493,7 +6506,7 @@
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="9" t="s">
         <v>212</v>
       </c>
       <c r="L20">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="815" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2488,7 +2488,7 @@
     <t>scanner_type</t>
   </si>
   <si>
-    <t>skipTests</t>
+    <t>skip_tests</t>
   </si>
   <si>
     <t>config_type</t>
@@ -2571,9 +2571,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2658,15 +2658,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,13 +2684,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2700,40 +2701,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2770,6 +2746,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2777,11 +2769,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2795,14 +2794,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2884,7 +2884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,13 +2896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2914,133 +2914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3058,13 +2938,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,11 +3171,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3191,6 +3197,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3212,26 +3227,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3241,6 +3239,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3259,165 +3268,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3429,7 +3429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3891,8 +3890,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -3908,79 +3907,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3988,56 +3987,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4047,30 +4046,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4078,7 +4077,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4086,25 +4085,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4130,7 +4129,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5017,7 +5016,7 @@
       <c r="G7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5040,7 +5039,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5300,7 +5299,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5538,7 +5537,7 @@
       <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>138</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6054,7 +6053,7 @@
       <c r="E9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6506,7 +6505,7 @@
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>212</v>
       </c>
       <c r="L20">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="815" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2571,9 +2571,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2657,29 +2657,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2702,6 +2679,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2710,6 +2702,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2762,20 +2762,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2785,6 +2771,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2800,9 +2801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2884,7 +2884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,19 +2926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2926,19 +2938,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,7 +2986,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2968,103 +3064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3172,21 +3172,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3197,15 +3182,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3243,13 +3219,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3268,49 +3248,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3325,94 +3325,94 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4128,7 +4128,7 @@
   <sheetPr/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -4513,7 +4513,7 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4951,7 +4951,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -5032,7 +5032,7 @@
         <v>devops_ci_template_pipeline-1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:8">
@@ -5047,7 +5047,7 @@
         <v>devops_ci_template_pipeline-1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
@@ -5062,7 +5062,7 @@
         <v>devops_ci_template_pipeline-2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:8">
@@ -5077,7 +5077,7 @@
         <v>devops_ci_template_pipeline-2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:8">
@@ -5092,7 +5092,7 @@
         <v>devops_ci_template_pipeline-3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:8">
@@ -5107,7 +5107,7 @@
         <v>devops_ci_template_pipeline-3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:8">
@@ -5122,7 +5122,7 @@
         <v>devops_ci_template_pipeline-4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:8">
@@ -5137,7 +5137,7 @@
         <v>devops_ci_template_pipeline-4</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="5:8">
@@ -5152,7 +5152,7 @@
         <v>devops_ci_template_pipeline-5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:8">
@@ -5167,7 +5167,7 @@
         <v>devops_ci_template_pipeline-5</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:8">
@@ -5182,7 +5182,7 @@
         <v>devops_ci_template_pipeline-6</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -5197,7 +5197,7 @@
         <v>devops_ci_template_pipeline-6</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6107,8 +6107,8 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6554,7 +6554,7 @@
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:8">
@@ -6570,7 +6570,7 @@
         <v>devops_ci_template_step-2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="5:8">
@@ -6586,7 +6586,7 @@
         <v>devops_ci_template_step-3</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="5:8">
@@ -6602,7 +6602,7 @@
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="5:8">
@@ -6618,7 +6618,7 @@
         <v>devops_ci_template_step-5</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="5:8">
@@ -6634,7 +6634,7 @@
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:8">
@@ -6650,7 +6650,7 @@
         <v>devops_ci_template_step-2</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="5:8">
@@ -6666,7 +6666,7 @@
         <v>devops_ci_template_step-3</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="5:8">
@@ -6682,7 +6682,7 @@
         <v>devops_ci_template_step-6</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="5:8">
@@ -6698,7 +6698,7 @@
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:8">
@@ -6714,7 +6714,7 @@
         <v>devops_ci_template_step-7</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="5:8">
@@ -6730,7 +6730,7 @@
         <v>devops_ci_template_step-8</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="5:8">
@@ -6746,7 +6746,7 @@
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="5:8">
@@ -6762,7 +6762,7 @@
         <v>devops_ci_template_step-5</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="5:8">
@@ -6778,7 +6778,7 @@
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="5:8">
@@ -6794,7 +6794,7 @@
         <v>devops_ci_template_step-7</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="5:8">
@@ -6810,7 +6810,7 @@
         <v>devops_ci_template_step-8</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="5:8">
@@ -6826,7 +6826,7 @@
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="5:8">
@@ -6842,7 +6842,7 @@
         <v>devops_ci_template_step-10</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="5:8">
@@ -6858,7 +6858,7 @@
         <v>devops_ci_template_step-11</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="5:8">
@@ -6874,7 +6874,7 @@
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="5:8">
@@ -6890,7 +6890,7 @@
         <v>devops_ci_template_step-5</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="5:8">
@@ -6906,7 +6906,7 @@
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="5:8">
@@ -6922,7 +6922,7 @@
         <v>devops_ci_template_step-10</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="5:8">
@@ -6938,7 +6938,7 @@
         <v>devops_ci_template_step-12</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
     <t>devops_ci_template_sonar-1</t>
   </si>
   <si>
-    <t>sonarmaven</t>
+    <t>SonarMaven</t>
   </si>
   <si>
     <t>default</t>
@@ -2572,9 +2572,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2678,8 +2678,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2687,21 +2695,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2715,6 +2708,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2723,11 +2724,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2770,6 +2770,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2780,14 +2787,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,7 +2795,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2884,7 +2884,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,49 +3028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,85 +3046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3041,30 +3065,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,6 +3171,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3182,6 +3197,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3210,15 +3243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3230,30 +3254,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3277,7 +3277,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3286,19 +3286,19 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3307,13 +3307,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3325,99 +3325,99 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3425,6 +3425,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3632,7 +3633,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3888,155 +3889,155 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4046,38 +4047,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4085,25 +4086,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4128,22 +4129,22 @@
   <sheetPr/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
+    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
+    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4203,7 +4204,7 @@
       <c r="H7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>244</v>
       </c>
       <c r="J7" t="s">
@@ -4233,13 +4234,13 @@
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4353,15 +4354,15 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4517,20 +4518,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
-    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
+    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
+    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4819,15 +4820,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4954,15 +4955,15 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5016,7 +5017,7 @@
       <c r="G7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5039,7 +5040,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5215,15 +5216,15 @@
       <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5299,7 +5300,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5380,20 +5381,20 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
-    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
+    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5537,7 +5538,7 @@
       <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -5979,14 +5980,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6053,7 +6054,7 @@
       <c r="E9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6107,22 +6108,22 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="F9" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
-    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6492,7 +6493,7 @@
       <c r="E20" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>211</v>
       </c>
       <c r="G20" s="6">
@@ -6505,7 +6506,7 @@
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>212</v>
       </c>
       <c r="L20">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="275">
   <si>
     <r>
       <rPr>
@@ -2143,6 +2143,15 @@
     <t>test-build</t>
   </si>
   <si>
+    <t>devops_ci_template_job_group-6</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>流水线任务模板</t>
   </si>
   <si>
@@ -2519,6 +2528,15 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>devops_ci_template_sonar-2</t>
+  </si>
+  <si>
+    <t>SonarScanner</t>
+  </si>
+  <si>
+    <t>src</t>
   </si>
   <si>
     <t>devops_ci_template_docker</t>
@@ -2572,8 +2590,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2665,13 +2683,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2680,7 +2691,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2694,61 +2705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2762,6 +2719,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2771,7 +2750,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2787,7 +2766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,7 +2774,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2884,31 +2902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,25 +2926,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,13 +2968,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2980,7 +3022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2992,7 +3052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3004,49 +3064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3058,13 +3082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,21 +3189,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3205,16 +3208,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3237,7 +3231,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3258,13 +3263,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3274,10 +3292,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3286,138 +3304,138 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3425,7 +3443,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3633,7 +3650,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3891,8 +3908,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -3908,79 +3925,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3988,56 +4005,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4047,30 +4064,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4078,7 +4095,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4086,25 +4103,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4127,10 +4144,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4187,155 +4204,179 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:8">
-      <c r="E9" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:10">
+      <c r="E9" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" customFormat="1" spans="7:7">
+      <c r="G9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:8">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" customFormat="1" spans="7:7">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" spans="5:8">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="D12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" spans="7:7">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="7:7">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="4:14">
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" t="s">
-        <v>259</v>
-      </c>
-      <c r="L12" t="s">
-        <v>260</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="F14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" t="s">
         <v>261</v>
       </c>
-      <c r="N12" t="s">
+      <c r="H14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="5:11">
-      <c r="E13" t="s">
+      <c r="I14" t="s">
         <v>263</v>
       </c>
-      <c r="F13" t="str">
+      <c r="J14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" t="s">
+        <v>266</v>
+      </c>
+      <c r="M14" t="s">
+        <v>267</v>
+      </c>
+      <c r="N14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11">
+      <c r="E15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
-      <c r="G13" t="s">
-        <v>264</v>
-      </c>
-      <c r="H13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13">
+      <c r="G15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:11">
-      <c r="E14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" t="str">
+    <row r="16" spans="5:11">
+      <c r="E16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
-      <c r="G14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" t="s">
-        <v>268</v>
-      </c>
-      <c r="I14">
+      <c r="G16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>0</v>
       </c>
     </row>
@@ -5017,7 +5058,7 @@
       <c r="G7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5040,7 +5081,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5213,7 +5254,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -5300,7 +5341,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5352,9 +5393,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="5:6">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+    <row r="13" customFormat="1" spans="5:8">
+      <c r="E13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="5:6">
       <c r="E14" s="6"/>
@@ -5434,10 +5485,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -5446,7 +5497,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -5461,10 +5512,10 @@
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N7" t="s">
         <v>114</v>
@@ -5476,10 +5527,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>流水线模板任务分组!E10</f>
@@ -5501,12 +5552,12 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:14">
       <c r="E9" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
         <v>123</v>
@@ -5531,15 +5582,15 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:14">
       <c r="E10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>流水线模板任务分组!E9</f>
@@ -5561,15 +5612,15 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:14">
       <c r="E11" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -5591,15 +5642,15 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:14">
       <c r="E12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
@@ -5621,12 +5672,12 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -5651,15 +5702,15 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -5681,15 +5732,15 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
@@ -5711,29 +5762,29 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -5746,7 +5797,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -5759,7 +5810,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -5772,7 +5823,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -5785,7 +5836,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -5798,7 +5849,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -5811,7 +5862,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
@@ -5824,7 +5875,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -5837,7 +5888,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -5850,7 +5901,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
@@ -5863,7 +5914,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -5876,7 +5927,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -5889,7 +5940,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
@@ -5902,7 +5953,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -5915,7 +5966,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -5928,7 +5979,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
@@ -5941,7 +5992,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -5954,7 +6005,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -6027,7 +6078,7 @@
         <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -6041,7 +6092,7 @@
     </row>
     <row r="8" customFormat="1" spans="5:7">
       <c r="E8" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -6052,9 +6103,9 @@
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6063,10 +6114,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:7">
       <c r="E10" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6074,10 +6125,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:7">
       <c r="E11" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6108,7 +6159,7 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -6166,7 +6217,7 @@
         <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -6181,13 +6232,13 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J7" t="s">
         <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>70</v>
@@ -6199,10 +6250,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -6215,7 +6266,7 @@
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -6227,10 +6278,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -6243,7 +6294,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6251,10 +6302,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:12">
       <c r="E10" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -6267,7 +6318,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6275,10 +6326,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -6291,7 +6342,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -6299,10 +6350,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -6315,7 +6366,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -6323,10 +6374,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:12">
       <c r="E13" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -6339,7 +6390,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -6347,10 +6398,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -6363,7 +6414,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6371,7 +6422,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
@@ -6387,7 +6438,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -6395,10 +6446,10 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -6411,7 +6462,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -6419,10 +6470,10 @@
     </row>
     <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -6435,7 +6486,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6443,10 +6494,10 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -6459,7 +6510,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6467,10 +6518,10 @@
     </row>
     <row r="19" customFormat="1" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -6483,7 +6534,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6491,10 +6542,10 @@
     </row>
     <row r="20" customFormat="1" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -6506,8 +6557,8 @@
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>212</v>
+      <c r="J20" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6527,16 +6578,16 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -6544,7 +6595,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6560,7 +6611,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6576,7 +6627,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6592,7 +6643,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6608,7 +6659,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6624,7 +6675,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
@@ -6640,7 +6691,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
@@ -6656,7 +6707,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E11</f>
@@ -6672,7 +6723,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E11</f>
@@ -6688,7 +6739,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E8</f>
@@ -6704,7 +6755,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E9</f>
@@ -6720,7 +6771,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E12</f>
@@ -6736,7 +6787,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E12</f>
@@ -6752,7 +6803,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E12</f>
@@ -6768,7 +6819,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E8</f>
@@ -6784,7 +6835,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E9</f>
@@ -6800,7 +6851,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E13</f>
@@ -6816,7 +6867,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E8</f>
@@ -6832,7 +6883,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E9</f>
@@ -6848,7 +6899,7 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F49" t="str">
         <f>流水线任务模板!E14</f>
@@ -6864,7 +6915,7 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F50" t="str">
         <f>流水线任务模板!E14</f>
@@ -6880,7 +6931,7 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F51" t="str">
         <f>流水线任务模板!E14</f>
@@ -6896,7 +6947,7 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F52" t="str">
         <f>流水线任务模板!E8</f>
@@ -6912,7 +6963,7 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F53" t="str">
         <f>流水线任务模板!E9</f>
@@ -6928,7 +6979,7 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F54" t="str">
         <f>流水线任务模板!E15</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="280">
   <si>
     <r>
       <rPr>
@@ -2308,7 +2308,7 @@
     <t>devops_ci_template_step-1</t>
   </si>
   <si>
-    <t>SonarQube代码检查</t>
+    <t>SonarQube代码检查（Maven）</t>
   </si>
   <si>
     <t>sonar</t>
@@ -2329,6 +2329,53 @@
     <t>maven_build</t>
   </si>
   <si>
+    <t xml:space="preserve">
+# 功能： 更新pom文件中指定的项目的版本号
+# 说明： 此函数是猪齿鱼内置的shell函数，用于更新pom文件的版本号为对应commit的版本号,
+#        (这个值在猪齿鱼内置变量 CI_COMMIT_TAG 中)
+#        如果配置了依赖库，这里应该加上参数true，即：update_pom_version true
+# update_pom_version
+# 功能： 以jacoco为代理进行单元测试，可以分析单元测试覆盖率
+# 参数说明：
+#  -Dmaven.test.skip=false：不跳过单元测试
+#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
+#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
+#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
+#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
+#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
+#       -gs 指定系统级别的settings.xml
+# 更多帮助信息请执行此命令进行查看：mvn org.jacoco:jacoco-maven-plugin:help
+# mvn clean org.jacoco:jacoco-maven-plugin:prepare-agent test -Dmaven.test.failure.ignore=true -DskipTests=false -U -e -X -B
+# 功能： springboot项目打包
+# repackage可以将已经存在的jar和war格式的文件重新打包
+# 打出的jar包将可以在命令行使用java -jar命令执行。
+# 更多帮助信息请执行此命令进行查看：mvn spring-boot:help
+#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
+#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
+#       -gs 指定系统级别的settings.xml
+# mvn package spring-boot:repackage
+# 功能：  打包
+# 参数说明：
+#  -Dmaven.test.skip=true：跳过单元测试，不建议
+#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
+#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
+#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
+#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
+#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
+#       -gs 指定系统级别的settings.xml
+# 使用场景： 打包项目且不需要执行单元测试时使用
+# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=package
+mvn package -Dmaven.test.skip=true -U -e -X -B
+# 功能：打包并发布依赖包到私有依赖库
+# 使用场景： 需要将当前项目构建结果发布到私有依赖仓库以供其他maven项目引用时使用
+# 使用参数：settings.xml由用户在猪齿鱼CI流水线界面上填写信息生成存放在服务器，CI过程自动从远程服务器拉取到本地项目根目录，
+#           文件名为 settings.xml，使用-s参数指定为用户settings （Alternate path for the user settings file）
+#           使用-s指定settings.xml后，maven不会再读取$HOME/.m2/settings.xml内容。
+#           也可以使用-gs指定为全局 settings.xml 文件
+#           此处的用户认证信息id就是在配置仓库时的仓库名称
+# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=deploy</t>
+  </si>
+  <si>
     <t>devops_ci_template_step-4</t>
   </si>
   <si>
@@ -2398,6 +2445,20 @@
     <t>npm_build</t>
   </si>
   <si>
+    <t># 安装依赖
+npm install --registry ${NPM_REPO} --sass-binary-site=http://npm.taobao.org/mirrors/node-sass
+# 权限
+chmod -R 755 node_modules
+# 编译
+npm run compile
+echo "//${NPM_REGISTRY}:_authToken=${NPM_TOKEN}"&gt;.npmrc
+# 发布，发包到私库需要设置token,私库地址等参数
+npm publish --registry ${NPM_PUBLISH_REGISTRY}
+# 构建
+npm run dist
+cp -r src/main/resources/lib $CI_PROJECT_DIR/docker/lib</t>
+  </si>
+  <si>
     <t>devops_ci_template_step-13</t>
   </si>
   <si>
@@ -2405,6 +2466,16 @@
   </si>
   <si>
     <t>maven_publish</t>
+  </si>
+  <si>
+    <t># 以下的两个变量 ${CHOERODON_MAVEN_REPOSITORY_ID} ${CHOERODON_MAVEN_REPO_URL} 会在选择制品库后替换为相应的值, 如果没有特别需求, 不建议更改
+mvn clean install -Dmaven.springboot.skip=true -DskipTests=true deploy -DaltDeploymentRepository=${CHOERODON_MAVEN_REPOSITORY_ID}::default::${CHOERODON_MAVEN_REPO_URL} -s settings.xml</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-14</t>
+  </si>
+  <si>
+    <t>SonarQube代码检查（Scanner）</t>
   </si>
   <si>
     <t>devops_ci_template_job_step_rel</t>
@@ -2589,10 +2660,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2678,34 +2749,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2720,14 +2777,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2735,7 +2800,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2765,22 +2852,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2803,24 +2874,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2902,43 +2973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,7 +3003,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2968,25 +3081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2998,7 +3093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3010,19 +3105,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3040,49 +3135,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3189,17 +3260,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3228,22 +3295,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3259,6 +3321,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3281,161 +3352,161 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3444,6 +3515,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3908,8 +3982,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -3925,79 +3999,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4005,56 +4079,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4064,30 +4138,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4095,7 +4169,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4103,25 +4177,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4146,8 +4220,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4157,7 +4231,7 @@
     <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
     <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
@@ -4204,79 +4278,79 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
@@ -4299,52 +4373,52 @@
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H14" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J14" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K14" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L14" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M14" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N14" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4358,17 +4432,17 @@
     </row>
     <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G16" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4555,8 +4629,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4993,7 +5067,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -5081,7 +5155,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5341,7 +5415,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5428,8 +5502,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5589,7 +5663,7 @@
       <c r="E10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6105,7 +6179,7 @@
       <c r="E9" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6159,8 +6233,8 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6300,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="5:12">
+    <row r="10" customFormat="1" ht="409.5" spans="5:12">
       <c r="E10" s="6" t="s">
         <v>188</v>
       </c>
@@ -6320,16 +6394,19 @@
       <c r="J10" t="s">
         <v>189</v>
       </c>
+      <c r="K10" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -6342,7 +6419,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -6350,10 +6427,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -6366,7 +6443,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -6374,10 +6451,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:12">
       <c r="E13" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -6390,7 +6467,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -6398,10 +6475,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -6414,7 +6491,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6422,7 +6499,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
@@ -6438,7 +6515,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -6446,10 +6523,10 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -6462,7 +6539,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -6470,10 +6547,10 @@
     </row>
     <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -6486,7 +6563,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6494,10 +6571,10 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -6510,15 +6587,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="5:12">
+    <row r="19" customFormat="1" ht="409.5" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
@@ -6534,18 +6611,21 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="5:12">
+    <row r="20" customFormat="1" ht="409.5" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -6558,15 +6638,38 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:7">
-      <c r="E21" s="6"/>
-      <c r="G21" s="6"/>
+    <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:12">
+      <c r="E21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="str">
+        <f>流水线步骤分类!E10</f>
+        <v>devops_ci_template_step_category-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="1" spans="5:7">
       <c r="E22" s="6"/>
@@ -6578,7 +6681,7 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -6587,7 +6690,7 @@
         <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -6595,7 +6698,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6611,7 +6714,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6627,7 +6730,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6643,7 +6746,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6659,7 +6762,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6675,7 +6778,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E8</f>
@@ -6691,7 +6794,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E9</f>
@@ -6707,7 +6810,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E11</f>
@@ -6723,7 +6826,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E11</f>
@@ -6739,7 +6842,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E8</f>
@@ -6755,7 +6858,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E9</f>
@@ -6771,7 +6874,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E12</f>
@@ -6787,7 +6890,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E12</f>
@@ -6803,7 +6906,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E12</f>
@@ -6819,7 +6922,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E8</f>
@@ -6835,7 +6938,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E9</f>
@@ -6851,7 +6954,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E13</f>
@@ -6867,7 +6970,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E8</f>
@@ -6883,7 +6986,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E9</f>
@@ -6899,7 +7002,7 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F49" t="str">
         <f>流水线任务模板!E14</f>
@@ -6915,7 +7018,7 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F50" t="str">
         <f>流水线任务模板!E14</f>
@@ -6931,7 +7034,7 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F51" t="str">
         <f>流水线任务模板!E14</f>
@@ -6947,7 +7050,7 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F52" t="str">
         <f>流水线任务模板!E8</f>
@@ -6963,7 +7066,7 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F53" t="str">
         <f>流水线任务模板!E9</f>
@@ -6979,7 +7082,7 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F54" t="str">
         <f>流水线任务模板!E15</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="277">
   <si>
     <r>
       <rPr>
@@ -2170,124 +2170,133 @@
     <t>devops_ci_template_job-1</t>
   </si>
   <si>
+    <t>代码检查（maven）</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-3</t>
+  </si>
+  <si>
+    <t>Java镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-6</t>
+  </si>
+  <si>
+    <t>Maven构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-9</t>
+  </si>
+  <si>
+    <t>Go镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-12</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-15</t>
+  </si>
+  <si>
+    <t>Node.js镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-16</t>
+  </si>
+  <si>
+    <t>Npm构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-17</t>
+  </si>
+  <si>
+    <t>代码检查(非maven)</t>
+  </si>
+  <si>
+    <t>阶段任务关系表</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel</t>
+  </si>
+  <si>
+    <t>#ci_template_stage_id</t>
+  </si>
+  <si>
+    <t>#ci_template_job_id</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-1</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-3</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-4</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-5</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-6</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-7</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-8</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-9</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-10</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-11</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-12</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-13</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-14</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-15</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-16</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-17</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-18</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category-1</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category-2</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step_category-3</t>
+  </si>
+  <si>
     <t>代码检查</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-2</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-3</t>
-  </si>
-  <si>
-    <t>Java镜像构建</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-6</t>
-  </si>
-  <si>
-    <t>Maven构建</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-9</t>
-  </si>
-  <si>
-    <t>Go镜像构建</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-12</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-15</t>
-  </si>
-  <si>
-    <t>Node.js镜像构建</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job-16</t>
-  </si>
-  <si>
-    <t>Npm构建</t>
-  </si>
-  <si>
-    <t>阶段任务关系表</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel</t>
-  </si>
-  <si>
-    <t>#ci_template_stage_id</t>
-  </si>
-  <si>
-    <t>#ci_template_job_id</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-1</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-2</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-3</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-4</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-5</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-6</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-7</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-8</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-9</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-10</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-11</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-12</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-13</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-14</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-15</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-16</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-17</t>
-  </si>
-  <si>
-    <t>devops_ci_template_stage_job_rel-18</t>
-  </si>
-  <si>
-    <t>devops_ci_template_step_category</t>
-  </si>
-  <si>
-    <t>devops_ci_template_step_category-1</t>
-  </si>
-  <si>
-    <t>devops_ci_template_step_category-2</t>
-  </si>
-  <si>
-    <t>devops_ci_template_step_category-3</t>
   </si>
   <si>
     <t>devops_ci_template_step_category-4</t>
@@ -2499,21 +2508,12 @@
     <t>devops_ci_template_job_step_rel-5</t>
   </si>
   <si>
-    <t>devops_ci_template_job_step_rel-6</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job_step_rel-7</t>
-  </si>
-  <si>
     <t>devops_ci_template_job_step_rel-8</t>
   </si>
   <si>
     <t>devops_ci_template_job_step_rel-9</t>
   </si>
   <si>
-    <t>devops_ci_template_job_step_rel-10</t>
-  </si>
-  <si>
     <t>devops_ci_template_job_step_rel-11</t>
   </si>
   <si>
@@ -2526,18 +2526,12 @@
     <t>devops_ci_template_job_step_rel-14</t>
   </si>
   <si>
-    <t>devops_ci_template_job_step_rel-15</t>
-  </si>
-  <si>
     <t>devops_ci_template_job_step_rel-16</t>
   </si>
   <si>
     <t>devops_ci_template_job_step_rel-17</t>
   </si>
   <si>
-    <t>devops_ci_template_job_step_rel-18</t>
-  </si>
-  <si>
     <t>devops_ci_template_job_step_rel-19</t>
   </si>
   <si>
@@ -2550,13 +2544,10 @@
     <t>devops_ci_template_job_step_rel-22</t>
   </si>
   <si>
-    <t>devops_ci_template_job_step_rel-23</t>
-  </si>
-  <si>
-    <t>devops_ci_template_job_step_rel-24</t>
-  </si>
-  <si>
     <t>devops_ci_template_job_step_rel-25</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-26</t>
   </si>
   <si>
     <t>步骤执行参数</t>
@@ -2753,26 +2744,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2784,15 +2767,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2815,6 +2790,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2829,15 +2811,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2845,9 +2820,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2883,15 +2874,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2973,25 +2964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3003,7 +2982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3015,7 +2994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,43 +3018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3081,7 +3036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3093,7 +3084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3105,31 +3102,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3141,19 +3144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3262,11 +3253,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3275,22 +3264,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3327,9 +3301,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3349,164 +3334,170 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3515,9 +3506,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3982,8 +3970,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -3999,79 +3987,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4079,56 +4067,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4138,30 +4126,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4169,7 +4157,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4177,25 +4165,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4220,8 +4208,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4278,79 +4266,82 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="K7" t="s">
         <v>251</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="L7" t="s">
         <v>252</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>253</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>254</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>255</v>
-      </c>
-      <c r="M7" t="s">
-        <v>256</v>
-      </c>
-      <c r="N7" t="s">
-        <v>257</v>
-      </c>
-      <c r="O7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>流水线步骤模板!E21</f>
+        <v>devops_ci_template_step-14</v>
+      </c>
       <c r="G9" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" t="s">
         <v>261</v>
-      </c>
-      <c r="J9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
@@ -4373,52 +4364,52 @@
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" t="s">
         <v>266</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>267</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>268</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>269</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>270</v>
-      </c>
-      <c r="L14" t="s">
-        <v>271</v>
-      </c>
-      <c r="M14" t="s">
-        <v>272</v>
-      </c>
-      <c r="N14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4432,17 +4423,17 @@
     </row>
     <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5155,7 +5146,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5415,7 +5406,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5502,8 +5493,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5663,7 +5654,7 @@
       <c r="E10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -5839,26 +5830,56 @@
         <v>138</v>
       </c>
     </row>
+    <row r="16" spans="5:14">
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="str">
+        <f>流水线模板任务分组!E10</f>
+        <v>devops_ci_template_job_group-3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F19" t="str">
         <f>流水线阶段模板!E8</f>
@@ -5871,7 +5892,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F20" t="str">
         <f>流水线阶段模板!E8</f>
@@ -5884,7 +5905,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F21" t="str">
         <f>流水线阶段模板!E9</f>
@@ -5897,7 +5918,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F22" t="str">
         <f>流水线阶段模板!E10</f>
@@ -5910,7 +5931,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" t="str">
         <f>流水线阶段模板!E10</f>
@@ -5923,7 +5944,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" t="str">
         <f>流水线阶段模板!E11</f>
@@ -5936,20 +5957,20 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" t="str">
         <f>流水线阶段模板!E12</f>
         <v>devops_ci_template_stage-5</v>
       </c>
       <c r="G25" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F26" t="str">
         <f>流水线阶段模板!E12</f>
@@ -5962,7 +5983,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F27" t="str">
         <f>流水线阶段模板!E13</f>
@@ -5975,20 +5996,20 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F28" t="str">
         <f>流水线阶段模板!E14</f>
         <v>devops_ci_template_stage-7</v>
       </c>
       <c r="G28" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F29" t="str">
         <f>流水线阶段模板!E14</f>
@@ -6001,7 +6022,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F30" t="str">
         <f>流水线阶段模板!E15</f>
@@ -6014,20 +6035,20 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F31" t="str">
         <f>流水线阶段模板!E16</f>
         <v>devops_ci_template_stage-9</v>
       </c>
       <c r="G31" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F32" t="str">
         <f>流水线阶段模板!E16</f>
@@ -6040,7 +6061,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F33" t="str">
         <f>流水线阶段模板!E17</f>
@@ -6053,20 +6074,20 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F34" t="str">
         <f>流水线阶段模板!E18</f>
         <v>devops_ci_template_stage-11</v>
       </c>
       <c r="G34" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F35" t="str">
         <f>流水线阶段模板!E18</f>
@@ -6079,7 +6100,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F36" t="str">
         <f>流水线阶段模板!E19</f>
@@ -6152,7 +6173,7 @@
         <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -6166,7 +6187,7 @@
     </row>
     <row r="8" customFormat="1" spans="5:7">
       <c r="E8" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -6177,9 +6198,9 @@
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6188,10 +6209,10 @@
     </row>
     <row r="10" customFormat="1" spans="5:7">
       <c r="E10" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6199,10 +6220,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:7">
       <c r="E11" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6231,10 +6252,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F19" sqref="$A19:$XFD19"/>
+    <sheetView topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6291,7 +6312,7 @@
         <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -6306,13 +6327,13 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
         <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>70</v>
@@ -6324,10 +6345,10 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -6340,7 +6361,7 @@
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -6352,10 +6373,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -6368,7 +6389,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6376,7 +6397,7 @@
     </row>
     <row r="10" customFormat="1" ht="409.5" spans="5:12">
       <c r="E10" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>143</v>
@@ -6392,10 +6413,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6403,10 +6424,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -6419,7 +6440,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -6427,10 +6448,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -6443,7 +6464,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -6451,10 +6472,10 @@
     </row>
     <row r="13" customFormat="1" spans="5:12">
       <c r="E13" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -6467,7 +6488,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -6475,10 +6496,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -6491,7 +6512,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6499,7 +6520,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
@@ -6515,7 +6536,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -6523,10 +6544,10 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -6539,7 +6560,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -6547,10 +6568,10 @@
     </row>
     <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -6563,7 +6584,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6571,10 +6592,10 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -6587,7 +6608,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6595,7 +6616,7 @@
     </row>
     <row r="19" customFormat="1" ht="409.5" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
@@ -6611,10 +6632,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6622,10 +6643,10 @@
     </row>
     <row r="20" customFormat="1" ht="409.5" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -6638,10 +6659,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6649,10 +6670,10 @@
     </row>
     <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:12">
       <c r="E21" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6665,7 +6686,7 @@
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6681,16 +6702,16 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -6698,7 +6719,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6714,7 +6735,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6730,7 +6751,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6746,7 +6767,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6762,7 +6783,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6778,322 +6799,226 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F35" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>流水线任务模板!E11</f>
+        <v>devops_ci_template_job-6</v>
       </c>
       <c r="G35" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
+        <f>E10</f>
+        <v>devops_ci_template_step-3</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F36" t="str">
+        <f>流水线任务模板!E11</f>
+        <v>devops_ci_template_job-6</v>
+      </c>
+      <c r="G36" t="str">
+        <f>E13</f>
+        <v>devops_ci_template_step-6</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" t="str">
         <f>流水线任务模板!E9</f>
         <v>devops_ci_template_job-2</v>
       </c>
-      <c r="G36" t="str">
-        <f>E9</f>
-        <v>devops_ci_template_step-2</v>
-      </c>
-      <c r="H36">
+      <c r="G37" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_step-7</v>
+      </c>
+      <c r="H37">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
-      <c r="E37" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" t="str">
-        <f>流水线任务模板!E11</f>
-        <v>devops_ci_template_job-6</v>
-      </c>
-      <c r="G37" t="str">
-        <f>E10</f>
-        <v>devops_ci_template_step-3</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F38" t="str">
-        <f>流水线任务模板!E11</f>
-        <v>devops_ci_template_job-6</v>
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
       </c>
       <c r="G38" t="str">
-        <f>E13</f>
-        <v>devops_ci_template_step-6</v>
+        <f>E15</f>
+        <v>devops_ci_template_step-8</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F39" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
       </c>
       <c r="G39" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
+        <f>E16</f>
+        <v>devops_ci_template_step-9</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F40" t="str">
+        <f>流水线任务模板!E12</f>
+        <v>devops_ci_template_job-9</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" t="str">
         <f>流水线任务模板!E9</f>
         <v>devops_ci_template_job-2</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G41" t="str">
         <f>E14</f>
         <v>devops_ci_template_step-7</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
-      <c r="E41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" t="str">
-        <f>流水线任务模板!E12</f>
-        <v>devops_ci_template_job-9</v>
-      </c>
-      <c r="G41" t="str">
+    <row r="42" spans="5:8">
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="str">
+        <f>流水线任务模板!E13</f>
+        <v>devops_ci_template_job-12</v>
+      </c>
+      <c r="G42" t="str">
         <f>E15</f>
         <v>devops_ci_template_step-8</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
-      <c r="E42" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" t="str">
-        <f>流水线任务模板!E12</f>
-        <v>devops_ci_template_job-9</v>
-      </c>
-      <c r="G42" t="str">
+    <row r="43" spans="5:8">
+      <c r="E43" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" t="str">
+        <f>流水线任务模板!E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+      <c r="G43" t="str">
+        <f>E17</f>
+        <v>devops_ci_template_step-10</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G44" t="str">
+        <f>E18</f>
+        <v>devops_ci_template_step-11</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G45" t="str">
         <f>E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
-      <c r="E43" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" t="str">
-        <f>流水线任务模板!E12</f>
-        <v>devops_ci_template_job-9</v>
-      </c>
-      <c r="G43" t="str">
+    <row r="46" spans="5:8">
+      <c r="E46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" t="str">
+        <f>流水线任务模板!E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+      <c r="G46" t="str">
         <f>E12</f>
         <v>devops_ci_template_step-5</v>
       </c>
-      <c r="H43">
+      <c r="H46">
         <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8">
-      <c r="E44" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G44" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8">
-      <c r="E45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G45" t="str">
-        <f>E14</f>
-        <v>devops_ci_template_step-7</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8">
-      <c r="E46" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" t="str">
-        <f>流水线任务模板!E13</f>
-        <v>devops_ci_template_job-12</v>
-      </c>
-      <c r="G46" t="str">
-        <f>E15</f>
-        <v>devops_ci_template_step-8</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F47" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
+        <f>流水线任务模板!E15</f>
+        <v>devops_ci_template_job-16</v>
       </c>
       <c r="G47" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
+        <f>E19</f>
+        <v>devops_ci_template_step-12</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F48" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
+        <f>流水线任务模板!E16</f>
+        <v>devops_ci_template_job-17</v>
       </c>
       <c r="G48" t="str">
-        <f>E17</f>
-        <v>devops_ci_template_step-10</v>
+        <f>E21</f>
+        <v>devops_ci_template_step-14</v>
       </c>
       <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" t="str">
-        <f>流水线任务模板!E14</f>
-        <v>devops_ci_template_job-15</v>
-      </c>
-      <c r="G49" t="str">
-        <f>E18</f>
-        <v>devops_ci_template_step-11</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
-        <v>243</v>
-      </c>
-      <c r="F50" t="str">
-        <f>流水线任务模板!E14</f>
-        <v>devops_ci_template_job-15</v>
-      </c>
-      <c r="G50" t="str">
-        <f>E16</f>
-        <v>devops_ci_template_step-9</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8">
-      <c r="E51" t="s">
-        <v>244</v>
-      </c>
-      <c r="F51" t="str">
-        <f>流水线任务模板!E14</f>
-        <v>devops_ci_template_job-15</v>
-      </c>
-      <c r="G51" t="str">
-        <f>E12</f>
-        <v>devops_ci_template_step-5</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8">
-      <c r="E52" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" t="str">
-        <f>流水线任务模板!E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-      <c r="G52" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_step-1</v>
-      </c>
-      <c r="H52">
         <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8">
-      <c r="E53" t="s">
-        <v>246</v>
-      </c>
-      <c r="F53" t="str">
-        <f>流水线任务模板!E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-      <c r="G53" t="str">
-        <f>E17</f>
-        <v>devops_ci_template_step-10</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8">
-      <c r="E54" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54" t="str">
-        <f>流水线任务模板!E15</f>
-        <v>devops_ci_template_job-16</v>
-      </c>
-      <c r="G54" t="str">
-        <f>E19</f>
-        <v>devops_ci_template_step-12</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="278">
   <si>
     <r>
       <rPr>
@@ -2412,6 +2412,13 @@
     <t>upload_jar</t>
   </si>
   <si>
+    <t># 此命令用于将之前构建的jar包发布至制品库, 并不会重新进行构建, 所以请确保使用此命令时, 此前打包的jar的结构是符合预期的
+# -Dfile参数指定了之前打包出的jar包的路径
+# -DpomFile指定此次发布的jar包使用的pom文件
+# 以下的两个变量 ${CHOERODON_MAVEN_REPOSITORY_ID} ${CHOERODON_MAVEN_REPO_URL} 会在选择制品库后替换为相应的值, 如果没有特别需求, 不建议更改
+mvn deploy:deploy-file -Dfile=target/app.jar -DpomFile=pom.xml -Durl=${CHOERODON_MAVEN_REPO_URL} -DrepositoryId=${CHOERODON_MAVEN_REPOSITORY_ID} -DrepositoryLayout=default -s settings.xml</t>
+  </si>
+  <si>
     <t>devops_ci_template_step-7</t>
   </si>
   <si>
@@ -2651,8 +2658,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2738,6 +2745,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2745,7 +2759,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2759,28 +2803,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2790,29 +2812,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2826,9 +2826,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2843,41 +2881,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2964,19 +2971,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2988,103 +3025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3102,7 +3043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3114,7 +3055,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3126,25 +3103,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3254,8 +3261,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3263,23 +3270,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3319,6 +3311,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3351,153 +3358,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3506,6 +3513,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3970,8 +3980,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -3987,79 +3997,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4067,56 +4077,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4126,30 +4136,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4157,7 +4167,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4165,25 +4175,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4208,7 +4218,7 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4266,82 +4276,82 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>流水线步骤模板!E21</f>
         <v>devops_ci_template_step-14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
@@ -4364,52 +4374,52 @@
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4423,17 +4433,17 @@
     </row>
     <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5146,7 +5156,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5406,7 +5416,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5654,7 +5664,7 @@
       <c r="E10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6200,7 +6210,7 @@
       <c r="E9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6254,8 +6264,8 @@
   <sheetPr/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I13:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6470,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="5:12">
+    <row r="13" customFormat="1" ht="409.5" spans="5:12">
       <c r="E13" s="6" t="s">
         <v>200</v>
       </c>
@@ -6490,16 +6500,19 @@
       <c r="J13" t="s">
         <v>202</v>
       </c>
+      <c r="K13" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -6512,7 +6525,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6520,7 +6533,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
@@ -6536,7 +6549,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -6544,7 +6557,7 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
         <v>195</v>
@@ -6568,10 +6581,10 @@
     </row>
     <row r="17" customFormat="1" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -6584,7 +6597,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6592,10 +6605,10 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -6608,7 +6621,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6616,7 +6629,7 @@
     </row>
     <row r="19" customFormat="1" ht="409.5" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
@@ -6632,10 +6645,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6643,10 +6656,10 @@
     </row>
     <row r="20" customFormat="1" ht="409.5" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -6659,10 +6672,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6670,10 +6683,10 @@
     </row>
     <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:12">
       <c r="E21" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6702,7 +6715,7 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -6711,7 +6724,7 @@
         <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -6719,7 +6732,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6735,7 +6748,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6751,7 +6764,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6767,7 +6780,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6783,7 +6796,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6799,7 +6812,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E11</f>
@@ -6815,7 +6828,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E11</f>
@@ -6831,7 +6844,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E9</f>
@@ -6847,7 +6860,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E12</f>
@@ -6863,7 +6876,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E12</f>
@@ -6879,7 +6892,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E12</f>
@@ -6895,7 +6908,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E9</f>
@@ -6911,7 +6924,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E13</f>
@@ -6927,7 +6940,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E9</f>
@@ -6943,7 +6956,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E14</f>
@@ -6959,7 +6972,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E14</f>
@@ -6975,7 +6988,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E14</f>
@@ -6991,7 +7004,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E15</f>
@@ -7007,7 +7020,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E16</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2122,7 +2122,7 @@
     <t>devops_ci_template_job_group-3</t>
   </si>
   <si>
-    <t>code-scann</t>
+    <t>code-scan</t>
   </si>
   <si>
     <t>devops_ci_template_job_group-4</t>
@@ -2658,9 +2658,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2745,7 +2745,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2758,8 +2779,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2774,24 +2819,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2803,70 +2841,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2882,6 +2859,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2889,7 +2889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2971,7 +2971,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2983,175 +3145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,11 +3258,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3270,8 +3276,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3293,35 +3314,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3341,170 +3347,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3513,9 +3513,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3978,155 +3975,155 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="23" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="32" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="26" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4136,38 +4133,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="38" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="38" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="38" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4175,25 +4172,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4222,18 +4219,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="25.8333333333333" customWidth="1"/>
+    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="25.837037037037" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
-    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
-    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4470,15 +4467,15 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4634,20 +4631,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
-    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
-    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
-    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
+    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4936,15 +4933,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5071,15 +5068,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5156,7 +5153,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5328,19 +5325,19 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5416,7 +5413,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5507,20 +5504,20 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
-    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
+    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5664,7 +5661,7 @@
       <c r="E10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6136,14 +6133,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6210,7 +6207,7 @@
       <c r="E9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6264,22 +6261,22 @@
   <sheetPr/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="I19" sqref="I13:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
-    <col min="9" max="9" width="39.75" customWidth="1"/>
-    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6500,7 +6497,7 @@
       <c r="J13" t="s">
         <v>202</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>203</v>
       </c>
       <c r="L13">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2617,7 +2617,7 @@
     <t>docker_context_dir</t>
   </si>
   <si>
-    <t>skip_docker_tls_verify</t>
+    <t>enable_docker_tls_verify</t>
   </si>
   <si>
     <t>image_scan</t>
@@ -2658,9 +2658,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2745,14 +2745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,45 +2759,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2819,7 +2774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2833,6 +2788,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2841,9 +2825,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2858,8 +2857,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2875,21 +2889,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2971,7 +2971,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2983,19 +3085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3007,25 +3103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3037,19 +3115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3067,43 +3139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3115,43 +3151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3259,30 +3259,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3298,15 +3274,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3332,17 +3323,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3355,151 +3340,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3975,21 +3975,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4004,7 +4004,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4018,7 +4018,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
@@ -4215,22 +4215,22 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="25.837037037037" customWidth="1"/>
+    <col min="5" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="25.8402777777778" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
+    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
+    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4467,15 +4467,15 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4631,20 +4631,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
-    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
+    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
+    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4933,15 +4933,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
+    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5068,15 +5068,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5325,19 +5325,19 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5504,20 +5504,20 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
-    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
+    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6133,14 +6133,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6265,18 +6265,18 @@
       <selection activeCell="I19" sqref="I13:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
-    <col min="9" max="9" width="39.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="815" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="815" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2338,51 +2338,13 @@
     <t>maven_build</t>
   </si>
   <si>
-    <t xml:space="preserve">
-# 功能： 更新pom文件中指定的项目的版本号
-# 说明： 此函数是猪齿鱼内置的shell函数，用于更新pom文件的版本号为对应commit的版本号,
-#        (这个值在猪齿鱼内置变量 CI_COMMIT_TAG 中)
-#        如果配置了依赖库，这里应该加上参数true，即：update_pom_version true
-# update_pom_version
-# 功能： 以jacoco为代理进行单元测试，可以分析单元测试覆盖率
-# 参数说明：
-#  -Dmaven.test.skip=false：不跳过单元测试
-#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
-#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
-#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
-#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
-#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
-#       -gs 指定系统级别的settings.xml
-# 更多帮助信息请执行此命令进行查看：mvn org.jacoco:jacoco-maven-plugin:help
-# mvn clean org.jacoco:jacoco-maven-plugin:prepare-agent test -Dmaven.test.failure.ignore=true -DskipTests=false -U -e -X -B
-# 功能： springboot项目打包
-# repackage可以将已经存在的jar和war格式的文件重新打包
-# 打出的jar包将可以在命令行使用java -jar命令执行。
-# 更多帮助信息请执行此命令进行查看：mvn spring-boot:help
-#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
-#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
-#       -gs 指定系统级别的settings.xml
-# mvn package spring-boot:repackage
-# 功能：  打包
-# 参数说明：
-#  -Dmaven.test.skip=true：跳过单元测试，不建议
-#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
-#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
-#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
-#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
-#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
-#       -gs 指定系统级别的settings.xml
-# 使用场景： 打包项目且不需要执行单元测试时使用
-# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=package
-mvn package -Dmaven.test.skip=true -U -e -X -B
-# 功能：打包并发布依赖包到私有依赖库
-# 使用场景： 需要将当前项目构建结果发布到私有依赖仓库以供其他maven项目引用时使用
-# 使用参数：settings.xml由用户在猪齿鱼CI流水线界面上填写信息生成存放在服务器，CI过程自动从远程服务器拉取到本地项目根目录，
-#           文件名为 settings.xml，使用-s参数指定为用户settings （Alternate path for the user settings file）
-#           使用-s指定settings.xml后，maven不会再读取$HOME/.m2/settings.xml内容。
-#           也可以使用-gs指定为全局 settings.xml 文件
-#           此处的用户认证信息id就是在配置仓库时的仓库名称
-# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=deploy</t>
+    <t># 功能： 执行单元测试并上传测试报告
+# 执行单元测试
+mvn clean test -Dmaven.test.failure.ignore=true -DskipTests=false -U
+# 生成测试报告
+mvn surefire-report:report-only
+# 上传测试报告
+uploadMavenUnitTestReport</t>
   </si>
   <si>
     <t>devops_ci_template_step-4</t>
@@ -2658,8 +2620,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2745,6 +2707,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2758,8 +2734,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2774,67 +2789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2849,10 +2804,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2864,18 +2827,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2887,9 +2843,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2971,13 +2933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2989,13 +2957,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3007,31 +3005,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,49 +3041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,7 +3059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3115,7 +3071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3127,31 +3095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3259,16 +3221,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3288,6 +3250,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3303,11 +3274,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3335,171 +3312,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3975,21 +3937,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4004,7 +3966,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4018,7 +3980,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
@@ -4039,7 +4001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
@@ -4059,7 +4021,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
@@ -4073,7 +4035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
@@ -4084,7 +4046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -4116,7 +4078,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
@@ -4139,7 +4101,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
@@ -4147,7 +4109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
@@ -4155,7 +4117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
@@ -4163,7 +4125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
@@ -4189,7 +4151,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
@@ -4215,22 +4177,22 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="25.8402777777778" customWidth="1"/>
+    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="25.837037037037" customWidth="1"/>
     <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5069444444444" customWidth="1"/>
-    <col min="10" max="10" width="13.8263888888889" customWidth="1"/>
-    <col min="11" max="11" width="14.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
@@ -4467,15 +4429,15 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5069444444444" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4631,20 +4593,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1736111111111" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
-    <col min="9" max="9" width="32.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="34.1736111111111" customWidth="1"/>
-    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
-    <col min="12" max="12" width="16.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
+    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4933,15 +4895,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1597222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9166666666667" customWidth="1"/>
-    <col min="7" max="8" width="17.5069444444444" customWidth="1"/>
+    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5068,15 +5030,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5329,15 +5291,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5504,20 +5466,20 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="29.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.8263888888889" customWidth="1"/>
-    <col min="10" max="10" width="17.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1736111111111" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
+    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6133,14 +6095,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6261,22 +6223,23 @@
   <sheetPr/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I19" sqref="I13:I19"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5069444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.1597222222222" customWidth="1"/>
-    <col min="3" max="3" width="28.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="27.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8402777777778" customWidth="1"/>
-    <col min="9" max="9" width="39.75" customWidth="1"/>
-    <col min="10" max="10" width="16.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
+    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
+    <col min="11" max="11" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6402,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="409.5" spans="5:12">
+    <row r="10" customFormat="1" ht="172.5" spans="5:12">
       <c r="E10" s="6" t="s">
         <v>191</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="279">
   <si>
     <r>
       <rPr>
@@ -2406,6 +2406,14 @@
   </si>
   <si>
     <t>node_js_unit_test</t>
+  </si>
+  <si>
+    <t># 安装依赖
+npm install
+# 执行单元测试
+npm test
+# 上传测试报告 (目前仅支持解析mochawesome格式测试报告，且测试报告需要输出到目录mochawesome-report/)
+uploadNodeJsUnitTestReport</t>
   </si>
   <si>
     <t>devops_ci_template_step-11</t>
@@ -2620,8 +2628,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2707,6 +2715,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2721,14 +2743,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2743,61 +2804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2837,21 +2844,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2933,19 +2941,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2957,19 +2977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,19 +2989,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3011,7 +3013,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3023,19 +3067,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,73 +3115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,21 +3229,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3246,30 +3239,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3289,13 +3258,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3317,55 +3290,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3374,99 +3382,99 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3475,6 +3483,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3681,7 +3692,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3939,8 +3950,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -3956,79 +3967,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4036,56 +4047,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4095,30 +4106,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4126,7 +4137,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4134,25 +4145,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4235,82 +4246,82 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>流水线步骤模板!E21</f>
         <v>devops_ci_template_step-14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
@@ -4333,52 +4344,52 @@
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4392,17 +4403,17 @@
     </row>
     <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5115,7 +5126,7 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -5375,7 +5386,7 @@
       <c r="E9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
@@ -5623,7 +5634,7 @@
       <c r="E10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -6169,7 +6180,7 @@
       <c r="E9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G9">
@@ -6223,8 +6234,8 @@
   <sheetPr/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6539,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="5:12">
+    <row r="17" customFormat="1" ht="155.25" spans="5:12">
       <c r="E17" s="6" t="s">
         <v>210</v>
       </c>
@@ -6559,16 +6570,19 @@
       <c r="J17" t="s">
         <v>212</v>
       </c>
+      <c r="K17" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="L17">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -6581,15 +6595,15 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="409.5" spans="5:12">
+    <row r="19" customFormat="1" ht="345" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
@@ -6605,21 +6619,21 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="409.5" spans="5:12">
+    <row r="20" customFormat="1" ht="241.5" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -6632,10 +6646,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6643,10 +6657,10 @@
     </row>
     <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:12">
       <c r="E21" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6675,7 +6689,7 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -6684,7 +6698,7 @@
         <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -6692,7 +6706,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6708,7 +6722,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6724,7 +6738,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6740,7 +6754,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6756,7 +6770,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6772,7 +6786,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E11</f>
@@ -6788,7 +6802,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E11</f>
@@ -6804,7 +6818,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E9</f>
@@ -6820,7 +6834,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E12</f>
@@ -6836,7 +6850,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E12</f>
@@ -6852,7 +6866,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E12</f>
@@ -6868,7 +6882,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E9</f>
@@ -6884,7 +6898,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E13</f>
@@ -6900,7 +6914,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E9</f>
@@ -6916,7 +6930,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E14</f>
@@ -6932,7 +6946,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E14</f>
@@ -6948,7 +6962,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E14</f>
@@ -6964,7 +6978,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E15</f>
@@ -6980,7 +6994,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E16</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="815" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="22365" windowHeight="9300" tabRatio="815" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="280">
   <si>
     <r>
       <rPr>
@@ -2330,12 +2330,6 @@
   </si>
   <si>
     <t>maven_unit_test</t>
-  </si>
-  <si>
-    <t>devops_ci_template_step-3</t>
-  </si>
-  <si>
-    <t>maven_build</t>
   </si>
   <si>
     <t># 功能： 执行单元测试并上传测试报告
@@ -2345,6 +2339,62 @@
 mvn surefire-report:report-only
 # 上传测试报告
 uploadMavenUnitTestReport</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-3</t>
+  </si>
+  <si>
+    <t>maven_build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# 功能： 更新pom文件中指定的项目的版本号
+# 说明： 此函数是猪齿鱼内置的shell函数，用于更新pom文件的版本号为对应commit的版本号,
+#        (这个值在猪齿鱼内置变量 CI_COMMIT_TAG 中)
+#        如果配置了依赖库，这里应该加上参数true，即：update_pom_version true
+# update_pom_version
+# 功能： 以jacoco为代理进行单元测试，可以分析单元测试覆盖率
+# 参数说明：
+#  -Dmaven.test.skip=false：不跳过单元测试
+#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
+#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
+#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
+#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
+#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
+#       -gs 指定系统级别的settings.xml
+# 更多帮助信息请执行此命令进行查看：mvn org.jacoco:jacoco-maven-plugin:help
+# mvn clean org.jacoco:jacoco-maven-plugin:prepare-agent test -Dmaven.test.failure.ignore=true -DskipTests=false -U -e -X -B
+# 功能： springboot项目打包
+# repackage可以将已经存在的jar和war格式的文件重新打包
+# 打出的jar包将可以在命令行使用java -jar命令执行。
+# 更多帮助信息请执行此命令进行查看：mvn spring-boot:help
+#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
+#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
+#       -gs 指定系统级别的settings.xml
+# mvn package spring-boot:repackage
+# 功能：  打包
+# 参数说明：
+#  -Dmaven.test.skip=true：跳过单元测试，不建议
+#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
+#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
+#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
+#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
+#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
+#       -gs 指定系统级别的settings.xml
+# 使用场景： 打包项目且不需要执行单元测试时使用
+# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=package
+mvn package -Dmaven.test.skip=true -U -e -X -B
+# 功能：打包并发布依赖包到私有依赖库
+# 使用场景： 需要将当前项目构建结果发布到私有依赖仓库以供其他maven项目引用时使用
+# 使用参数：settings.xml由用户在猪齿鱼CI流水线界面上填写信息生成存放在服务器，CI过程自动从远程服务器拉取到本地项目根目录，
+#           文件名为 settings.xml，使用-s参数指定为用户settings （Alternate path for the user settings file）
+#           使用-s指定settings.xml后，maven不会再读取$HOME/.m2/settings.xml内容。
+#           也可以使用-gs指定为全局 settings.xml 文件
+#           此处的用户认证信息id就是在配置仓库时的仓库名称
+# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=deploy
+# 注意：如果发布软件包失败请检查在此之前是否有执行 update_pom_version 函数，此函数会更改pom.xml指定的version值，
+#       如果有执行，建议执行前将pom文件保存一份，到此处再将原始pom.xml恢复
+#mvn deploy -Dmaven.test.skip=true -U -e -X -B -s settings.xml -DaltDeploymentRepository=用户认证信息id::default::仓库url</t>
   </si>
   <si>
     <t>devops_ci_template_step-4</t>
@@ -2628,8 +2678,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2714,8 +2764,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2729,43 +2824,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2773,9 +2832,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2787,17 +2862,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2818,22 +2885,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2842,9 +2893,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2852,7 +2902,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2941,37 +2991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2995,43 +3021,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,7 +3045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3061,13 +3075,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,19 +3135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,25 +3159,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3228,6 +3278,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3243,17 +3304,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3282,37 +3343,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3328,148 +3378,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4246,82 +4296,82 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
       <c r="E8" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
       <c r="E9" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>流水线步骤模板!E21</f>
         <v>devops_ci_template_step-14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
@@ -4344,52 +4394,52 @@
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4403,17 +4453,17 @@
     </row>
     <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -6234,8 +6284,8 @@
   <sheetPr/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6348,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:12">
+    <row r="9" customFormat="1" ht="172.5" spans="1:12">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6372,13 +6422,16 @@
       <c r="J9" t="s">
         <v>190</v>
       </c>
+      <c r="K9" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="L9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="172.5" spans="5:12">
+    <row r="10" customFormat="1" ht="409.5" spans="5:12">
       <c r="E10" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
         <v>143</v>
@@ -6394,10 +6447,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="8" t="s">
         <v>193</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6405,10 +6458,10 @@
     </row>
     <row r="11" customFormat="1" spans="5:12">
       <c r="E11" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -6421,7 +6474,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -6429,10 +6482,10 @@
     </row>
     <row r="12" customFormat="1" spans="5:12">
       <c r="E12" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -6445,7 +6498,7 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -6453,10 +6506,10 @@
     </row>
     <row r="13" customFormat="1" ht="409.5" spans="5:12">
       <c r="E13" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -6469,10 +6522,10 @@
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -6480,10 +6533,10 @@
     </row>
     <row r="14" customFormat="1" spans="5:12">
       <c r="E14" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -6496,7 +6549,7 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6504,7 +6557,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:12">
       <c r="E15" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
@@ -6520,7 +6573,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -6528,10 +6581,10 @@
     </row>
     <row r="16" customFormat="1" spans="5:12">
       <c r="E16" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -6544,7 +6597,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -6552,10 +6605,10 @@
     </row>
     <row r="17" customFormat="1" ht="155.25" spans="5:12">
       <c r="E17" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -6568,10 +6621,10 @@
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
-      </c>
-      <c r="K17" s="9" t="s">
         <v>213</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6579,10 +6632,10 @@
     </row>
     <row r="18" customFormat="1" spans="5:12">
       <c r="E18" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -6595,7 +6648,7 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6603,7 +6656,7 @@
     </row>
     <row r="19" customFormat="1" ht="345" spans="5:12">
       <c r="E19" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
@@ -6619,10 +6672,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6630,10 +6683,10 @@
     </row>
     <row r="20" customFormat="1" ht="241.5" spans="5:12">
       <c r="E20" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -6646,10 +6699,10 @@
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6657,10 +6710,10 @@
     </row>
     <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:12">
       <c r="E21" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6689,7 +6742,7 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -6698,7 +6751,7 @@
         <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -6706,7 +6759,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6722,7 +6775,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6738,7 +6791,7 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6754,7 +6807,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6770,7 +6823,7 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6786,7 +6839,7 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E11</f>
@@ -6802,7 +6855,7 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E11</f>
@@ -6818,7 +6871,7 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E9</f>
@@ -6834,7 +6887,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E12</f>
@@ -6850,7 +6903,7 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E12</f>
@@ -6866,7 +6919,7 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E12</f>
@@ -6882,7 +6935,7 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E9</f>
@@ -6898,7 +6951,7 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E13</f>
@@ -6914,7 +6967,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E9</f>
@@ -6930,7 +6983,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E14</f>
@@ -6946,7 +6999,7 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E14</f>
@@ -6962,7 +7015,7 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E14</f>
@@ -6978,7 +7031,7 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E15</f>
@@ -6994,7 +7047,7 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E16</f>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9300" tabRatio="815" firstSheet="2" activeTab="8"/>
+    <workbookView windowHeight="19420" tabRatio="815" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <r>
       <rPr>
@@ -1940,6 +1940,33 @@
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAADg0lEQVRIS9WXXUxbZRjHf/2kY9R+rHDYsYtlmNnhEkeYM5oZEwwYwQsgi4EbY7hQo0XrzdiNJoYbSMArEjAYcImQeAWBzvCVmBBQop2BZYkLOBNphyldHWUrnHbl1JyzQIYZO5U5ps/NSd6P5/k9z/95z3mPLiGlXycjfwEcYX8thE7/ri6xkVp6DMG3Ug0pAJn9TXxntB0AN24m2Eil1RVmk4H0powsZ7CYjUipNEaDXp1TxvdqB8xGXI6D29t3AIQi8e2Jp91OVm9LJFNpxPwn+O36nwjOPHU+vLK21/jqviOCTRvgUVXggQC5FtNDZZbt5nXpzv0r8L8HCAaDCIKA2+1Gp9PtWpBHVoHe3l4GBgYYHBzEarXuP0BfXx+dnZ1MTEzgdDr3DiDLMsvLy8zMzFBZWYndbldLupnZ5PfYr6xLG3gPn8BoMKpBJElienqa2dlZNXsFwOFwEI1G1fHy8nJsNtu2LJoS9PT00N/fz9raGqIo4vf7eeHMaYYWv+RK6DK3YzLPFJyg4cW3WQlFaW9vZ35+Hr1erwYZGxtjcnISxU8sFlN7orGxkZqaGhVYE6C0tJTi4mJ1U1tbG16vlw8//YDPf2rmkCmf9VUdq/FbvPXyOwRHfmZoaAifz8fU1BRzc3OMj49TX1/PgdxcXnnjDCNfX8RT5EGRKCuAsrIyqqqqaGlpoa6ujsLCQnyfvEfzoJ9jbpHULQPhG1Hef/VjgiNBAoEAXV1davmHh4dVCRoaGigQ8nnTdxaBJzl58jnMZnN2AIpmTU1N1NbWquUNh8Oc/+wczd+cR2dKYM3JIynp8L92jsXgIh0dHSSTSZTeKSkpobu7m9bWVkZHR3G58vH7P6KiomK7KTUliEQi6nneMqWZXC4X0h2J0cvfYjTKlD31EkuxJey5DkySiQtfXUCRrrq6Ws00k8lwKXiJwMWAKoci45ZpAmi9Uq9e/4X4RhyveJyVeITwzTCnjj6P1bL72b/X50MD/Lj4A+IhN98vTJNnyUO0idgPOvEUFGmxZ9cDWl4UAMFxmCuheUx6M2ZjDh6hCI9rnwAW/rjKtcg1StzPkkgmWFmNcKr4tFqNbGxXCSw5RvQP+Ijc61zp+KmF7xCshRwTj2PQ3b0taZmcySAl7966FNtxI1KCm82GrCG0gv19XgmeSm2iPO8L8E8d/hvr/wPX8sf8Y/IXbgDVzErLKXgAAAAASUVORK5CYII=</t>
   </si>
   <si>
+    <t>devops_ci_template_category-4</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAAAAXNSR0IArs4c6QAAAz1JREFUSEvNl0tsFVUcxn/n3tv76IPSVrxQoIJFoRJwgywJLlwQdoiQkhhgJXFhWBklrjQhJiQElI0rCQE0MYQFoAtDECVgWGKDMRDScGloi6WlvdOZe57mzBTSSqGPS4GTTGYyZ875fv/vm8cZEUR6E85+Byzl+bYSIvWRCEJ5+wWIPyy15AHc8y18otoEgH8HA0Kp4yuyNWm0sVjryGczRFKTSafiPn9+tq2QzfBKU92j4RMASn0PHnWsWNLMUDmiIjWtC+Zxq+c+xeb6uP9O//Bs9eNxS4uNUwPMlQNPBajN11RV2XQHj0ZqcgemA+Bw3B0M+as0xL3hCGc1TbVZ1rUvYOG4bJ8GUxXAzd4Rvj5znfmFNFdv9GK0RitFLgNHP3mP1xfOn9KIqgDOd/Vy6Z8+3izW8e0vXWANRqsY4tMt69i+oWPuAIy1sfWn/uzGWo0zlt+6bqOkRErFZ++vp3NjBw4RQwiR7P/fZuyAz/rAub/p7h/BGh3nrrWOj/vul9FKxhCfb13Fjrd/xpGGxt2I7IpnA/Dl6S5+v94bV53YrTFGYcfyN1pitGXftpXsWH0cbITLLIfiV2NeTOSYkQPe9s4jlxh4EKK9uFYolWSeAFSwxlKXz/Hj3mbacydxpgIuBW0nEKlCdRGMhIrthy8yGkVx5WksuzYuoqM1BGdx1n9KDMubBimKswg9jLMRwrvw2ilEzavVAXgHPjh4nv6hACUVeze30bn6JzABOANOgolwxovKxH4bIpyD9l8h3VAdgB+97+RVLlwrobTk+z0trGk4nYjbCpgwFvfCfhNmFGyAq30H0XaMyW6CGd0D8cdnoMwXJy7TN1jm0If1rCz8AFYmwqlGsAphKzhTRpgAl6qBxd8gCm89m6fg4SzWOUR4BQYOJdX7Lbc2AXAhrnEbouFdkgWG4AmvAWbswPgyXPAH9O9HODWW/Qi07AHVg8i9AS075+5N6Gd2egB6PkZUbo5lH0B+DaQaoHU/Irds9gD5XIbUk3wbP60dxZUvQ3QN4R/F/Cqo34BIz5tS3McYVZJVVxzU+DWhF89m09ODmFLq8Qu8uJQGv58UYBZzVj3kJViWv+Afk/8ARKIu25BMEWkAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>devops_ci_template_category-5</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAAAAXNSR0IArs4c6QAABAhJREFUSEvtl1tMXFUUhr85MzADzMBwGe5TakdAKmqrpEpJ2mhLoe2DqVQxpDW2VZuoL7VJY+qDiSYmJsY0rT6UpEJijNrw0AdQii2l1dR6iZJS0RocAjNELoMwM8z9zNnmHARDwmVabeuD++Uke6991v+vtf//7KMLhOXtCOUkYOf2Dhc66aAuEIoO34Hkc1RdKgBxe4kvzLYAgGcqQCgqaxHJSXrkuIKiCEzJBsJRGYNe0tbU+ZsdKckGcjLT5rcvAOAa884v3F2cxfRMmEhUptCWjnPkD/KyzNq6e9x3s/m1ffa8jJUB3KoKLAsg1ZT0j5glujkYji1egf8BLF8BQTAUw+eP4POGCQSjRCJxZFkGAUajRLrFSI7NTFamGZ1Ot2RHbqgFqgqcg5Nc+2kMt9uL1xsiJitIkg5rhoGZQJxQUEboQChxVKVaLAYq1+axaVM51oy/JTeHKCEAQggGnJOcOz/AsHsKoehQSam+IIRCpjXOsXee4/CRU0xOGbQ5SZI05qqzRcIRUKLU15VTu7VSW0sYgJr88teDnD03QDgcw2KOcLX3M+RYDKMplbJ7aohF/Rx79xV27HgSo8nC2ns34/H8yvDQb6j78/NLKCh6BM9kiKr1uezdUzPflhUr4Byc4IPW74nJQmMcDvxIR3sLTzcd4pf+b7hypZuGhkZ6errZvnMf57/4CLu9kP7+fqqra8mxreb0pyeorXuK3Pwt+P0z7Nv7EFVVa7QirAigvaOPS5ddqMdIr9fzc9+HhCMBHlh/EBEfoLXlTSoqKigoLMNRupuL3W/jcNhpa2vj1aMtyIqVjjOvUV6xgaJVO7X2lDrMPH9gc2IAPu+8xoVLQ1rJTCYDne2vk5aWzl2OdVy8cIZt2+rp6upg1xMvYc2+j5Pv76ehoYHm5mae3X+IEdcg337Xw4svn8DnN2pVvL8yk2f21CQGYHTMy/H3viSuSGRnJ/PWG7upq9+FJd1Gbu4acmylOAe6KV5Vg6JI/D7yFULM0HW2k0cfexxDUgqFRQ/i8xu0hH6/jyOHt7C6xJYYADXqap+Lj0/3Yk4L0XrqKAdeOI5nUmhKmFUDzB1sHRJDzk9ISbWSk1eHagyzPiAIBmZoalzHxo3liatgLnJ0dJrOrn5cbi+BoCq/pd3eYjYgxwWhUJx4XCEYDGIvTqOpcQMlfzFPWIYL0giBe2SKH3qHuX59gglPQFOHeiXQodMkpyiKdtBA9Qcj5WU2qh924HDkLeqIK6pgaZ6CYDDK+LiPaW9Q8wj1gCUlSVgzUikosGI2m1ChLTeWBGAyGpCW8fBEP7fLxSlCEI7M3rrUseBGpCZPTtbfMhBq8mg0jvpcFMC/wfBG3/EfuJbf4R+TPwG4KDTbsFTYSAAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>devops_ci_template_category-6</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAaCAYAAADWm14/AAAAAXNSR0IArs4c6QAAA8ZJREFUSEvNl39o1GUcx1/f+7XbTXed3bbmNt00cu5Htgmm0FpOVxREoiMixBVBmX8ERRAG1Z8RwYQWhFGxHBFSMDFdNlc4KzS32tz8MabN3HbD1XI7r/v9/RHPc2ztp9fdkfb8ddzneZ7P6/Pj/TzPV/GH1Ecx9P1AAbd2DKOYXlD8wcjQbXA+FeqwADBubeCzvc0CGJ/wE4yocobNakbVdHTdwG6zEIqoWMwmaRP/JzvSbRbcrozp5bMAhse804a785cx+VeIcERleVYmg57r5CxbIu0jv99I1r9cV5DjjA/wX2XgpgAOuzWlyP7t4kAounAG4gMYjF6Z4LuDffR0XGV85AYoCnetcLK+dhWbnyzDnZsZlyMpADWq0drUTUvjT0QjGoqizHJkGAb2DCs791bx4PZSTKbZ9pmTEwbQNZ0v3jvF0Y+6MfSbq1bMrXt5I9te3IDCwhAJA/R0DPLJGycwDPBNBtFUHQSHAiLy2BDOYr/NZoXXm7ezpjJvwXIkBKCqGu88e4ix37xU1hYxOjhBf6eHypoizp8e4Ynd6/F7w1w6e42yTQWYzAq9J6/KEu1t2rFgKRICuHJujH17jsroH64vx5GZxqHGTmp33Utb81nuqy7iWFMPNruFwrIslt6RzrkfhzBbTTQcr8e9fH5TJgRw4svztDSekSdi7a5yLp72sGKtG6fbwTcHeqh/s5r+zlGON/eSX3ynBOj7XlwvBs+/vZWqbSXzypAQwNdN3TJC0VA1O0vpOHiBii1FrF6Xw5EPf6FkYz7tn/WiRnUKy2MZiAHAjpful804dyQEcLLlAkf2/0xBiRuL1cRA1zXZblV1xZw6PMCWp8vxeYO0Heglw5lGmsOKZ+C66E72NDzCpsfWpAYwfGmcd587PN31ottduQ4iARXfRAhDM9ANA78vjJCgEIJiUjBbFPZ9+wyu7Nj9kfQ5oGk6Dbu/YkREJSRmNZF3jwvvHwHc+UtY6konHFLRVYMzrZfRNENKs6KmkFfef1zCpAQgFvd3efjg1bYpmZO72kk0opPmsMjaR4MqQq6TYwF83pCU4luf17GyODv1c0DsICI69mk3rR/3SF3/c/hMHUByltS+KIdovofqShe9ExJqwqldhAy72i9LSfonw/NSK+yubAdPvfYAazfkLXoMi/0WBbCnWTDNuWTmhuGbCNDV/it9PwwxdPFPme7C0izWVa+kYvMq0jNs8y6qmXuIDIXCsVeXzN/MN6FwbrOZ40Ismts4BuE8EtFkmRYESHbjVNb9D57lt/nD5G+HYgTbFTb/HAAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
     <t>流水线模板</t>
   </si>
   <si>
@@ -2026,6 +2053,24 @@
     <t>Node.js(Npm构建)+构建</t>
   </si>
   <si>
+    <t>devops_ci_template_pipeline-7</t>
+  </si>
+  <si>
+    <t>Python构建镜像+发布Chart</t>
+  </si>
+  <si>
+    <t>devops_ci_template_pipeline-8</t>
+  </si>
+  <si>
+    <t>PHP构建镜像+发布Chart</t>
+  </si>
+  <si>
+    <t>devops_ci_template_pipeline-9</t>
+  </si>
+  <si>
+    <t>.Net Core构建镜像+发布Chart</t>
+  </si>
+  <si>
     <t>流水线ci变量</t>
   </si>
   <si>
@@ -2095,6 +2140,24 @@
     <t>devops_ci_template_stage-12</t>
   </si>
   <si>
+    <t>devops_ci_template_stage-13</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-14</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-15</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-16</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-17</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage-18</t>
+  </si>
+  <si>
     <t>流水线模板任务分组</t>
   </si>
   <si>
@@ -2218,6 +2281,24 @@
     <t>代码检查(非maven)</t>
   </si>
   <si>
+    <t>devops_ci_template_job-18</t>
+  </si>
+  <si>
+    <t>Python镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-19</t>
+  </si>
+  <si>
+    <t>PHP镜像构建</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job-20</t>
+  </si>
+  <si>
+    <t>.Net Core构建镜像</t>
+  </si>
+  <si>
     <t>阶段任务关系表</t>
   </si>
   <si>
@@ -2284,6 +2365,24 @@
     <t>devops_ci_template_stage_job_rel-18</t>
   </si>
   <si>
+    <t>devops_ci_template_stage_job_rel-19</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-20</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-21</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-22</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-23</t>
+  </si>
+  <si>
+    <t>devops_ci_template_stage_job_rel-24</t>
+  </si>
+  <si>
     <t>devops_ci_template_step_category</t>
   </si>
   <si>
@@ -2330,6 +2429,12 @@
   </si>
   <si>
     <t>maven_unit_test</t>
+  </si>
+  <si>
+    <t>devops_ci_template_step-3</t>
+  </si>
+  <si>
+    <t>maven_build</t>
   </si>
   <si>
     <t># 功能： 执行单元测试并上传测试报告
@@ -2339,62 +2444,6 @@
 mvn surefire-report:report-only
 # 上传测试报告
 uploadMavenUnitTestReport</t>
-  </si>
-  <si>
-    <t>devops_ci_template_step-3</t>
-  </si>
-  <si>
-    <t>maven_build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# 功能： 更新pom文件中指定的项目的版本号
-# 说明： 此函数是猪齿鱼内置的shell函数，用于更新pom文件的版本号为对应commit的版本号,
-#        (这个值在猪齿鱼内置变量 CI_COMMIT_TAG 中)
-#        如果配置了依赖库，这里应该加上参数true，即：update_pom_version true
-# update_pom_version
-# 功能： 以jacoco为代理进行单元测试，可以分析单元测试覆盖率
-# 参数说明：
-#  -Dmaven.test.skip=false：不跳过单元测试
-#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
-#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
-#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
-#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
-#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
-#       -gs 指定系统级别的settings.xml
-# 更多帮助信息请执行此命令进行查看：mvn org.jacoco:jacoco-maven-plugin:help
-# mvn clean org.jacoco:jacoco-maven-plugin:prepare-agent test -Dmaven.test.failure.ignore=true -DskipTests=false -U -e -X -B
-# 功能： springboot项目打包
-# repackage可以将已经存在的jar和war格式的文件重新打包
-# 打出的jar包将可以在命令行使用java -jar命令执行。
-# 更多帮助信息请执行此命令进行查看：mvn spring-boot:help
-#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
-#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
-#       -gs 指定系统级别的settings.xml
-# mvn package spring-boot:repackage
-# 功能：  打包
-# 参数说明：
-#  -Dmaven.test.skip=true：跳过单元测试，不建议
-#  -U：每次构建检查依赖更新，可避免缓存中快照版本依赖不更新问题，但会牺牲部分性能
-#  -e -X ：打印调试信息，定位疑难构建问题时建议使用此参数构建
-#  -B：以batch模式运行，可避免日志打印时出现ArrayIndexOutOfBoundsException异常
-#       -s 指定用户级别的maven settings配置文件，如果在流水线中定义了maven仓库设置，
-#          运行时一份settings.xml会下载到根目录，此时可以使用-s settings.xml指定使用
-#       -gs 指定系统级别的settings.xml
-# 使用场景： 打包项目且不需要执行单元测试时使用
-# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=package
-mvn package -Dmaven.test.skip=true -U -e -X -B
-# 功能：打包并发布依赖包到私有依赖库
-# 使用场景： 需要将当前项目构建结果发布到私有依赖仓库以供其他maven项目引用时使用
-# 使用参数：settings.xml由用户在猪齿鱼CI流水线界面上填写信息生成存放在服务器，CI过程自动从远程服务器拉取到本地项目根目录，
-#           文件名为 settings.xml，使用-s参数指定为用户settings （Alternate path for the user settings file）
-#           使用-s指定settings.xml后，maven不会再读取$HOME/.m2/settings.xml内容。
-#           也可以使用-gs指定为全局 settings.xml 文件
-#           此处的用户认证信息id就是在配置仓库时的仓库名称
-# 更多帮助信息请执行此命令进行查看：mvn help:describe -Dcmd=deploy
-# 注意：如果发布软件包失败请检查在此之前是否有执行 update_pom_version 函数，此函数会更改pom.xml指定的version值，
-#       如果有执行，建议执行前将pom文件保存一份，到此处再将原始pom.xml恢复
-#mvn deploy -Dmaven.test.skip=true -U -e -X -B -s settings.xml -DaltDeploymentRepository=用户认证信息id::default::仓库url</t>
   </si>
   <si>
     <t>devops_ci_template_step-4</t>
@@ -2577,6 +2626,24 @@
     <t>devops_ci_template_job_step_rel-26</t>
   </si>
   <si>
+    <t>devops_ci_template_job_step_rel-27</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-28</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-29</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-30</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-31</t>
+  </si>
+  <si>
+    <t>devops_ci_template_job_step_rel-32</t>
+  </si>
+  <si>
     <t>步骤执行参数</t>
   </si>
   <si>
@@ -2679,8 +2746,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2741,6 +2808,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2758,15 +2831,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,7 +2847,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2794,37 +2875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2839,8 +2892,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,34 +2914,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2900,16 +2944,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2991,7 +3058,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3003,49 +3196,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3057,121 +3232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,12 +3255,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3218,6 +3301,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3229,26 +3325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3256,15 +3332,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3280,10 +3347,71 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3304,238 +3432,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3550,112 +3614,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3742,7 +3806,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3990,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3998,155 +4062,155 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5855263157895" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3355263157895" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.0789473684211" customWidth="1"/>
+    <col min="4" max="4" width="35.3355263157895" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5855263157895" customWidth="1"/>
+    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="21.5855263157895" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5855263157895" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0789473684211" customWidth="1"/>
+    <col min="12" max="12" width="18.5855263157895" customWidth="1"/>
+    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
+    <col min="14" max="1025" width="10.3355263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="27"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="32" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="26" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4155,65 +4219,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="38" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="38" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="38" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4234,28 +4298,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="25.837037037037" customWidth="1"/>
-    <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
+    <col min="5" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="25.8355263157895" customWidth="1"/>
+    <col min="8" max="8" width="18.3355263157895" customWidth="1"/>
+    <col min="9" max="9" width="22.5065789473684" customWidth="1"/>
+    <col min="10" max="10" width="13.8289473684211" customWidth="1"/>
+    <col min="11" max="11" width="14.0789473684211" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4275,171 +4339,171 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:15">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>248</v>
+      <c r="C7" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>251</v>
+      <c r="F7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="M7" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="N7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="O7" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
-      <c r="E8" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="6" t="str">
+      <c r="E8" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="3" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H8" s="6">
+        <v>298</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
-      <c r="E9" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="6" t="str">
+      <c r="E9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3" t="str">
         <f>流水线步骤模板!E21</f>
         <v>devops_ci_template_step-14</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="J9" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="7:7">
-      <c r="G12" s="6"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="7:7">
-      <c r="G13" s="6"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>228</v>
+      <c r="F14" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J14" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K14" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="L14" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="M14" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="N14" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="F15" t="str">
         <f>流水线步骤模板!E11</f>
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="G15" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4453,17 +4517,17 @@
     </row>
     <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F16" t="str">
         <f>流水线步骤模板!E16</f>
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="G16" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4482,23 +4546,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="25.1644736842105" customWidth="1"/>
+    <col min="5" max="5" width="31.6644736842105" customWidth="1"/>
+    <col min="6" max="6" width="17.5065789473684" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4518,38 +4582,38 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
@@ -4557,13 +4621,13 @@
       </c>
     </row>
     <row r="8" spans="5:8">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H8" t="s">
@@ -4571,13 +4635,13 @@
       </c>
     </row>
     <row r="9" spans="5:8">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H9" t="s">
@@ -4585,59 +4649,95 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1" spans="2:6">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+    <row r="11" customFormat="1" spans="5:8">
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:8">
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:8">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="5:6">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="5:6">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="5:6">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="5:6">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="1" spans="5:6">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="1" spans="5:6">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="1" spans="5:6">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="1" spans="5:6">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4646,28 +4746,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
-    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="25.1644736842105" customWidth="1"/>
+    <col min="5" max="5" width="31.6644736842105" customWidth="1"/>
+    <col min="6" max="6" width="13.1710526315789" customWidth="1"/>
+    <col min="7" max="8" width="17.5065789473684" customWidth="1"/>
+    <col min="9" max="9" width="32.0789473684211" customWidth="1"/>
+    <col min="10" max="10" width="34.1710526315789" customWidth="1"/>
+    <col min="11" max="11" width="19.1644736842105" customWidth="1"/>
+    <col min="12" max="12" width="16.4144736842105" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4687,75 +4787,75 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:13">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>66</v>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>71</v>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="5:11">
-      <c r="E8" s="6" t="s">
-        <v>75</v>
+      <c r="E8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>77</v>
+      <c r="G8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="J8" t="str">
         <f>流水线模板分类!E8</f>
@@ -4765,21 +4865,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:11">
-      <c r="E9" s="6" t="s">
-        <v>78</v>
+    <row r="9" ht="16" spans="5:11">
+      <c r="E9" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>80</v>
+      <c r="G9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="J9" t="str">
         <f>流水线模板分类!E8</f>
@@ -4790,20 +4890,20 @@
       </c>
     </row>
     <row r="10" spans="5:11">
-      <c r="E10" s="6" t="s">
-        <v>81</v>
+      <c r="E10" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>82</v>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J10" t="str">
         <f>流水线模板分类!E9</f>
@@ -4815,19 +4915,19 @@
     </row>
     <row r="11" customFormat="1" spans="5:11">
       <c r="E11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J11" t="str">
         <f>流水线模板分类!E9</f>
@@ -4839,19 +4939,19 @@
     </row>
     <row r="12" customFormat="1" spans="5:11">
       <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J12" t="str">
         <f>流水线模板分类!E10</f>
@@ -4862,23 +4962,23 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:11">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>87</v>
+      <c r="E13" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J13" t="str">
         <f>流水线模板分类!E10</f>
@@ -4888,58 +4988,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" spans="5:8">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" spans="5:8">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" customFormat="1" spans="5:8">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" customFormat="1" spans="5:8">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
+    <row r="14" customFormat="1" spans="5:11">
+      <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="str">
+        <f>流水线模板分类!E11</f>
+        <v>devops_ci_template_category-4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:11">
+      <c r="E15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" t="str">
+        <f>流水线模板分类!E12</f>
+        <v>devops_ci_template_category-5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:11">
+      <c r="E16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="str">
+        <f>流水线模板分类!E13</f>
+        <v>devops_ci_template_category-6</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
     <row r="20" customFormat="1" spans="5:8">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="1" spans="5:8">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" customFormat="1" spans="6:6">
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" customFormat="1" spans="6:6">
-      <c r="F23" s="6"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" customFormat="1" spans="6:8">
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customFormat="1" spans="6:8">
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4948,23 +5099,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="25.1644736842105" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
-    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="19.9210526315789" customWidth="1"/>
+    <col min="7" max="8" width="17.5065789473684" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4984,97 +5135,97 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>89</v>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>93</v>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
-      <c r="E8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="1" spans="5:8">
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="5:8">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="6"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="6:6">
-      <c r="F17" s="6"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5083,23 +5234,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="28.6644736842105" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0789473684211" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5119,52 +5270,52 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>94</v>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>91</v>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
-      <c r="E8" s="6" t="s">
-        <v>97</v>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="6" t="str">
+        <v>113</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f>流水线模板!E8</f>
         <v>devops_ci_template_pipeline-1</v>
       </c>
@@ -5172,14 +5323,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="5:8">
-      <c r="E9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="6" t="str">
+    <row r="9" customFormat="1" ht="16.8" spans="5:8">
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <f>流水线模板!E8</f>
         <v>devops_ci_template_pipeline-1</v>
       </c>
@@ -5188,13 +5339,13 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="6" t="str">
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <f>流水线模板!E9</f>
         <v>devops_ci_template_pipeline-2</v>
       </c>
@@ -5203,13 +5354,13 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="6" t="str">
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="3" t="str">
         <f>流水线模板!E9</f>
         <v>devops_ci_template_pipeline-2</v>
       </c>
@@ -5218,13 +5369,13 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="6" t="str">
+      <c r="E12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="3" t="str">
         <f>流水线模板!E10</f>
         <v>devops_ci_template_pipeline-3</v>
       </c>
@@ -5233,13 +5384,13 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:8">
-      <c r="E13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="6" t="str">
+      <c r="E13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="3" t="str">
         <f>流水线模板!E10</f>
         <v>devops_ci_template_pipeline-3</v>
       </c>
@@ -5248,11 +5399,11 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>98</v>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板!E11</f>
@@ -5263,11 +5414,11 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>103</v>
+      <c r="E15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板!E11</f>
@@ -5278,11 +5429,11 @@
       </c>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="6" t="s">
-        <v>108</v>
+      <c r="E16" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G16" t="str">
         <f>流水线模板!E12</f>
@@ -5293,11 +5444,11 @@
       </c>
     </row>
     <row r="17" spans="5:8">
-      <c r="E17" s="6" t="s">
-        <v>109</v>
+      <c r="E17" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G17" t="str">
         <f>流水线模板!E12</f>
@@ -5308,11 +5459,11 @@
       </c>
     </row>
     <row r="18" spans="5:8">
-      <c r="E18" s="6" t="s">
-        <v>110</v>
+      <c r="E18" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G18" t="str">
         <f>流水线模板!E13</f>
@@ -5323,17 +5474,107 @@
       </c>
     </row>
     <row r="19" spans="5:8">
-      <c r="E19" s="6" t="s">
-        <v>111</v>
+      <c r="E19" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G19" t="str">
         <f>流水线模板!E13</f>
         <v>devops_ci_template_pipeline-6</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="str">
+        <f>流水线模板!E14</f>
+        <v>devops_ci_template_pipeline-7</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="str">
+        <f>流水线模板!E14</f>
+        <v>devops_ci_template_pipeline-7</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="str">
+        <f>流水线模板!E15</f>
+        <v>devops_ci_template_pipeline-8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="str">
+        <f>流水线模板!E15</f>
+        <v>devops_ci_template_pipeline-8</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" t="str">
+        <f>流水线模板!E16</f>
+        <v>devops_ci_template_pipeline-9</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="str">
+        <f>流水线模板!E16</f>
+        <v>devops_ci_template_pipeline-9</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
@@ -5344,23 +5585,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="21.2518518518519" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="28.6644736842105" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0789473684211" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5380,137 +5621,137 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>112</v>
+      <c r="C7" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:8">
+      <c r="E8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="16.8" spans="5:8">
+      <c r="E9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:8">
+      <c r="E10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:8">
-      <c r="E8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="5:8">
-      <c r="E9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>123</v>
+      <c r="E11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>126</v>
+      <c r="E12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:8">
-      <c r="E13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>129</v>
+      <c r="E13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:6">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="6"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="6"/>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5519,28 +5760,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.7481481481481" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="29.0814814814815" customWidth="1"/>
-    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.8296296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.9185185185185" customWidth="1"/>
-    <col min="12" max="12" width="14.1703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="29.0789473684211" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.8289473684211" customWidth="1"/>
+    <col min="10" max="10" width="17.9210526315789" customWidth="1"/>
+    <col min="12" max="12" width="14.1710526315789" customWidth="1"/>
+    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5560,79 +5801,79 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:14">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>131</v>
+      <c r="C7" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>133</v>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="M7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" t="s">
         <v>135</v>
       </c>
-      <c r="N7" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="8" customFormat="1" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="6" t="str">
+      <c r="E8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f>流水线模板任务分组!E10</f>
         <v>devops_ci_template_job_group-3</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5647,22 +5888,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:14">
-      <c r="E9" s="6" t="s">
-        <v>139</v>
+      <c r="E9" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="6" t="str">
+        <v>144</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <f>流水线模板任务分组!E11</f>
         <v>devops_ci_template_job_group-4</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5677,22 +5918,22 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="5:14">
-      <c r="E10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="6" t="str">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="16.8" spans="5:14">
+      <c r="E10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5707,22 +5948,22 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:14">
-      <c r="E11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="6" t="str">
+      <c r="E11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="3" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5737,22 +5978,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:14">
       <c r="E12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>145</v>
+        <v>165</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G12" t="str">
         <f>流水线模板任务分组!E9</f>
         <v>devops_ci_template_job_group-2</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5767,22 +6008,22 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G13" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -5797,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G14" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5827,22 +6068,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G15" t="str">
         <f>流水线模板任务分组!E8</f>
         <v>devops_ci_template_job_group-1</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5857,22 +6098,22 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="5:14">
       <c r="E16" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G16" t="str">
         <f>流水线模板任务分组!E10</f>
         <v>devops_ci_template_job_group-3</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5887,124 +6128,136 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="str">
+        <f>流水线模板任务分组!E9</f>
+        <v>devops_ci_template_job_group-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
       <c r="E18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="str">
+        <f>流水线模板任务分组!E9</f>
+        <v>devops_ci_template_job_group-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="str">
+        <f>流水线模板任务分组!E9</f>
+        <v>devops_ci_template_job_group-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" t="str">
         <f>流水线阶段模板!E8</f>
         <v>devops_ci_template_stage-1</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G25" t="str">
         <f>E8</f>
         <v>devops_ci_template_job-1</v>
       </c>
     </row>
-    <row r="20" spans="5:7">
-      <c r="E20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" t="str">
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" t="str">
         <f>流水线阶段模板!E8</f>
         <v>devops_ci_template_stage-1</v>
-      </c>
-      <c r="G20" t="str">
-        <f>E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" t="str">
-        <f>流水线阶段模板!E9</f>
-        <v>devops_ci_template_stage-2</v>
-      </c>
-      <c r="G21" t="str">
-        <f>E10</f>
-        <v>devops_ci_template_job-3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="str">
-        <f>流水线阶段模板!E10</f>
-        <v>devops_ci_template_stage-3</v>
-      </c>
-      <c r="G22" t="str">
-        <f>E8</f>
-        <v>devops_ci_template_job-1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" t="str">
-        <f>流水线阶段模板!E10</f>
-        <v>devops_ci_template_stage-3</v>
-      </c>
-      <c r="G23" t="str">
-        <f>E9</f>
-        <v>devops_ci_template_job-2</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" t="str">
-        <f>流水线阶段模板!E11</f>
-        <v>devops_ci_template_stage-4</v>
-      </c>
-      <c r="G24" t="str">
-        <f>E11</f>
-        <v>devops_ci_template_job-6</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" t="str">
-        <f>流水线阶段模板!E12</f>
-        <v>devops_ci_template_stage-5</v>
-      </c>
-      <c r="G25" t="str">
-        <f>E16</f>
-        <v>devops_ci_template_job-17</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" t="str">
-        <f>流水线阶段模板!E12</f>
-        <v>devops_ci_template_stage-5</v>
       </c>
       <c r="G26" t="str">
         <f>E9</f>
@@ -6013,37 +6266,37 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F27" t="str">
-        <f>流水线阶段模板!E13</f>
-        <v>devops_ci_template_stage-6</v>
+        <f>流水线阶段模板!E9</f>
+        <v>devops_ci_template_stage-2</v>
       </c>
       <c r="G27" t="str">
-        <f>E12</f>
-        <v>devops_ci_template_job-9</v>
+        <f>E10</f>
+        <v>devops_ci_template_job-3</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F28" t="str">
-        <f>流水线阶段模板!E14</f>
-        <v>devops_ci_template_stage-7</v>
+        <f>流水线阶段模板!E10</f>
+        <v>devops_ci_template_stage-3</v>
       </c>
       <c r="G28" t="str">
-        <f>E16</f>
-        <v>devops_ci_template_job-17</v>
+        <f>E8</f>
+        <v>devops_ci_template_job-1</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F29" t="str">
-        <f>流水线阶段模板!E14</f>
-        <v>devops_ci_template_stage-7</v>
+        <f>流水线阶段模板!E10</f>
+        <v>devops_ci_template_stage-3</v>
       </c>
       <c r="G29" t="str">
         <f>E9</f>
@@ -6052,24 +6305,24 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="F30" t="str">
-        <f>流水线阶段模板!E15</f>
-        <v>devops_ci_template_stage-8</v>
+        <f>流水线阶段模板!E11</f>
+        <v>devops_ci_template_stage-4</v>
       </c>
       <c r="G30" t="str">
-        <f>E13</f>
-        <v>devops_ci_template_job-12</v>
+        <f>E11</f>
+        <v>devops_ci_template_job-6</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F31" t="str">
-        <f>流水线阶段模板!E16</f>
-        <v>devops_ci_template_stage-9</v>
+        <f>流水线阶段模板!E12</f>
+        <v>devops_ci_template_stage-5</v>
       </c>
       <c r="G31" t="str">
         <f>E16</f>
@@ -6078,11 +6331,11 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F32" t="str">
-        <f>流水线阶段模板!E16</f>
-        <v>devops_ci_template_stage-9</v>
+        <f>流水线阶段模板!E12</f>
+        <v>devops_ci_template_stage-5</v>
       </c>
       <c r="G32" t="str">
         <f>E9</f>
@@ -6091,24 +6344,24 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F33" t="str">
-        <f>流水线阶段模板!E17</f>
-        <v>devops_ci_template_stage-10</v>
+        <f>流水线阶段模板!E13</f>
+        <v>devops_ci_template_stage-6</v>
       </c>
       <c r="G33" t="str">
-        <f>E14</f>
-        <v>devops_ci_template_job-15</v>
+        <f>E12</f>
+        <v>devops_ci_template_job-9</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="F34" t="str">
-        <f>流水线阶段模板!E18</f>
-        <v>devops_ci_template_stage-11</v>
+        <f>流水线阶段模板!E14</f>
+        <v>devops_ci_template_stage-7</v>
       </c>
       <c r="G34" t="str">
         <f>E16</f>
@@ -6117,11 +6370,11 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F35" t="str">
-        <f>流水线阶段模板!E18</f>
-        <v>devops_ci_template_stage-11</v>
+        <f>流水线阶段模板!E14</f>
+        <v>devops_ci_template_stage-7</v>
       </c>
       <c r="G35" t="str">
         <f>E9</f>
@@ -6130,15 +6383,171 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F36" t="str">
+        <f>流水线阶段模板!E15</f>
+        <v>devops_ci_template_stage-8</v>
+      </c>
+      <c r="G36" t="str">
+        <f>E13</f>
+        <v>devops_ci_template_job-12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="str">
+        <f>流水线阶段模板!E16</f>
+        <v>devops_ci_template_stage-9</v>
+      </c>
+      <c r="G37" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" t="str">
+        <f>流水线阶段模板!E16</f>
+        <v>devops_ci_template_stage-9</v>
+      </c>
+      <c r="G38" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" t="str">
+        <f>流水线阶段模板!E17</f>
+        <v>devops_ci_template_stage-10</v>
+      </c>
+      <c r="G39" t="str">
+        <f>E14</f>
+        <v>devops_ci_template_job-15</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="str">
+        <f>流水线阶段模板!E18</f>
+        <v>devops_ci_template_stage-11</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" t="str">
+        <f>流水线阶段模板!E18</f>
+        <v>devops_ci_template_stage-11</v>
+      </c>
+      <c r="G41" t="str">
+        <f>E9</f>
+        <v>devops_ci_template_job-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" t="str">
         <f>流水线阶段模板!E19</f>
         <v>devops_ci_template_stage-12</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G42" t="str">
         <f>E15</f>
         <v>devops_ci_template_job-16</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="str">
+        <f>流水线阶段模板!E20</f>
+        <v>devops_ci_template_stage-13</v>
+      </c>
+      <c r="G43" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" t="str">
+        <f>流水线阶段模板!E21</f>
+        <v>devops_ci_template_stage-14</v>
+      </c>
+      <c r="G44" t="str">
+        <f>E17</f>
+        <v>devops_ci_template_job-18</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" t="str">
+        <f>流水线阶段模板!E22</f>
+        <v>devops_ci_template_stage-15</v>
+      </c>
+      <c r="G45" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" t="str">
+        <f>流水线阶段模板!E23</f>
+        <v>devops_ci_template_stage-16</v>
+      </c>
+      <c r="G46" t="str">
+        <f>E18</f>
+        <v>devops_ci_template_job-19</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" t="str">
+        <f>流水线阶段模板!E24</f>
+        <v>devops_ci_template_stage-17</v>
+      </c>
+      <c r="G47" t="str">
+        <f>E16</f>
+        <v>devops_ci_template_job-17</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" t="str">
+        <f>流水线阶段模板!E25</f>
+        <v>devops_ci_template_stage-18</v>
+      </c>
+      <c r="G48" t="str">
+        <f>E19</f>
+        <v>devops_ci_template_job-20</v>
       </c>
     </row>
   </sheetData>
@@ -6148,22 +6557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="28.6644736842105" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="22.0789473684211" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6183,95 +6592,95 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:6">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>112</v>
+      <c r="C7" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>70</v>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
-      <c r="E8" s="6" t="s">
-        <v>176</v>
+      <c r="E8" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>123</v>
+    <row r="9" customFormat="1" ht="16.8" spans="5:7">
+      <c r="E9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
-      <c r="E10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>179</v>
+      <c r="E10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
-      <c r="E11" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>181</v>
+      <c r="E11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:6">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="5:6">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="1" spans="6:6">
-      <c r="F14" s="6"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="6:6">
-      <c r="F15" s="6"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6280,27 +6689,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
-    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
-    <col min="4" max="4" width="33.9185185185185" customWidth="1"/>
-    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
-    <col min="6" max="6" width="27.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="29.0814814814815" customWidth="1"/>
-    <col min="8" max="8" width="16.837037037037" customWidth="1"/>
-    <col min="9" max="9" width="32.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="16.5851851851852" customWidth="1"/>
-    <col min="11" max="11" width="28.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
+    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
+    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="4" max="4" width="33.9210526315789" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="27.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="29.0789473684211" customWidth="1"/>
+    <col min="8" max="8" width="16.8355263157895" customWidth="1"/>
+    <col min="9" max="9" width="32.1118421052632" customWidth="1"/>
+    <col min="10" max="10" width="16.5855263157895" customWidth="1"/>
+    <col min="11" max="11" width="28.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -6320,446 +6729,443 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>44530</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>112</v>
+      <c r="C7" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>68</v>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>70</v>
+        <v>217</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I8" t="str">
         <f>流水线步骤分类!E10</f>
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="172.5" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+    <row r="9" customFormat="1" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="E9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I9" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="409.5" spans="5:12">
-      <c r="E10" s="6" t="s">
-        <v>192</v>
+    <row r="10" customFormat="1" ht="137" spans="5:12">
+      <c r="E10" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="6">
+        <v>164</v>
+      </c>
+      <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I10" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>194</v>
+        <v>225</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:12">
-      <c r="E11" s="6" t="s">
-        <v>195</v>
+      <c r="E11" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="6">
+        <v>228</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I11" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:12">
-      <c r="E12" s="6" t="s">
-        <v>198</v>
+      <c r="E12" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="6">
+        <v>231</v>
+      </c>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I12" t="str">
         <f>流水线步骤分类!E11</f>
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J12" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="409.5" spans="5:12">
-      <c r="E13" s="6" t="s">
-        <v>201</v>
+    <row r="13" customFormat="1" ht="350" spans="5:12">
+      <c r="E13" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="6">
+        <v>234</v>
+      </c>
+      <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I13" t="str">
         <f>流水线步骤分类!E11</f>
         <v>devops_ci_template_step_category-4</v>
       </c>
       <c r="J13" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:12">
-      <c r="E14" s="6" t="s">
-        <v>205</v>
+      <c r="E14" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="6">
+        <v>238</v>
+      </c>
+      <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I14" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J14" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:12">
-      <c r="E15" s="6" t="s">
-        <v>208</v>
+      <c r="E15" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="6">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I15" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J15" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:12">
-      <c r="E16" s="6" t="s">
-        <v>210</v>
+      <c r="E16" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="6">
+        <v>228</v>
+      </c>
+      <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I16" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J16" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="155.25" spans="5:12">
-      <c r="E17" s="6" t="s">
-        <v>211</v>
+    <row r="17" customFormat="1" ht="137" spans="5:12">
+      <c r="E17" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="6">
+        <v>244</v>
+      </c>
+      <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I17" t="str">
         <f>流水线步骤分类!E9</f>
         <v>devops_ci_template_step_category-2</v>
       </c>
       <c r="J17" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:12">
-      <c r="E18" s="6" t="s">
-        <v>215</v>
+      <c r="E18" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="6">
+        <v>248</v>
+      </c>
+      <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I18" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J18" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="345" spans="5:12">
-      <c r="E19" s="6" t="s">
-        <v>218</v>
+    <row r="19" customFormat="1" ht="304" spans="5:12">
+      <c r="E19" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="6">
+        <v>171</v>
+      </c>
+      <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I19" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="241.5" spans="5:12">
-      <c r="E20" s="6" t="s">
-        <v>221</v>
+    <row r="20" customFormat="1" ht="198" spans="5:12">
+      <c r="E20" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="6">
+        <v>254</v>
+      </c>
+      <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I20" t="str">
         <f>流水线步骤分类!E8</f>
         <v>devops_ci_template_step_category-1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="47" customHeight="1" spans="5:12">
-      <c r="E21" s="6" t="s">
-        <v>225</v>
+      <c r="E21" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="6">
+        <v>258</v>
+      </c>
+      <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I21" t="str">
         <f>流水线步骤分类!E10</f>
         <v>devops_ci_template_step_category-3</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="5:7">
-      <c r="E22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" customFormat="1" spans="5:7">
-      <c r="E23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F30" t="str">
         <f>流水线任务模板!E8</f>
@@ -6775,7 +7181,7 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F31" t="str">
         <f>流水线任务模板!E9</f>
@@ -6786,12 +7192,12 @@
         <v>devops_ci_template_step-2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F32" t="str">
         <f>流水线任务模板!E10</f>
@@ -6802,12 +7208,12 @@
         <v>devops_ci_template_step-3</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F33" t="str">
         <f>流水线任务模板!E10</f>
@@ -6818,12 +7224,12 @@
         <v>devops_ci_template_step-4</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F34" t="str">
         <f>流水线任务模板!E10</f>
@@ -6834,12 +7240,12 @@
         <v>devops_ci_template_step-5</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F35" t="str">
         <f>流水线任务模板!E11</f>
@@ -6850,12 +7256,12 @@
         <v>devops_ci_template_step-3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="F36" t="str">
         <f>流水线任务模板!E11</f>
@@ -6866,12 +7272,12 @@
         <v>devops_ci_template_step-6</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F37" t="str">
         <f>流水线任务模板!E9</f>
@@ -6887,7 +7293,7 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F38" t="str">
         <f>流水线任务模板!E12</f>
@@ -6898,12 +7304,12 @@
         <v>devops_ci_template_step-8</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F39" t="str">
         <f>流水线任务模板!E12</f>
@@ -6914,12 +7320,12 @@
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F40" t="str">
         <f>流水线任务模板!E12</f>
@@ -6930,12 +7336,12 @@
         <v>devops_ci_template_step-5</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="F41" t="str">
         <f>流水线任务模板!E9</f>
@@ -6946,12 +7352,12 @@
         <v>devops_ci_template_step-7</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="F42" t="str">
         <f>流水线任务模板!E13</f>
@@ -6962,12 +7368,12 @@
         <v>devops_ci_template_step-8</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="F43" t="str">
         <f>流水线任务模板!E9</f>
@@ -6978,12 +7384,12 @@
         <v>devops_ci_template_step-10</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="F44" t="str">
         <f>流水线任务模板!E14</f>
@@ -6994,12 +7400,12 @@
         <v>devops_ci_template_step-11</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="F45" t="str">
         <f>流水线任务模板!E14</f>
@@ -7010,12 +7416,12 @@
         <v>devops_ci_template_step-9</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="F46" t="str">
         <f>流水线任务模板!E14</f>
@@ -7026,12 +7432,12 @@
         <v>devops_ci_template_step-5</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="F47" t="str">
         <f>流水线任务模板!E15</f>
@@ -7042,12 +7448,12 @@
         <v>devops_ci_template_step-12</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="F48" t="str">
         <f>流水线任务模板!E16</f>
@@ -7059,6 +7465,102 @@
       </c>
       <c r="H48">
         <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
+      <c r="E49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" t="str">
+        <f>流水线任务模板!E17</f>
+        <v>devops_ci_template_job-18</v>
+      </c>
+      <c r="G49" t="str">
+        <f>E11</f>
+        <v>devops_ci_template_step-4</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" t="str">
+        <f>流水线任务模板!E17</f>
+        <v>devops_ci_template_job-18</v>
+      </c>
+      <c r="G50" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" t="str">
+        <f>流水线任务模板!E18</f>
+        <v>devops_ci_template_job-19</v>
+      </c>
+      <c r="G51" t="str">
+        <f>E11</f>
+        <v>devops_ci_template_step-4</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
+      <c r="E52" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" t="str">
+        <f>流水线任务模板!E18</f>
+        <v>devops_ci_template_job-19</v>
+      </c>
+      <c r="G52" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
+      <c r="E53" t="s">
+        <v>284</v>
+      </c>
+      <c r="F53" t="str">
+        <f>流水线任务模板!E19</f>
+        <v>devops_ci_template_job-20</v>
+      </c>
+      <c r="G53" t="str">
+        <f>E11</f>
+        <v>devops_ci_template_step-4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8">
+      <c r="E54" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" t="str">
+        <f>流水线任务模板!E19</f>
+        <v>devops_ci_template_job-20</v>
+      </c>
+      <c r="G54" t="str">
+        <f>E12</f>
+        <v>devops_ci_template_step-5</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_pipeline_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="815" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="318">
   <si>
     <r>
       <rPr>
@@ -2745,12 +2745,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2788,6 +2788,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="宋体"/>
@@ -2804,12 +2811,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2831,41 +2832,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2875,40 +2845,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2921,9 +2859,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2934,21 +2878,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2967,6 +2896,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2976,7 +2983,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3058,79 +3065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3148,13 +3089,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,7 +3161,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,67 +3221,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,28 +3262,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3301,12 +3292,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3315,13 +3315,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3336,75 +3334,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3432,6 +3376,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3445,165 +3452,166 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3611,115 +3619,115 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4054,7 +4062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -4062,155 +4070,155 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5855263157895" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3355263157895" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.0789473684211" customWidth="1"/>
-    <col min="4" max="4" width="35.3355263157895" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5855263157895" customWidth="1"/>
-    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
-    <col min="7" max="7" width="21.5855263157895" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5855263157895" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0789473684211" customWidth="1"/>
-    <col min="12" max="12" width="18.5855263157895" customWidth="1"/>
-    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
-    <col min="14" max="1025" width="10.3355263157895" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="27"/>
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="16" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="20" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="22" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="18" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="23" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4219,65 +4227,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="25" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="26" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="26" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="26" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="26" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="29" t="s">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4298,7 +4306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -4306,20 +4314,20 @@
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
-    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
-    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="25.8355263157895" customWidth="1"/>
-    <col min="8" max="8" width="18.3355263157895" customWidth="1"/>
-    <col min="9" max="9" width="22.5065789473684" customWidth="1"/>
-    <col min="10" max="10" width="13.8289473684211" customWidth="1"/>
-    <col min="11" max="11" width="14.0789473684211" customWidth="1"/>
+    <col min="5" max="6" width="36.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="25.837037037037" customWidth="1"/>
+    <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5037037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.0814814814815" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="14" width="18.6644736842105" customWidth="1"/>
+    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4339,42 +4347,42 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:15">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44530</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>289</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -4400,17 +4408,17 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:9">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="6" t="str">
         <f>流水线步骤模板!E8</f>
         <v>devops_ci_template_step-1</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -4418,17 +4426,17 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:10">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="6" t="str">
         <f>流水线步骤模板!E21</f>
         <v>devops_ci_template_step-14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" t="s">
@@ -4439,22 +4447,22 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="7:7">
-      <c r="G12" s="3"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" customFormat="1" spans="7:7">
-      <c r="G13" s="3"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="4:14">
       <c r="D14" t="s">
@@ -4463,7 +4471,7 @@
       <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G14" t="s">
@@ -4546,7 +4554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -4554,15 +4562,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
-    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
-    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
-    <col min="4" max="4" width="25.1644736842105" customWidth="1"/>
-    <col min="5" max="5" width="31.6644736842105" customWidth="1"/>
-    <col min="6" max="6" width="17.5065789473684" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="22.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4582,38 +4590,38 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44530</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
@@ -4621,13 +4629,13 @@
       </c>
     </row>
     <row r="8" spans="5:8">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H8" t="s">
@@ -4635,13 +4643,13 @@
       </c>
     </row>
     <row r="9" spans="5:8">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H9" t="s">
@@ -4649,13 +4657,13 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
@@ -4663,7 +4671,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F11">
@@ -4677,7 +4685,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F12">
@@ -4691,13 +4699,13 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" t="s">
@@ -4708,36 +4716,36 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:6">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="5:6">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="5:6">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="5:6">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="5:6">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="5:6">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="5:6">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="5:6">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4746,7 +4754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -4754,20 +4762,20 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
-    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
-    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
-    <col min="4" max="4" width="25.1644736842105" customWidth="1"/>
-    <col min="5" max="5" width="31.6644736842105" customWidth="1"/>
-    <col min="6" max="6" width="13.1710526315789" customWidth="1"/>
-    <col min="7" max="8" width="17.5065789473684" customWidth="1"/>
-    <col min="9" max="9" width="32.0789473684211" customWidth="1"/>
-    <col min="10" max="10" width="34.1710526315789" customWidth="1"/>
-    <col min="11" max="11" width="19.1644736842105" customWidth="1"/>
-    <col min="12" max="12" width="16.4144736842105" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.1703703703704" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="32.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="34.1703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="16.4148148148148" customWidth="1"/>
+    <col min="13" max="13" width="13.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -4787,45 +4795,45 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:13">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44530</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>80</v>
       </c>
       <c r="J7" t="s">
@@ -4842,19 +4850,19 @@
       </c>
     </row>
     <row r="8" spans="5:11">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J8" t="str">
@@ -4865,20 +4873,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="16" spans="5:11">
-      <c r="E9" s="3" t="s">
+    <row r="9" spans="5:11">
+      <c r="E9" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J9" t="str">
@@ -4890,19 +4898,19 @@
       </c>
     </row>
     <row r="10" spans="5:11">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J10" t="str">
@@ -4962,19 +4970,19 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:11">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" t="s">
@@ -4989,16 +4997,16 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:11">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
       <c r="I14" t="s">
@@ -5013,16 +5021,16 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:11">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
       <c r="I15" t="s">
@@ -5037,16 +5045,16 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:11">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>1</v>
       </c>
       <c r="I16" t="s">
@@ -5064,33 +5072,33 @@
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1"/>
     <row r="20" customFormat="1" spans="5:8">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="5:8">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="6:8">
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="6:8">
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="8:8">
-      <c r="H24" s="3"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="3"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="8:8">
-      <c r="H26" s="3"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5099,7 +5107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -5107,15 +5115,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
-    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
-    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
-    <col min="4" max="4" width="25.1644736842105" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="25.162962962963" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.9210526315789" customWidth="1"/>
-    <col min="7" max="8" width="17.5065789473684" customWidth="1"/>
+    <col min="6" max="6" width="19.9185185185185" customWidth="1"/>
+    <col min="7" max="8" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5135,97 +5143,97 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:8">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44530</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="5:8">
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" customFormat="1" spans="5:8">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="6:6">
-      <c r="F16" s="3"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="6:6">
-      <c r="F17" s="3"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5234,7 +5242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -5242,15 +5250,15 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5065789473684" customWidth="1"/>
-    <col min="2" max="2" width="24.1644736842105" customWidth="1"/>
-    <col min="3" max="3" width="28.5855263157895" customWidth="1"/>
-    <col min="4" max="4" width="28.6644736842105" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="22.0789473684211" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="22.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.162962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.5851851851852" customWidth="1"/>
+    <col min="4" max="4" width="28.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="22.0814814814815" customWidth="1"/>
+    <col min="7" max="7" width="36.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -5270,38 +5278,38 @@
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44530</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -5309,13 +5317,13 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:8">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F8" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="6" t="str">
         <f>流水线模板!E8</f>
         <v>devops_ci_template_pipeline-1</v>
       </c>
@@ -5323,14 +5331,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="16.8" spans="5:8">
-      <c r="E9" s="3" t="s">
+    <row r="9" customFormat="1" spans="5:8">
+      <c r="E9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="6" t="str">
         <f>流水线模板!E8</f>
         <v>devops_ci_template_pipeline-1</v>
       </c>
@@ -5339,13 +5347,13 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:8">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="6" t="str">
         <f>流水线模板!E9</f>
         <v>devops_ci_template_pipeline-2</v>
       </c>
@@ -5354,13 +5362,13 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:8">
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="6" t="str">
         <f>流水线模板!E9</f>
         <v>devops_ci_template_pipeline-2</v>
       </c>
@@ -5369,13 +5377,13 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:8">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="6" t="str">
         <f>流水线模板!E10</f>
         <v>devops_ci_template_pipeline-3</v>
       </c>
@@ -5384,13 +5392,13 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:8">
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="6" t="str">
         <f>流水线模板!E10</f>
         <v>devops_ci_template_pipeline-3</v>
       </c>
@@ -5399,10 +5407,10 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:8">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G14" t="str">
@@ -5414,10 +5422,10 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:8">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G15" t="str">
@@ -5429,7 +5437,7 @@
       </c>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>123</v>
       </c>
       <c r="F16" t="s">
@@ -5444,7 +5452,7 @@
       </c>
     </row>
     <row r="17" spans="5:8">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F17" t="s">
@@ -5459,7 +5467,7 @@
       </c>
     </row>
     <row r="18" spans="5:8">
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>125</v>
       </c>
       <c r="F18" t="s">
@@ -5474,7 +5482,7 @@
       </c>
     </row>
     <row r="19" spans="5:8">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F19" t="s">
@@ -5489,7 +5497,7 @@
       </c>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
@@ -5504,7 +5512,7 @@
       </c>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>128</v>
       </c>
       <c r="F21" t="s">
@@ -5519,7 +5527,7 @@
       </c>
     </row>
     <row r="22" spans="5:8">
-      <c r="E22" s="3" t="s">
+      <c r="E